--- a/work_time.xlsx
+++ b/work_time.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Users\binyu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vue\git\weekly_work_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F9DD9E0-7B59-4C70-9560-7A87FED13346}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB69F161-A88B-47AF-85E7-56EB1C5848BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="21972" windowHeight="13176" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="27">
   <si>
     <t>6月第二周</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,6 +104,38 @@
   </si>
   <si>
     <t>分析优衣库网页数据格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写添加商品脚本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取excel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜色尺码字段格式调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制作添加商品脚本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加商品分类（嵌套格式）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加文章和文章类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试并撰写工作报告</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -150,7 +182,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -240,11 +272,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -281,16 +324,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -608,7 +663,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -618,128 +673,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16">
+      <c r="B1" s="17">
         <v>43990</v>
       </c>
-      <c r="C1" s="16">
+      <c r="C1" s="17">
         <v>43991</v>
       </c>
-      <c r="D1" s="16">
+      <c r="D1" s="17">
         <v>43992</v>
       </c>
-      <c r="E1" s="16">
+      <c r="E1" s="17">
         <v>43993</v>
       </c>
-      <c r="F1" s="16">
+      <c r="F1" s="17">
         <v>43994</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:6" s="14" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5"/>
+      <c r="C2" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
+      <c r="C3" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
     </row>
     <row r="4" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="15" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
+      <c r="C4" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
     </row>
     <row r="5" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="15" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="13"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
+      <c r="C5" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
     </row>
     <row r="6" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="15" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
     </row>
     <row r="7" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="15" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="13"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
+      <c r="C7" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
     </row>
     <row r="8" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
+      <c r="C8" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
     </row>
     <row r="9" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
+      <c r="C9" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
     </row>
     <row r="10" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
+      <c r="C10" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -962,9 +1033,10 @@
       <c r="F32" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C5:C6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/work_time.xlsx
+++ b/work_time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vue\git\weekly_work_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB69F161-A88B-47AF-85E7-56EB1C5848BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1068DE9B-E12C-4F59-BD94-674DF5ACDE75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="21972" windowHeight="13176" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="35">
   <si>
     <t>6月第二周</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,6 +136,38 @@
   </si>
   <si>
     <t>测试并撰写工作报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试文章分类模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复小程序首页获取栏目与文章的bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试首页、图文模块、分类模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试文章模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试商品添加模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复编辑商品的轮播图数据格式bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撰写工作报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写其他模块的excel数据和通用的添加脚本</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -318,12 +350,6 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -340,10 +366,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -663,7 +695,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -673,144 +705,162 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17">
+      <c r="B1" s="15">
         <v>43990</v>
       </c>
-      <c r="C1" s="17">
+      <c r="C1" s="15">
         <v>43991</v>
       </c>
-      <c r="D1" s="17">
+      <c r="D1" s="15">
         <v>43992</v>
       </c>
-      <c r="E1" s="17">
+      <c r="E1" s="15">
         <v>43993</v>
       </c>
-      <c r="F1" s="17">
+      <c r="F1" s="15">
         <v>43994</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="14" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:6" s="12" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="5"/>
+      <c r="D2" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
+      <c r="D3" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
+      <c r="D4" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
     </row>
     <row r="5" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="12" t="s">
+      <c r="B5" s="20"/>
+      <c r="C5" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
+      <c r="D5" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
     </row>
     <row r="7" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="15" t="s">
+      <c r="B7" s="20"/>
+      <c r="C7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
+      <c r="D7" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
     </row>
     <row r="8" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
+      <c r="D8" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
     </row>
     <row r="9" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
+      <c r="D9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
     </row>
     <row r="10" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
+      <c r="D10" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">

--- a/work_time.xlsx
+++ b/work_time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vue\git\weekly_work_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1068DE9B-E12C-4F59-BD94-674DF5ACDE75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE40F4CD-2D5C-4552-9FBF-17576AEDEBC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="21972" windowHeight="13176" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="42">
   <si>
     <t>6月第二周</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -168,6 +168,34 @@
   </si>
   <si>
     <t>编写其他模块的excel数据和通用的添加脚本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试商品、商品分类、订单模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试商品分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试订单模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小程序订单页编辑地址组件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试地址、顾客模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善小程序大类页小类页与修复bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改小程序购物车样式与交互逻辑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -319,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -368,6 +396,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -695,7 +726,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -737,7 +768,9 @@
       <c r="D2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="5"/>
+      <c r="E2" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -753,14 +786,16 @@
       <c r="D3" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="13"/>
+      <c r="E3" s="13" t="s">
+        <v>36</v>
+      </c>
       <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="20" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="13" t="s">
@@ -769,49 +804,57 @@
       <c r="D4" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="13"/>
+      <c r="E4" s="13" t="s">
+        <v>37</v>
+      </c>
       <c r="F4" s="13"/>
     </row>
     <row r="5" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="19" t="s">
+      <c r="B5" s="21"/>
+      <c r="C5" s="20" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="13"/>
+      <c r="E5" s="19" t="s">
+        <v>39</v>
+      </c>
       <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="21"/>
+      <c r="C6" s="22"/>
       <c r="D6" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="13"/>
+      <c r="E6" s="13" t="s">
+        <v>38</v>
+      </c>
       <c r="F6" s="13"/>
     </row>
     <row r="7" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="20"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="13" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="13"/>
+      <c r="E7" s="20" t="s">
+        <v>40</v>
+      </c>
       <c r="F7" s="13"/>
     </row>
     <row r="8" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -827,7 +870,7 @@
       <c r="D8" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="13"/>
+      <c r="E8" s="21"/>
       <c r="F8" s="13"/>
     </row>
     <row r="9" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -843,7 +886,9 @@
       <c r="D9" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="13"/>
+      <c r="E9" s="20" t="s">
+        <v>41</v>
+      </c>
       <c r="F9" s="13"/>
     </row>
     <row r="10" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -859,7 +904,7 @@
       <c r="D10" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="13"/>
+      <c r="E10" s="21"/>
       <c r="F10" s="13"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1083,10 +1128,12 @@
       <c r="F32" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E9:E10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/work_time.xlsx
+++ b/work_time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vue\git\weekly_work_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE40F4CD-2D5C-4552-9FBF-17576AEDEBC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B4361F-D2CF-4F64-93EB-2F67ADC1029D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="21972" windowHeight="13176" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="48">
   <si>
     <t>6月第二周</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -196,6 +196,30 @@
   </si>
   <si>
     <t>修改小程序购物车样式与交互逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决全局状态管理，引入wxMiniStore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成小程序购物车功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现购物车单选、多选、全选的结算与删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>监听购物车已勾选商品与数量变化，更新总金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现购物车编辑删除增加数量同时刷新缓存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现tabbar全局更新加入购物车的商品数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -347,7 +371,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -397,9 +421,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -408,6 +429,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -726,7 +756,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -771,7 +801,9 @@
       <c r="E2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="5"/>
+      <c r="F2" s="5" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
@@ -789,13 +821,15 @@
       <c r="E3" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="13"/>
+      <c r="F3" s="13" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="19" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="13" t="s">
@@ -804,58 +838,64 @@
       <c r="D4" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="13"/>
+      <c r="F4" s="22" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="20" t="s">
+      <c r="B5" s="20"/>
+      <c r="C5" s="19" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="13"/>
+      <c r="F5" s="22"/>
     </row>
     <row r="6" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="22"/>
+      <c r="C6" s="21"/>
       <c r="D6" s="13" t="s">
         <v>31</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="13"/>
+      <c r="F6" s="13" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="21"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="13" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="13"/>
+      <c r="F7" s="19" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
@@ -870,8 +910,8 @@
       <c r="D8" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="13"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
     </row>
     <row r="9" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
@@ -886,10 +926,12 @@
       <c r="D9" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="13"/>
+      <c r="F9" s="13" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="10" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
@@ -904,8 +946,10 @@
       <c r="D10" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="13"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="13" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -1128,7 +1172,9 @@
       <c r="F32" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F4:F5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C5:C6"/>

--- a/work_time.xlsx
+++ b/work_time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vue\git\weekly_work_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B4361F-D2CF-4F64-93EB-2F67ADC1029D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE93D0A4-9FAB-42C4-9C9F-99DD37E6D557}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="21972" windowHeight="13176" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="48">
   <si>
     <t>6月第二周</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -199,27 +199,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>完成小程序购物车功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现购物车单选、多选、全选的结算与删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>监听购物车已勾选商品与数量变化，更新总金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现tabbar全局更新加入购物车的商品数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>解决全局状态管理，引入wxMiniStore</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>完成小程序购物车功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实现购物车单选、多选、全选的结算与删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>监听购物车已勾选商品与数量变化，更新总金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实现购物车编辑删除增加数量同时刷新缓存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实现tabbar全局更新加入购物车的商品数量</t>
+    <t>实现购物车编辑、删除、修改数量同时刷新缓存</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -421,23 +421,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -756,7 +756,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -802,7 +802,7 @@
         <v>35</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -822,14 +822,14 @@
         <v>36</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="21" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="13" t="s">
@@ -838,64 +838,62 @@
       <c r="D4" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="22" t="s">
-        <v>45</v>
+      <c r="F4" s="23" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="19" t="s">
+      <c r="B5" s="22"/>
+      <c r="C5" s="21" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="22"/>
+      <c r="F5" s="23"/>
     </row>
     <row r="6" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="21"/>
+      <c r="C6" s="24"/>
       <c r="D6" s="13" t="s">
         <v>31</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="13" t="s">
-        <v>46</v>
+      <c r="F6" s="21" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="20"/>
+      <c r="B7" s="22"/>
       <c r="C7" s="13" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="19" t="s">
-        <v>42</v>
-      </c>
+      <c r="F7" s="22"/>
     </row>
     <row r="8" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
@@ -910,8 +908,10 @@
       <c r="D8" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="23" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
@@ -926,12 +926,10 @@
       <c r="D9" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="13" t="s">
-        <v>47</v>
-      </c>
+      <c r="F9" s="23"/>
     </row>
     <row r="10" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
@@ -946,9 +944,9 @@
       <c r="D10" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="20"/>
+      <c r="E10" s="22"/>
       <c r="F10" s="13" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1172,14 +1170,15 @@
       <c r="F32" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="F7:F8"/>
+  <mergeCells count="8">
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E9:E10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/work_time.xlsx
+++ b/work_time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vue\git\weekly_work_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE93D0A4-9FAB-42C4-9C9F-99DD37E6D557}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F9752A-0927-485A-A922-94EC63C1E0D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="21972" windowHeight="13176" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="54">
   <si>
     <t>6月第二周</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -220,6 +220,30 @@
   </si>
   <si>
     <t>实现购物车编辑、删除、修改数量同时刷新缓存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试并完善小程序各模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试商品分类模块、购物车模块，记录bug及所需要的api</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成商品详情加入购物车的业务逻辑及导航栏info显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善提交订单页面逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写订单提交成功页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试（全局状态管理wxMiniStore存在性能问题）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -371,7 +395,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -402,31 +426,27 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -438,6 +458,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -755,44 +790,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.21875" customWidth="1"/>
-    <col min="2" max="6" width="20.5546875" customWidth="1"/>
+    <col min="1" max="1" width="13.21875" style="24" customWidth="1"/>
+    <col min="2" max="6" width="20.5546875" style="24" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15">
+      <c r="B1" s="13">
         <v>43990</v>
       </c>
-      <c r="C1" s="15">
+      <c r="C1" s="13">
         <v>43991</v>
       </c>
-      <c r="D1" s="15">
+      <c r="D1" s="13">
         <v>43992</v>
       </c>
-      <c r="E1" s="15">
+      <c r="E1" s="13">
         <v>43993</v>
       </c>
-      <c r="F1" s="15">
+      <c r="F1" s="13">
         <v>43994</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="12" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:6" s="25" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="15" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -806,166 +842,166 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="18" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="21" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="21" t="s">
+      <c r="B5" s="20"/>
+      <c r="C5" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="23"/>
+      <c r="F5" s="21"/>
     </row>
     <row r="6" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="13" t="s">
+      <c r="C6" s="22"/>
+      <c r="D6" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="19" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="13" t="s">
+      <c r="B7" s="20"/>
+      <c r="C7" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="22"/>
+      <c r="F7" s="20"/>
     </row>
     <row r="8" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="22"/>
-      <c r="F8" s="23" t="s">
+      <c r="E8" s="20"/>
+      <c r="F8" s="21" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="23"/>
+      <c r="F9" s="21"/>
     </row>
     <row r="10" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="22"/>
-      <c r="F10" s="13" t="s">
+      <c r="E10" s="20"/>
+      <c r="F10" s="18" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="27">
         <v>43997</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="27">
         <v>43998</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="27">
         <v>43999</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="27">
         <v>44000</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="27">
         <v>44001</v>
       </c>
     </row>
@@ -973,7 +1009,9 @@
       <c r="A13" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="5"/>
+      <c r="B13" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -983,99 +1021,111 @@
       <c r="A14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+      <c r="B14" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
     </row>
     <row r="15" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
     </row>
     <row r="16" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
+      <c r="B16" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
     </row>
     <row r="17" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
     </row>
     <row r="18" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
+      <c r="B18" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
     </row>
     <row r="19" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
+      <c r="B19" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
     </row>
     <row r="20" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
+      <c r="B20" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
     </row>
     <row r="21" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
+      <c r="B21" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
     </row>
     <row r="23" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="27">
         <v>44004</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="27">
         <v>44005</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="27">
         <v>44006</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="27">
         <v>44007</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="27">
         <v>44008</v>
       </c>
     </row>
@@ -1093,84 +1143,86 @@
       <c r="A25" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
     </row>
     <row r="26" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
     </row>
     <row r="27" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
     </row>
     <row r="28" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
     </row>
     <row r="29" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
     </row>
     <row r="30" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
     </row>
     <row r="31" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
     </row>
     <row r="32" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="F6:F7"/>

--- a/work_time.xlsx
+++ b/work_time.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="64">
   <si>
     <t>6月第二周</t>
   </si>
@@ -161,18 +161,30 @@
     <t>完善小程序</t>
   </si>
   <si>
+    <t>搜索结果展示页</t>
+  </si>
+  <si>
     <t>测试商品分类模块、购物车模块，记录bug及所需要的api</t>
   </si>
   <si>
     <t>拉取各个项目代码，配置python、小程序开发环境和依赖</t>
   </si>
   <si>
+    <t>实现视图切换功能</t>
+  </si>
+  <si>
+    <t>编写页面样式</t>
+  </si>
+  <si>
     <t>完成商品详情加入购物车的业务逻辑及导航栏info显示</t>
   </si>
   <si>
     <t>wxMiniStore性能优化：使用局部模式</t>
   </si>
   <si>
+    <t>编写页面逻辑</t>
+  </si>
+  <si>
     <t>完善提交订单页面逻辑</t>
   </si>
   <si>
@@ -185,7 +197,13 @@
     <t>实现商品分享按钮样式和功能，并携带参数</t>
   </si>
   <si>
+    <t>编写条件筛选样式</t>
+  </si>
+  <si>
     <t>测试（全局状态管理wxMiniStore存在性能问题）</t>
+  </si>
+  <si>
+    <t>编写条件筛选逻辑</t>
   </si>
   <si>
     <t>6月第四周</t>
@@ -196,10 +214,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -218,8 +236,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,7 +276,59 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,93 +349,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -356,7 +366,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -377,19 +395,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,163 +575,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -673,25 +691,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -723,10 +728,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -761,16 +764,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -779,137 +797,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -977,6 +995,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -984,12 +1014,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1313,7 +1337,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1539,95 +1563,105 @@
       <c r="E13" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="5"/>
+      <c r="F13" s="5" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="14" ht="42" customHeight="1" spans="1:6">
       <c r="A14" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
+        <v>49</v>
+      </c>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
       <c r="E14" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="26"/>
+        <v>50</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="15" ht="42" customHeight="1" spans="1:6">
       <c r="A15" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="21"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
       <c r="E15" s="23"/>
-      <c r="F15" s="26"/>
+      <c r="F15" s="26" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="16" ht="42" customHeight="1" spans="1:6">
       <c r="A16" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
+        <v>53</v>
+      </c>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
       <c r="E16" s="21"/>
-      <c r="F16" s="26"/>
+      <c r="F16" s="27"/>
     </row>
     <row r="17" ht="42" customHeight="1" spans="1:6">
       <c r="A17" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="21"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" s="26"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="18" ht="42" customHeight="1" spans="1:6">
       <c r="A18" s="10" t="s">
         <v>28</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
+        <v>56</v>
+      </c>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
       <c r="E18" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="F18" s="26"/>
+        <v>57</v>
+      </c>
+      <c r="F18" s="27"/>
     </row>
     <row r="19" ht="42" customHeight="1" spans="1:6">
       <c r="A19" s="10" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="F19" s="26"/>
+        <v>58</v>
+      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="20" ht="42" customHeight="1" spans="1:6">
       <c r="A20" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="26"/>
+      <c r="B20" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="27"/>
     </row>
     <row r="21" ht="42" customHeight="1" spans="1:6">
       <c r="A21" s="10" t="s">
@@ -1636,30 +1670,32 @@
       <c r="B21" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
       <c r="E21" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F21" s="26"/>
+      <c r="F21" s="18" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="23" ht="42" customHeight="1" spans="1:6">
-      <c r="A23" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" s="25">
+      <c r="A23" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="29">
         <v>44004</v>
       </c>
-      <c r="C23" s="25">
+      <c r="C23" s="29">
         <v>44005</v>
       </c>
-      <c r="D23" s="25">
+      <c r="D23" s="29">
         <v>44006</v>
       </c>
-      <c r="E23" s="25">
+      <c r="E23" s="29">
         <v>44007</v>
       </c>
-      <c r="F23" s="25">
+      <c r="F23" s="29">
         <v>44008</v>
       </c>
     </row>
@@ -1677,84 +1713,84 @@
       <c r="A25" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
     </row>
     <row r="26" ht="42" customHeight="1" spans="1:6">
       <c r="A26" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
     </row>
     <row r="27" ht="42" customHeight="1" spans="1:6">
       <c r="A27" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
     </row>
     <row r="28" ht="42" customHeight="1" spans="1:6">
       <c r="A28" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
     </row>
     <row r="29" ht="42" customHeight="1" spans="1:6">
       <c r="A29" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
     </row>
     <row r="30" ht="42" customHeight="1" spans="1:6">
       <c r="A30" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
     </row>
     <row r="31" ht="42" customHeight="1" spans="1:6">
       <c r="A31" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
     </row>
     <row r="32" ht="42" customHeight="1" spans="1:6">
       <c r="A32" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="15">
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B14:B15"/>
@@ -1767,6 +1803,9 @@
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F19:F20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2011,7 +2050,7 @@
     </row>
     <row r="23" ht="42" customHeight="1" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B23" s="2">
         <v>44004</v>

--- a/work_time.xlsx
+++ b/work_time.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="71">
   <si>
     <t>6月第二周</t>
   </si>
@@ -164,6 +164,9 @@
     <t>搜索结果展示页</t>
   </si>
   <si>
+    <t>测试完善条件筛选功能</t>
+  </si>
+  <si>
     <t>测试商品分类模块、购物车模块，记录bug及所需要的api</t>
   </si>
   <si>
@@ -173,9 +176,15 @@
     <t>实现视图切换功能</t>
   </si>
   <si>
+    <t>取消重复勾选</t>
+  </si>
+  <si>
     <t>编写页面样式</t>
   </si>
   <si>
+    <t>监听已勾选的条件数量，编写数字样式</t>
+  </si>
+  <si>
     <t>完成商品详情加入购物车的业务逻辑及导航栏info显示</t>
   </si>
   <si>
@@ -191,6 +200,9 @@
     <t>对接需求</t>
   </si>
   <si>
+    <t>重置筛选条件</t>
+  </si>
+  <si>
     <t>编写订单提交成功页面</t>
   </si>
   <si>
@@ -200,10 +212,19 @@
     <t>编写条件筛选样式</t>
   </si>
   <si>
+    <t>选择尺码时边框重叠变粗（无法解决）</t>
+  </si>
+  <si>
     <t>测试（全局状态管理wxMiniStore存在性能问题）</t>
   </si>
   <si>
+    <t>网络请求显示加载中的动画</t>
+  </si>
+  <si>
     <t>编写条件筛选逻辑</t>
+  </si>
+  <si>
+    <t>核对需求</t>
   </si>
   <si>
     <t>6月第四周</t>
@@ -215,9 +236,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -236,9 +257,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,14 +295,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
@@ -268,7 +303,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,69 +370,26 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -356,29 +400,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -395,49 +416,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,43 +584,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,85 +596,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -685,28 +706,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -730,7 +731,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -750,6 +766,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -764,31 +800,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -797,133 +818,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1000,10 +1021,10 @@
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1334,17 +1355,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="13.2166666666667" style="13" customWidth="1"/>
     <col min="2" max="6" width="20.5583333333333" style="13" customWidth="1"/>
-    <col min="7" max="16384" width="8.88333333333333" style="13"/>
+    <col min="7" max="7" width="19.875" style="13" customWidth="1"/>
+    <col min="8" max="16384" width="8.88333333333333" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1531,7 +1553,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12" s="24" t="s">
         <v>45</v>
       </c>
@@ -1550,15 +1572,18 @@
       <c r="F12" s="25">
         <v>44001</v>
       </c>
-    </row>
-    <row r="13" ht="42" customHeight="1" spans="1:6">
+      <c r="G12" s="25">
+        <v>44002</v>
+      </c>
+    </row>
+    <row r="13" ht="42" customHeight="1" spans="1:7">
       <c r="A13" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="5"/>
+      <c r="C13" s="26"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5" t="s">
         <v>47</v>
@@ -1566,104 +1591,124 @@
       <c r="F13" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="14" ht="42" customHeight="1" spans="1:6">
+      <c r="G13" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" ht="42" customHeight="1" spans="1:7">
       <c r="A14" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="18"/>
+        <v>50</v>
+      </c>
+      <c r="C14" s="26"/>
       <c r="D14" s="18"/>
       <c r="E14" s="19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" ht="42" customHeight="1" spans="1:6">
+        <v>52</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" ht="42" customHeight="1" spans="1:7">
       <c r="A15" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="21"/>
-      <c r="C15" s="18"/>
+      <c r="C15" s="26"/>
       <c r="D15" s="18"/>
       <c r="E15" s="23"/>
-      <c r="F15" s="26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" ht="42" customHeight="1" spans="1:6">
+      <c r="F15" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" ht="42" customHeight="1" spans="1:7">
       <c r="A16" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="18"/>
+        <v>56</v>
+      </c>
+      <c r="C16" s="26"/>
       <c r="D16" s="18"/>
       <c r="E16" s="21"/>
-      <c r="F16" s="27"/>
-    </row>
-    <row r="17" ht="42" customHeight="1" spans="1:6">
+      <c r="F16" s="21"/>
+      <c r="G16" s="27"/>
+    </row>
+    <row r="17" ht="42" customHeight="1" spans="1:7">
       <c r="A17" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="21"/>
-      <c r="C17" s="18"/>
+      <c r="C17" s="26"/>
       <c r="D17" s="18"/>
       <c r="E17" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="F17" s="26" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" ht="42" customHeight="1" spans="1:6">
+        <v>57</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="27"/>
+    </row>
+    <row r="18" ht="42" customHeight="1" spans="1:7">
       <c r="A18" s="10" t="s">
         <v>28</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
       <c r="E18" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="F18" s="27"/>
-    </row>
-    <row r="19" ht="42" customHeight="1" spans="1:6">
+        <v>60</v>
+      </c>
+      <c r="F18" s="21"/>
+      <c r="G18" s="18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" ht="42" customHeight="1" spans="1:7">
       <c r="A19" s="10" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
       <c r="E19" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="F19" s="26" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" ht="42" customHeight="1" spans="1:6">
+        <v>63</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" ht="42" customHeight="1" spans="1:7">
       <c r="A20" s="10" t="s">
         <v>37</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
       <c r="E20" s="21"/>
-      <c r="F20" s="27"/>
-    </row>
-    <row r="21" ht="42" customHeight="1" spans="1:6">
+      <c r="F20" s="21"/>
+      <c r="G20" s="18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" ht="42" customHeight="1" spans="1:7">
       <c r="A21" s="10" t="s">
         <v>40</v>
       </c>
@@ -1676,12 +1721,15 @@
         <v>43</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>62</v>
+        <v>68</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="23" ht="42" customHeight="1" spans="1:6">
       <c r="A23" s="28" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B23" s="29">
         <v>44004</v>
@@ -1790,7 +1838,7 @@
       <c r="F32" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="16">
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B14:B15"/>
@@ -1806,6 +1854,7 @@
     <mergeCell ref="F15:F16"/>
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G15:G17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2050,7 +2099,7 @@
     </row>
     <row r="23" ht="42" customHeight="1" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B23" s="2">
         <v>44004</v>

--- a/work_time.xlsx
+++ b/work_time.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="12270" firstSheet="1"/>
+    <workbookView windowWidth="16425" windowHeight="12270" firstSheet="1"/>
   </bookViews>
   <sheets>
     <sheet name="6月" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="78">
   <si>
     <t>6月第二周</t>
   </si>
@@ -228,6 +228,27 @@
   </si>
   <si>
     <t>6月第四周</t>
+  </si>
+  <si>
+    <t>根据需求和墨刀调整样式</t>
+  </si>
+  <si>
+    <t>搜索条增加扫一扫功能</t>
+  </si>
+  <si>
+    <t>删除销量、上架时间的排序，强化筛选按钮</t>
+  </si>
+  <si>
+    <t>自定义顶部导航样式（太麻烦，弃用）</t>
+  </si>
+  <si>
+    <t>调整首页样式，增加店铺名组件、增加顶部固定栏、调整用户信息</t>
+  </si>
+  <si>
+    <t>核对需求，调整首页店铺活动布局样式</t>
+  </si>
+  <si>
+    <t>文件变动</t>
   </si>
 </sst>
 </file>
@@ -237,8 +258,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -258,6 +279,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -265,7 +293,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,7 +307,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -292,96 +341,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -400,6 +359,68 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -416,37 +437,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,145 +605,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -713,6 +734,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -723,6 +759,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -752,25 +797,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -785,31 +821,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -818,137 +839,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -980,10 +1001,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1021,20 +1042,11 @@
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1095,6 +1107,53 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>26035</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1706245</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>2990850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1033145" y="15773400"/>
+          <a:ext cx="1680210" cy="2876550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1355,16 +1414,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="13.2166666666667" style="13" customWidth="1"/>
-    <col min="2" max="6" width="20.5583333333333" style="13" customWidth="1"/>
+    <col min="2" max="2" width="23.75" style="13" customWidth="1"/>
+    <col min="3" max="6" width="20.5583333333333" style="13" customWidth="1"/>
     <col min="7" max="7" width="19.875" style="13" customWidth="1"/>
     <col min="8" max="16384" width="8.88333333333333" style="13"/>
   </cols>
@@ -1583,7 +1643,7 @@
       <c r="B13" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="26"/>
+      <c r="C13" s="10"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5" t="s">
         <v>47</v>
@@ -1602,7 +1662,7 @@
       <c r="B14" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="26"/>
+      <c r="C14" s="10"/>
       <c r="D14" s="18"/>
       <c r="E14" s="19" t="s">
         <v>51</v>
@@ -1619,13 +1679,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="21"/>
-      <c r="C15" s="26"/>
+      <c r="C15" s="10"/>
       <c r="D15" s="18"/>
       <c r="E15" s="23"/>
       <c r="F15" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="G15" s="27" t="s">
+      <c r="G15" s="18" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1636,18 +1696,18 @@
       <c r="B16" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="26"/>
+      <c r="C16" s="10"/>
       <c r="D16" s="18"/>
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
-      <c r="G16" s="27"/>
+      <c r="G16" s="18"/>
     </row>
     <row r="17" ht="42" customHeight="1" spans="1:7">
       <c r="A17" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="21"/>
-      <c r="C17" s="26"/>
+      <c r="C17" s="10"/>
       <c r="D17" s="18"/>
       <c r="E17" s="18" t="s">
         <v>57</v>
@@ -1655,7 +1715,7 @@
       <c r="F17" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="G17" s="27"/>
+      <c r="G17" s="18"/>
     </row>
     <row r="18" ht="42" customHeight="1" spans="1:7">
       <c r="A18" s="10" t="s">
@@ -1728,22 +1788,22 @@
       </c>
     </row>
     <row r="23" ht="42" customHeight="1" spans="1:6">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="29">
+      <c r="B23" s="25">
         <v>44004</v>
       </c>
-      <c r="C23" s="29">
+      <c r="C23" s="25">
         <v>44005</v>
       </c>
-      <c r="D23" s="29">
+      <c r="D23" s="25">
         <v>44006</v>
       </c>
-      <c r="E23" s="29">
+      <c r="E23" s="25">
         <v>44007</v>
       </c>
-      <c r="F23" s="29">
+      <c r="F23" s="25">
         <v>44008</v>
       </c>
     </row>
@@ -1751,7 +1811,9 @@
       <c r="A24" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="5"/>
+      <c r="B24" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -1761,88 +1823,111 @@
       <c r="A25" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
+      <c r="B25" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
     </row>
     <row r="26" ht="42" customHeight="1" spans="1:6">
       <c r="A26" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
+      <c r="B26" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
     </row>
     <row r="27" ht="42" customHeight="1" spans="1:6">
       <c r="A27" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
+      <c r="B27" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
     </row>
     <row r="28" ht="42" customHeight="1" spans="1:6">
       <c r="A28" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
     </row>
     <row r="29" ht="42" customHeight="1" spans="1:6">
       <c r="A29" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
+      <c r="B29" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
     </row>
     <row r="30" ht="42" customHeight="1" spans="1:6">
       <c r="A30" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
     </row>
     <row r="31" ht="42" customHeight="1" spans="1:6">
       <c r="A31" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
+      <c r="B31" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
     </row>
     <row r="32" ht="42" customHeight="1" spans="1:6">
       <c r="A32" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+    </row>
+    <row r="33" s="13" customFormat="1" ht="246" customHeight="1" spans="1:6">
+      <c r="A33" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" s="27"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="19">
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="E9:E10"/>
@@ -1859,6 +1944,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/work_time.xlsx
+++ b/work_time.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="84">
   <si>
     <t>6月第二周</t>
   </si>
@@ -233,19 +233,37 @@
     <t>根据需求和墨刀调整样式</t>
   </si>
   <si>
+    <t>调整首页样式</t>
+  </si>
+  <si>
     <t>搜索条增加扫一扫功能</t>
   </si>
   <si>
+    <t>条件筛选功能组件化</t>
+  </si>
+  <si>
     <t>删除销量、上架时间的排序，强化筛选按钮</t>
   </si>
   <si>
     <t>自定义顶部导航样式（太麻烦，弃用）</t>
   </si>
   <si>
+    <t>调整首页样式：最新穿法，今日上新、老板娘说</t>
+  </si>
+  <si>
     <t>调整首页样式，增加店铺名组件、增加顶部固定栏、调整用户信息</t>
   </si>
   <si>
+    <t>调整商品详情样式，修改布局，增加顶部固定栏</t>
+  </si>
+  <si>
     <t>核对需求，调整首页店铺活动布局样式</t>
+  </si>
+  <si>
+    <t>商品详情顶部固定栏组件化、首页分类筛选组件化</t>
+  </si>
+  <si>
+    <t>核对需求、撰写工作报告</t>
   </si>
   <si>
     <t>文件变动</t>
@@ -258,8 +276,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -293,7 +311,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,14 +334,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -323,38 +342,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -376,16 +364,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -400,10 +389,18 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -414,9 +411,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -437,187 +455,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -724,6 +742,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -748,17 +796,28 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -780,75 +839,34 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -857,119 +875,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1042,10 +1060,7 @@
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1141,6 +1156,48 @@
         <a:xfrm>
           <a:off x="1033145" y="15773400"/>
           <a:ext cx="1680210" cy="2876550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1541780</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2816860" y="15659100"/>
+          <a:ext cx="1541780" cy="3133725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1416,8 +1473,8 @@
   <sheetPr/>
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -1814,7 +1871,9 @@
       <c r="B24" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="5"/>
+      <c r="C24" s="5" t="s">
+        <v>72</v>
+      </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
@@ -1824,9 +1883,11 @@
         <v>7</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="C25" s="18"/>
+        <v>73</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>74</v>
+      </c>
       <c r="D25" s="18"/>
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
@@ -1836,9 +1897,9 @@
         <v>13</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="C26" s="18"/>
+        <v>75</v>
+      </c>
+      <c r="C26" s="26"/>
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
       <c r="F26" s="18"/>
@@ -1847,10 +1908,12 @@
       <c r="A27" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="C27" s="18"/>
+      <c r="B27" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>77</v>
+      </c>
       <c r="D27" s="18"/>
       <c r="E27" s="18"/>
       <c r="F27" s="18"/>
@@ -1859,8 +1922,8 @@
       <c r="A28" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="18"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="26"/>
       <c r="D28" s="18"/>
       <c r="E28" s="18"/>
       <c r="F28" s="18"/>
@@ -1869,10 +1932,12 @@
       <c r="A29" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="C29" s="18"/>
+      <c r="B29" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>79</v>
+      </c>
       <c r="D29" s="18"/>
       <c r="E29" s="18"/>
       <c r="F29" s="18"/>
@@ -1881,8 +1946,8 @@
       <c r="A30" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="27"/>
-      <c r="C30" s="18"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="26"/>
       <c r="D30" s="18"/>
       <c r="E30" s="18"/>
       <c r="F30" s="18"/>
@@ -1891,10 +1956,12 @@
       <c r="A31" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="C31" s="18"/>
+      <c r="B31" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>81</v>
+      </c>
       <c r="D31" s="18"/>
       <c r="E31" s="18"/>
       <c r="F31" s="18"/>
@@ -1903,24 +1970,26 @@
       <c r="A32" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="27"/>
-      <c r="C32" s="18"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="18" t="s">
+        <v>82</v>
+      </c>
       <c r="D32" s="18"/>
       <c r="E32" s="18"/>
       <c r="F32" s="18"/>
     </row>
     <row r="33" s="13" customFormat="1" ht="246" customHeight="1" spans="1:6">
       <c r="A33" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B33" s="27"/>
+        <v>83</v>
+      </c>
+      <c r="B33" s="21"/>
       <c r="C33" s="18"/>
       <c r="D33" s="18"/>
       <c r="E33" s="18"/>
       <c r="F33" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="22">
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B14:B15"/>
@@ -1929,6 +1998,9 @@
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C29:C30"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="E14:E16"/>

--- a/work_time.xlsx
+++ b/work_time.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="89">
   <si>
     <t>6月第二周</t>
   </si>
@@ -236,15 +236,24 @@
     <t>调整首页样式</t>
   </si>
   <si>
+    <t>调整首页、编写上新页、穿法页</t>
+  </si>
+  <si>
     <t>搜索条增加扫一扫功能</t>
   </si>
   <si>
     <t>条件筛选功能组件化</t>
   </si>
   <si>
+    <t>首页增加滚动、增加回到顶部</t>
+  </si>
+  <si>
     <t>删除销量、上架时间的排序，强化筛选按钮</t>
   </si>
   <si>
+    <t>首页中今日上新的分类选择、最新穿法的分类选择增加吸顶效果</t>
+  </si>
+  <si>
     <t>自定义顶部导航样式（太麻烦，弃用）</t>
   </si>
   <si>
@@ -257,10 +266,16 @@
     <t>调整商品详情样式，修改布局，增加顶部固定栏</t>
   </si>
   <si>
+    <t>编写最新穿法页面</t>
+  </si>
+  <si>
     <t>核对需求，调整首页店铺活动布局样式</t>
   </si>
   <si>
     <t>商品详情顶部固定栏组件化、首页分类筛选组件化</t>
+  </si>
+  <si>
+    <t>编写今日上新页面</t>
   </si>
   <si>
     <t>核对需求、撰写工作报告</t>
@@ -274,10 +289,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -303,15 +318,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -326,10 +335,32 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -342,7 +373,67 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -363,82 +454,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -455,181 +470,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -742,17 +757,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -782,27 +793,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -822,11 +822,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -839,16 +845,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -857,137 +872,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1060,7 +1075,13 @@
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1170,16 +1191,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1781175</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1541780</xdr:colOff>
+      <xdr:colOff>1513205</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1196,8 +1217,50 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2816860" y="15659100"/>
+          <a:off x="2788285" y="15706725"/>
           <a:ext cx="1541780" cy="3133725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1547495</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1562100</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>2593975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4364355" y="15773400"/>
+          <a:ext cx="1581150" cy="2479675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1473,8 +1536,8 @@
   <sheetPr/>
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -1874,7 +1937,9 @@
       <c r="C24" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D24" s="5"/>
+      <c r="D24" s="5" t="s">
+        <v>73</v>
+      </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
     </row>
@@ -1883,12 +1948,14 @@
         <v>7</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="D25" s="18"/>
+      <c r="C25" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>76</v>
+      </c>
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
     </row>
@@ -1897,10 +1964,12 @@
         <v>13</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="C26" s="26"/>
-      <c r="D26" s="18"/>
+        <v>77</v>
+      </c>
+      <c r="C26" s="18"/>
+      <c r="D26" s="26" t="s">
+        <v>78</v>
+      </c>
       <c r="E26" s="18"/>
       <c r="F26" s="18"/>
     </row>
@@ -1909,12 +1978,12 @@
         <v>19</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="C27" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="D27" s="18"/>
+        <v>79</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="27"/>
       <c r="E27" s="18"/>
       <c r="F27" s="18"/>
     </row>
@@ -1923,8 +1992,8 @@
         <v>23</v>
       </c>
       <c r="B28" s="18"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="28"/>
       <c r="E28" s="18"/>
       <c r="F28" s="18"/>
     </row>
@@ -1933,12 +2002,14 @@
         <v>28</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C29" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="D29" s="18"/>
+        <v>81</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>83</v>
+      </c>
       <c r="E29" s="18"/>
       <c r="F29" s="18"/>
     </row>
@@ -1947,8 +2018,8 @@
         <v>32</v>
       </c>
       <c r="B30" s="18"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="28"/>
       <c r="E30" s="18"/>
       <c r="F30" s="18"/>
     </row>
@@ -1957,12 +2028,14 @@
         <v>37</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="D31" s="18"/>
+        <v>85</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>86</v>
+      </c>
       <c r="E31" s="18"/>
       <c r="F31" s="18"/>
     </row>
@@ -1972,15 +2045,17 @@
       </c>
       <c r="B32" s="21"/>
       <c r="C32" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="D32" s="18"/>
+        <v>87</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>87</v>
+      </c>
       <c r="E32" s="18"/>
       <c r="F32" s="18"/>
     </row>
     <row r="33" s="13" customFormat="1" ht="246" customHeight="1" spans="1:6">
       <c r="A33" s="10" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B33" s="21"/>
       <c r="C33" s="18"/>
@@ -1989,7 +2064,7 @@
       <c r="F33" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="24">
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B14:B15"/>
@@ -2001,6 +2076,8 @@
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="C27:C28"/>
     <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="D29:D30"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="E14:E16"/>

--- a/work_time.xlsx
+++ b/work_time.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="96">
   <si>
     <t>6月第二周</t>
   </si>
@@ -282,6 +282,27 @@
   </si>
   <si>
     <t>文件变动</t>
+  </si>
+  <si>
+    <t>6月第五周</t>
+  </si>
+  <si>
+    <t>调整最新穿法样式</t>
+  </si>
+  <si>
+    <t>最新穿法页面：增加浮动按钮</t>
+  </si>
+  <si>
+    <t>最新穿法页面：编写条件筛选组件</t>
+  </si>
+  <si>
+    <t>最新穿法页面：图片增加毛玻璃背景</t>
+  </si>
+  <si>
+    <t>解决弹出层有滚动时的滚动穿透，无滚动时的滚动穿透未解决</t>
+  </si>
+  <si>
+    <t>核对需求，编写最新穿法详情页</t>
   </si>
 </sst>
 </file>
@@ -289,10 +310,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -312,17 +333,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -335,55 +384,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -411,29 +415,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -454,6 +445,36 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -470,187 +491,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -759,11 +780,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -783,15 +817,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -803,6 +828,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -822,26 +856,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -860,149 +881,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1076,9 +1097,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1261,6 +1279,48 @@
         <a:xfrm>
           <a:off x="4364355" y="15773400"/>
           <a:ext cx="1581150" cy="2479675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>35560</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1797050</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>3072765</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1042670" y="24660225"/>
+          <a:ext cx="1761490" cy="3063240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1534,10 +1594,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -1967,7 +2027,7 @@
         <v>77</v>
       </c>
       <c r="C26" s="18"/>
-      <c r="D26" s="26" t="s">
+      <c r="D26" s="19" t="s">
         <v>78</v>
       </c>
       <c r="E26" s="18"/>
@@ -1983,7 +2043,7 @@
       <c r="C27" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D27" s="27"/>
+      <c r="D27" s="23"/>
       <c r="E27" s="18"/>
       <c r="F27" s="18"/>
     </row>
@@ -1993,7 +2053,7 @@
       </c>
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
-      <c r="D28" s="28"/>
+      <c r="D28" s="21"/>
       <c r="E28" s="18"/>
       <c r="F28" s="18"/>
     </row>
@@ -2007,7 +2067,7 @@
       <c r="C29" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="D29" s="26" t="s">
+      <c r="D29" s="19" t="s">
         <v>83</v>
       </c>
       <c r="E29" s="18"/>
@@ -2019,7 +2079,7 @@
       </c>
       <c r="B30" s="18"/>
       <c r="C30" s="18"/>
-      <c r="D30" s="28"/>
+      <c r="D30" s="21"/>
       <c r="E30" s="18"/>
       <c r="F30" s="18"/>
     </row>
@@ -2063,8 +2123,170 @@
       <c r="E33" s="18"/>
       <c r="F33" s="18"/>
     </row>
+    <row r="34" ht="42" customHeight="1"/>
+    <row r="35" ht="42" customHeight="1" spans="1:6">
+      <c r="A35" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="B35" s="25">
+        <v>44010</v>
+      </c>
+      <c r="C35" s="25">
+        <v>44011</v>
+      </c>
+      <c r="D35" s="25">
+        <v>44012</v>
+      </c>
+      <c r="E35" s="25">
+        <v>44013</v>
+      </c>
+      <c r="F35" s="25">
+        <v>44014</v>
+      </c>
+    </row>
+    <row r="36" ht="42" customHeight="1" spans="1:6">
+      <c r="A36" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+    </row>
+    <row r="37" ht="42" customHeight="1" spans="1:6">
+      <c r="A37" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+    </row>
+    <row r="38" ht="42" customHeight="1" spans="1:6">
+      <c r="A38" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+    </row>
+    <row r="39" ht="42" customHeight="1" spans="1:6">
+      <c r="A39" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+    </row>
+    <row r="40" ht="42" customHeight="1" spans="1:6">
+      <c r="A40" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" s="21"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+    </row>
+    <row r="41" ht="42" customHeight="1" spans="1:6">
+      <c r="A41" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+    </row>
+    <row r="42" ht="42" customHeight="1" spans="1:6">
+      <c r="A42" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42" s="21"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+    </row>
+    <row r="43" ht="42" customHeight="1" spans="1:6">
+      <c r="A43" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+    </row>
+    <row r="44" ht="42" customHeight="1" spans="1:6">
+      <c r="A44" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" s="27"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+    </row>
+    <row r="45" ht="246" customHeight="1" spans="1:6">
+      <c r="A45" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" s="21"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+    </row>
+    <row r="46" ht="42" customHeight="1"/>
+    <row r="47" ht="42" customHeight="1"/>
+    <row r="48" ht="42" customHeight="1"/>
+    <row r="49" ht="42" customHeight="1"/>
+    <row r="50" ht="42" customHeight="1"/>
+    <row r="51" ht="42" customHeight="1"/>
+    <row r="52" ht="42" customHeight="1"/>
+    <row r="53" ht="42" customHeight="1"/>
+    <row r="54" ht="42" customHeight="1"/>
+    <row r="55" ht="42" customHeight="1"/>
+    <row r="56" ht="42" customHeight="1"/>
+    <row r="57" ht="42" customHeight="1"/>
+    <row r="58" ht="42" customHeight="1"/>
+    <row r="59" ht="42" customHeight="1"/>
+    <row r="60" ht="42" customHeight="1"/>
+    <row r="61" ht="42" customHeight="1"/>
+    <row r="62" ht="42" customHeight="1"/>
+    <row r="63" ht="42" customHeight="1"/>
+    <row r="64" ht="42" customHeight="1"/>
+    <row r="65" ht="42" customHeight="1"/>
+    <row r="66" ht="42" customHeight="1"/>
+    <row r="67" ht="42" customHeight="1"/>
+    <row r="68" ht="42" customHeight="1"/>
+    <row r="69" ht="42" customHeight="1"/>
+    <row r="70" ht="42" customHeight="1"/>
+    <row r="71" ht="42" customHeight="1"/>
+    <row r="72" ht="42" customHeight="1"/>
+    <row r="73" ht="42" customHeight="1"/>
+    <row r="74" ht="42" customHeight="1"/>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="27">
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B14:B15"/>
@@ -2072,6 +2294,9 @@
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B43:B44"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="C27:C28"/>

--- a/work_time.xlsx
+++ b/work_time.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="101">
   <si>
     <t>6月第二周</t>
   </si>
@@ -290,16 +290,31 @@
     <t>调整最新穿法样式</t>
   </si>
   <si>
+    <t>调整穿法详情、商品详情</t>
+  </si>
+  <si>
     <t>最新穿法页面：增加浮动按钮</t>
   </si>
   <si>
+    <t>穿法详情页布局调整</t>
+  </si>
+  <si>
     <t>最新穿法页面：编写条件筛选组件</t>
   </si>
   <si>
+    <t>商品详情页增加近似推荐</t>
+  </si>
+  <si>
     <t>最新穿法页面：图片增加毛玻璃背景</t>
   </si>
   <si>
+    <t>商品详情页增加搭配推荐</t>
+  </si>
+  <si>
     <t>解决弹出层有滚动时的滚动穿透，无滚动时的滚动穿透未解决</t>
+  </si>
+  <si>
+    <t>调整穿法详情页：随滚动距离计算图片尺寸，并增加节流提高性能</t>
   </si>
   <si>
     <t>核对需求，编写最新穿法详情页</t>
@@ -333,6 +348,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -340,14 +362,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -368,18 +383,25 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -417,14 +439,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -445,36 +490,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -491,187 +506,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -778,6 +793,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -802,56 +847,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -875,155 +875,170 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1100,6 +1115,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1321,6 +1339,48 @@
         <a:xfrm>
           <a:off x="1042670" y="24660225"/>
           <a:ext cx="1761490" cy="3063240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1520190</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>3028950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2816860" y="24755475"/>
+          <a:ext cx="1520190" cy="2924175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1597,7 +1657,7 @@
   <dimension ref="A1:G74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -2151,7 +2211,9 @@
       <c r="B36" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C36" s="5"/>
+      <c r="C36" s="5" t="s">
+        <v>91</v>
+      </c>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
@@ -2161,9 +2223,11 @@
         <v>7</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="C37" s="18"/>
+        <v>92</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>93</v>
+      </c>
       <c r="D37" s="18"/>
       <c r="E37" s="18"/>
       <c r="F37" s="18"/>
@@ -2173,9 +2237,11 @@
         <v>13</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="C38" s="18"/>
+        <v>94</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>95</v>
+      </c>
       <c r="D38" s="18"/>
       <c r="E38" s="18"/>
       <c r="F38" s="18"/>
@@ -2185,9 +2251,11 @@
         <v>19</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="C39" s="18"/>
+        <v>96</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>97</v>
+      </c>
       <c r="D39" s="18"/>
       <c r="E39" s="18"/>
       <c r="F39" s="18"/>
@@ -2197,7 +2265,7 @@
         <v>23</v>
       </c>
       <c r="B40" s="21"/>
-      <c r="C40" s="18"/>
+      <c r="C40" s="27"/>
       <c r="D40" s="18"/>
       <c r="E40" s="18"/>
       <c r="F40" s="18"/>
@@ -2206,10 +2274,12 @@
       <c r="A41" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B41" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="C41" s="18"/>
+      <c r="B41" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>69</v>
+      </c>
       <c r="D41" s="18"/>
       <c r="E41" s="18"/>
       <c r="F41" s="18"/>
@@ -2218,8 +2288,10 @@
       <c r="A42" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B42" s="21"/>
-      <c r="C42" s="18"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="28" t="s">
+        <v>99</v>
+      </c>
       <c r="D42" s="18"/>
       <c r="E42" s="18"/>
       <c r="F42" s="18"/>
@@ -2228,10 +2300,10 @@
       <c r="A43" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B43" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="C43" s="18"/>
+      <c r="B43" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C43" s="28"/>
       <c r="D43" s="18"/>
       <c r="E43" s="18"/>
       <c r="F43" s="18"/>
@@ -2240,8 +2312,8 @@
       <c r="A44" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="27"/>
-      <c r="C44" s="18"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="28"/>
       <c r="D44" s="18"/>
       <c r="E44" s="18"/>
       <c r="F44" s="18"/>
@@ -2286,7 +2358,7 @@
     <row r="73" ht="42" customHeight="1"/>
     <row r="74" ht="42" customHeight="1"/>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="29">
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B14:B15"/>
@@ -2301,6 +2373,8 @@
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="C27:C28"/>
     <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C42:C44"/>
     <mergeCell ref="D26:D28"/>
     <mergeCell ref="D29:D30"/>
     <mergeCell ref="E7:E8"/>

--- a/work_time.xlsx
+++ b/work_time.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="106">
   <si>
     <t>6月第二周</t>
   </si>
@@ -293,25 +293,40 @@
     <t>调整穿法详情、商品详情</t>
   </si>
   <si>
+    <t>调整穿法详情</t>
+  </si>
+  <si>
     <t>最新穿法页面：增加浮动按钮</t>
   </si>
   <si>
     <t>穿法详情页布局调整</t>
   </si>
   <si>
+    <t>穿法详情页增加大图预览功能</t>
+  </si>
+  <si>
     <t>最新穿法页面：编写条件筛选组件</t>
   </si>
   <si>
     <t>商品详情页增加近似推荐</t>
   </si>
   <si>
+    <t>调整穿法详情页商品列表布局</t>
+  </si>
+  <si>
     <t>最新穿法页面：图片增加毛玻璃背景</t>
   </si>
   <si>
     <t>商品详情页增加搭配推荐</t>
   </si>
   <si>
+    <t>穿法详情页增加商品导航条，增加点击滚动效果</t>
+  </si>
+  <si>
     <t>解决弹出层有滚动时的滚动穿透，无滚动时的滚动穿透未解决</t>
+  </si>
+  <si>
+    <t>编写穿法列表组件，调整首页组件与筛选导航</t>
   </si>
   <si>
     <t>调整穿法详情页：随滚动距离计算图片尺寸，并增加节流提高性能</t>
@@ -325,10 +340,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -348,6 +363,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -355,14 +377,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -370,13 +385,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -390,13 +398,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -405,9 +406,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -437,9 +437,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -461,7 +460,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -469,7 +468,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -490,6 +489,22 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -506,31 +521,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,150 +702,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -793,17 +808,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -856,6 +865,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -863,15 +887,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -896,10 +911,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -908,137 +923,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1115,9 +1130,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1381,6 +1393,48 @@
         <a:xfrm>
           <a:off x="2816860" y="24755475"/>
           <a:ext cx="1520190" cy="2924175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1529080</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>3086100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4383405" y="24650700"/>
+          <a:ext cx="1529080" cy="3086100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1656,8 +1710,8 @@
   <sheetPr/>
   <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -2214,7 +2268,9 @@
       <c r="C36" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D36" s="5"/>
+      <c r="D36" s="5" t="s">
+        <v>92</v>
+      </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
     </row>
@@ -2223,12 +2279,14 @@
         <v>7</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="D37" s="18"/>
+        <v>94</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>95</v>
+      </c>
       <c r="E37" s="18"/>
       <c r="F37" s="18"/>
     </row>
@@ -2237,12 +2295,14 @@
         <v>13</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="D38" s="18"/>
+        <v>97</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>98</v>
+      </c>
       <c r="E38" s="18"/>
       <c r="F38" s="18"/>
     </row>
@@ -2251,12 +2311,14 @@
         <v>19</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="C39" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="D39" s="18"/>
+        <v>99</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>101</v>
+      </c>
       <c r="E39" s="18"/>
       <c r="F39" s="18"/>
     </row>
@@ -2265,8 +2327,8 @@
         <v>23</v>
       </c>
       <c r="B40" s="21"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="18"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
       <c r="E40" s="18"/>
       <c r="F40" s="18"/>
     </row>
@@ -2275,12 +2337,14 @@
         <v>28</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C41" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="D41" s="18"/>
+      <c r="D41" s="26" t="s">
+        <v>103</v>
+      </c>
       <c r="E41" s="18"/>
       <c r="F41" s="18"/>
     </row>
@@ -2289,10 +2353,10 @@
         <v>32</v>
       </c>
       <c r="B42" s="18"/>
-      <c r="C42" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="D42" s="18"/>
+      <c r="C42" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="D42" s="27"/>
       <c r="E42" s="18"/>
       <c r="F42" s="18"/>
     </row>
@@ -2301,10 +2365,12 @@
         <v>37</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="C43" s="28"/>
-      <c r="D43" s="18"/>
+        <v>105</v>
+      </c>
+      <c r="C43" s="18"/>
+      <c r="D43" s="26" t="s">
+        <v>87</v>
+      </c>
       <c r="E43" s="18"/>
       <c r="F43" s="18"/>
     </row>
@@ -2313,8 +2379,8 @@
         <v>40</v>
       </c>
       <c r="B44" s="18"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="27"/>
       <c r="E44" s="18"/>
       <c r="F44" s="18"/>
     </row>
@@ -2358,7 +2424,7 @@
     <row r="73" ht="42" customHeight="1"/>
     <row r="74" ht="42" customHeight="1"/>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="32">
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B14:B15"/>
@@ -2377,6 +2443,9 @@
     <mergeCell ref="C42:C44"/>
     <mergeCell ref="D26:D28"/>
     <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D43:D44"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="E14:E16"/>

--- a/work_time.xlsx
+++ b/work_time.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="110">
   <si>
     <t>6月第二周</t>
   </si>
@@ -296,6 +296,9 @@
     <t>调整穿法详情</t>
   </si>
   <si>
+    <t>调整首页和商品详情细节</t>
+  </si>
+  <si>
     <t>最新穿法页面：增加浮动按钮</t>
   </si>
   <si>
@@ -305,6 +308,9 @@
     <t>穿法详情页增加大图预览功能</t>
   </si>
   <si>
+    <t>调整首页细节</t>
+  </si>
+  <si>
     <t>最新穿法页面：编写条件筛选组件</t>
   </si>
   <si>
@@ -323,10 +329,16 @@
     <t>穿法详情页增加商品导航条，增加点击滚动效果</t>
   </si>
   <si>
+    <t>申请并引入路线规划插件，增加地图导航、展示门店位置功能</t>
+  </si>
+  <si>
     <t>解决弹出层有滚动时的滚动穿透，无滚动时的滚动穿透未解决</t>
   </si>
   <si>
     <t>编写穿法列表组件，调整首页组件与筛选导航</t>
+  </si>
+  <si>
+    <t>根据墨刀调整商品详情页细节</t>
   </si>
   <si>
     <t>调整穿法详情页：随滚动距离计算图片尺寸，并增加节流提高性能</t>
@@ -340,10 +352,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -362,6 +374,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -377,22 +397,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -403,13 +415,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -438,7 +443,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -459,16 +479,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -492,15 +505,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -521,43 +533,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,146 +717,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="16">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -808,26 +820,48 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -891,16 +925,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -911,10 +945,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -923,19 +957,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -944,116 +978,116 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1126,10 +1160,22 @@
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1447,6 +1493,48 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>33020</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1532255</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>2867025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5982970" y="24888825"/>
+          <a:ext cx="1499235" cy="2628900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1710,8 +1798,8 @@
   <sheetPr/>
   <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -2271,7 +2359,9 @@
       <c r="D36" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E36" s="5"/>
+      <c r="E36" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="F36" s="5"/>
     </row>
     <row r="37" ht="42" customHeight="1" spans="1:6">
@@ -2279,47 +2369,51 @@
         <v>7</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="D37" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
+      <c r="D37" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="E37" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="F37" s="27"/>
     </row>
     <row r="38" ht="42" customHeight="1" spans="1:6">
       <c r="A38" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
+        <v>99</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="E38" s="26"/>
+      <c r="F38" s="27"/>
     </row>
     <row r="39" ht="42" customHeight="1" spans="1:6">
       <c r="A39" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="E39" s="18"/>
+        <v>103</v>
+      </c>
+      <c r="E39" s="28" t="s">
+        <v>104</v>
+      </c>
       <c r="F39" s="18"/>
     </row>
     <row r="40" ht="42" customHeight="1" spans="1:6">
@@ -2329,7 +2423,7 @@
       <c r="B40" s="21"/>
       <c r="C40" s="21"/>
       <c r="D40" s="21"/>
-      <c r="E40" s="18"/>
+      <c r="E40" s="29"/>
       <c r="F40" s="18"/>
     </row>
     <row r="41" ht="42" customHeight="1" spans="1:6">
@@ -2337,16 +2431,18 @@
         <v>28</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C41" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="D41" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
+      <c r="D41" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="E41" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="F41" s="27"/>
     </row>
     <row r="42" ht="42" customHeight="1" spans="1:6">
       <c r="A42" s="10" t="s">
@@ -2354,24 +2450,26 @@
       </c>
       <c r="B42" s="18"/>
       <c r="C42" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="D42" s="27"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
+        <v>108</v>
+      </c>
+      <c r="D42" s="31"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="27"/>
     </row>
     <row r="43" ht="42" customHeight="1" spans="1:6">
       <c r="A43" s="10" t="s">
         <v>37</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C43" s="18"/>
-      <c r="D43" s="26" t="s">
+      <c r="D43" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="E43" s="18"/>
+      <c r="E43" s="28" t="s">
+        <v>87</v>
+      </c>
       <c r="F43" s="18"/>
     </row>
     <row r="44" ht="42" customHeight="1" spans="1:6">
@@ -2380,8 +2478,8 @@
       </c>
       <c r="B44" s="18"/>
       <c r="C44" s="18"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="18"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="29"/>
       <c r="F44" s="18"/>
     </row>
     <row r="45" ht="246" customHeight="1" spans="1:6">
@@ -2424,7 +2522,7 @@
     <row r="73" ht="42" customHeight="1"/>
     <row r="74" ht="42" customHeight="1"/>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="36">
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B14:B15"/>
@@ -2450,6 +2548,10 @@
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="E14:E16"/>
     <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="E43:E44"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="F8:F9"/>

--- a/work_time.xlsx
+++ b/work_time.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16425" windowHeight="12270" firstSheet="1"/>
+    <workbookView windowWidth="23235" windowHeight="13140" firstSheet="1"/>
   </bookViews>
   <sheets>
     <sheet name="6月" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="120">
   <si>
     <t>6月第二周</t>
   </si>
@@ -299,6 +299,12 @@
     <t>调整首页和商品详情细节</t>
   </si>
   <si>
+    <t>增加老板娘说模块</t>
+  </si>
+  <si>
+    <t>调整首页、富文本编辑器等</t>
+  </si>
+  <si>
     <t>最新穿法页面：增加浮动按钮</t>
   </si>
   <si>
@@ -311,6 +317,12 @@
     <t>调整首页细节</t>
   </si>
   <si>
+    <t>编写并添加页脚</t>
+  </si>
+  <si>
+    <t>增加“你也会挑衣服”列表页、详情页</t>
+  </si>
+  <si>
     <t>最新穿法页面：编写条件筛选组件</t>
   </si>
   <si>
@@ -320,6 +332,9 @@
     <t>调整穿法详情页商品列表布局</t>
   </si>
   <si>
+    <t>编写老板娘说模块样式</t>
+  </si>
+  <si>
     <t>最新穿法页面：图片增加毛玻璃背景</t>
   </si>
   <si>
@@ -332,6 +347,12 @@
     <t>申请并引入路线规划插件，增加地图导航、展示门店位置功能</t>
   </si>
   <si>
+    <t>增加后台富文本编辑器图片上传、视频上传（需要跨域）功能</t>
+  </si>
+  <si>
+    <t>后台升级到tinymce5，增加图片编辑功能</t>
+  </si>
+  <si>
     <t>解决弹出层有滚动时的滚动穿透，无滚动时的滚动穿透未解决</t>
   </si>
   <si>
@@ -344,7 +365,16 @@
     <t>调整穿法详情页：随滚动距离计算图片尺寸，并增加节流提高性能</t>
   </si>
   <si>
+    <t>修改小程序富文本解析方式</t>
+  </si>
+  <si>
     <t>核对需求，编写最新穿法详情页</t>
+  </si>
+  <si>
+    <t>核对需求，调整商品详情-商品说明模块</t>
+  </si>
+  <si>
+    <t>核对需求，撰写工作报告</t>
   </si>
 </sst>
 </file>
@@ -352,10 +382,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -374,16 +404,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -403,47 +439,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -456,9 +454,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -479,9 +485,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -495,11 +524,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -511,10 +540,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -533,7 +563,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,31 +665,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -581,31 +695,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -617,25 +713,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -647,37 +731,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -689,31 +743,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -842,35 +872,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -890,11 +896,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -914,17 +935,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -939,16 +949,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -957,137 +987,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1160,23 +1190,26 @@
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1535,6 +1568,170 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1421765</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>1162685</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7516495" y="24650700"/>
+          <a:ext cx="1421765" cy="1162685"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>1000125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1367155</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>3086100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9" descr="1593694189(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7611745" y="25650825"/>
+          <a:ext cx="1271905" cy="2085975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>1381125</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9083040" y="24650700"/>
+          <a:ext cx="1524000" cy="1381125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>147320</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>1333500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1432560</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9230360" y="25984200"/>
+          <a:ext cx="1285240" cy="1809750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1798,8 +1995,8 @@
   <sheetPr/>
   <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -2326,7 +2523,7 @@
       <c r="F33" s="18"/>
     </row>
     <row r="34" ht="42" customHeight="1"/>
-    <row r="35" ht="42" customHeight="1" spans="1:6">
+    <row r="35" ht="42" customHeight="1" spans="1:7">
       <c r="A35" s="24" t="s">
         <v>89</v>
       </c>
@@ -2345,8 +2542,11 @@
       <c r="F35" s="25">
         <v>44014</v>
       </c>
-    </row>
-    <row r="36" ht="42" customHeight="1" spans="1:6">
+      <c r="G35" s="25">
+        <v>44015</v>
+      </c>
+    </row>
+    <row r="36" ht="42" customHeight="1" spans="1:7">
       <c r="A36" s="3" t="s">
         <v>1</v>
       </c>
@@ -2362,127 +2562,156 @@
       <c r="E36" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="F36" s="5"/>
-    </row>
-    <row r="37" ht="42" customHeight="1" spans="1:6">
+      <c r="F36" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" ht="42" customHeight="1" spans="1:7">
       <c r="A37" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="E37" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="F37" s="27"/>
-    </row>
-    <row r="38" ht="42" customHeight="1" spans="1:6">
+        <v>98</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="F37" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="G37" s="27" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" ht="42" customHeight="1" spans="1:7">
       <c r="A38" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="E38" s="26"/>
-      <c r="F38" s="27"/>
-    </row>
-    <row r="39" ht="42" customHeight="1" spans="1:6">
+        <v>104</v>
+      </c>
+      <c r="E38" s="20"/>
+      <c r="F38" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="G38" s="28"/>
+    </row>
+    <row r="39" ht="42" customHeight="1" spans="1:7">
       <c r="A39" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="E39" s="28" t="s">
-        <v>104</v>
+        <v>108</v>
+      </c>
+      <c r="E39" s="29" t="s">
+        <v>109</v>
       </c>
       <c r="F39" s="18"/>
-    </row>
-    <row r="40" ht="42" customHeight="1" spans="1:6">
+      <c r="G39" s="30" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" ht="42" customHeight="1" spans="1:7">
       <c r="A40" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B40" s="21"/>
       <c r="C40" s="21"/>
       <c r="D40" s="21"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="18"/>
-    </row>
-    <row r="41" ht="42" customHeight="1" spans="1:6">
+      <c r="E40" s="31"/>
+      <c r="F40" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="G40" s="30"/>
+    </row>
+    <row r="41" ht="42" customHeight="1" spans="1:7">
       <c r="A41" s="10" t="s">
         <v>28</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C41" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="D41" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="E41" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="F41" s="27"/>
-    </row>
-    <row r="42" ht="42" customHeight="1" spans="1:6">
+      <c r="D41" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="E41" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="F41" s="23"/>
+      <c r="G41" s="30"/>
+    </row>
+    <row r="42" ht="42" customHeight="1" spans="1:7">
       <c r="A42" s="10" t="s">
         <v>32</v>
       </c>
       <c r="B42" s="18"/>
       <c r="C42" s="18" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D42" s="31"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="27"/>
-    </row>
-    <row r="43" ht="42" customHeight="1" spans="1:6">
+      <c r="E42" s="20"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="32" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="43" ht="42" customHeight="1" spans="1:7">
       <c r="A43" s="10" t="s">
         <v>37</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="C43" s="18"/>
       <c r="D43" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="E43" s="28" t="s">
+      <c r="E43" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="F43" s="18"/>
-    </row>
-    <row r="44" ht="42" customHeight="1" spans="1:6">
+      <c r="F43" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="G43" s="27" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="44" ht="42" customHeight="1" spans="1:7">
       <c r="A44" s="10" t="s">
         <v>40</v>
       </c>
       <c r="B44" s="18"/>
       <c r="C44" s="18"/>
       <c r="D44" s="21"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="18"/>
-    </row>
-    <row r="45" ht="246" customHeight="1" spans="1:6">
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="28"/>
+    </row>
+    <row r="45" ht="246" customHeight="1" spans="1:7">
       <c r="A45" s="10" t="s">
         <v>88</v>
       </c>
@@ -2491,6 +2720,7 @@
       <c r="D45" s="18"/>
       <c r="E45" s="18"/>
       <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
     </row>
     <row r="46" ht="42" customHeight="1"/>
     <row r="47" ht="42" customHeight="1"/>
@@ -2522,7 +2752,7 @@
     <row r="73" ht="42" customHeight="1"/>
     <row r="74" ht="42" customHeight="1"/>
   </sheetData>
-  <mergeCells count="36">
+  <mergeCells count="42">
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B14:B15"/>
@@ -2558,7 +2788,13 @@
     <mergeCell ref="F15:F16"/>
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="F19:F20"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="F40:F42"/>
+    <mergeCell ref="F43:F44"/>
     <mergeCell ref="G15:G17"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G39:G41"/>
+    <mergeCell ref="G43:G44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/work_time.xlsx
+++ b/work_time.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="125">
   <si>
     <t>6月第二周</t>
   </si>
@@ -375,6 +375,21 @@
   </si>
   <si>
     <t>核对需求，撰写工作报告</t>
+  </si>
+  <si>
+    <t>7月第二周</t>
+  </si>
+  <si>
+    <t>根据调整样式</t>
+  </si>
+  <si>
+    <t>根据墨刀增加商品列表新样式</t>
+  </si>
+  <si>
+    <t>增加文章评论功能</t>
+  </si>
+  <si>
+    <t>核对需求，根据需求调整首页样式</t>
   </si>
 </sst>
 </file>
@@ -382,10 +397,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -405,27 +420,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -433,38 +427,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -485,16 +448,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -510,15 +480,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -533,6 +495,37 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -540,11 +533,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -563,25 +578,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -593,115 +608,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -719,7 +632,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -731,19 +740,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -875,6 +890,30 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -915,7 +954,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -935,21 +974,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -960,25 +984,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -987,137 +1002,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1193,23 +1208,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1732,6 +1762,48 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1801495</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>2315845</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="图片 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1007110" y="33642300"/>
+          <a:ext cx="1801495" cy="2315845"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1995,8 +2067,8 @@
   <sheetPr/>
   <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -2588,7 +2660,7 @@
       <c r="F37" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="G37" s="27" t="s">
+      <c r="G37" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2609,7 +2681,7 @@
       <c r="F38" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="G38" s="28"/>
+      <c r="G38" s="21"/>
     </row>
     <row r="39" ht="42" customHeight="1" spans="1:7">
       <c r="A39" s="10" t="s">
@@ -2624,11 +2696,11 @@
       <c r="D39" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="E39" s="29" t="s">
+      <c r="E39" s="27" t="s">
         <v>109</v>
       </c>
       <c r="F39" s="18"/>
-      <c r="G39" s="30" t="s">
+      <c r="G39" s="18" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2639,11 +2711,11 @@
       <c r="B40" s="21"/>
       <c r="C40" s="21"/>
       <c r="D40" s="21"/>
-      <c r="E40" s="31"/>
+      <c r="E40" s="28"/>
       <c r="F40" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="G40" s="30"/>
+      <c r="G40" s="18"/>
     </row>
     <row r="41" ht="42" customHeight="1" spans="1:7">
       <c r="A41" s="10" t="s">
@@ -2655,14 +2727,14 @@
       <c r="C41" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="D41" s="29" t="s">
+      <c r="D41" s="27" t="s">
         <v>113</v>
       </c>
       <c r="E41" s="20" t="s">
         <v>114</v>
       </c>
       <c r="F41" s="23"/>
-      <c r="G41" s="30"/>
+      <c r="G41" s="18"/>
     </row>
     <row r="42" ht="42" customHeight="1" spans="1:7">
       <c r="A42" s="10" t="s">
@@ -2672,10 +2744,10 @@
       <c r="C42" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="D42" s="31"/>
+      <c r="D42" s="28"/>
       <c r="E42" s="20"/>
       <c r="F42" s="21"/>
-      <c r="G42" s="32" t="s">
+      <c r="G42" s="29" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2696,7 +2768,7 @@
       <c r="F43" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="G43" s="27" t="s">
+      <c r="G43" s="19" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2709,7 +2781,7 @@
       <c r="D44" s="21"/>
       <c r="E44" s="21"/>
       <c r="F44" s="21"/>
-      <c r="G44" s="28"/>
+      <c r="G44" s="21"/>
     </row>
     <row r="45" ht="246" customHeight="1" spans="1:7">
       <c r="A45" s="10" t="s">
@@ -2720,26 +2792,169 @@
       <c r="D45" s="18"/>
       <c r="E45" s="18"/>
       <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
-    </row>
-    <row r="46" ht="42" customHeight="1"/>
-    <row r="47" ht="42" customHeight="1"/>
-    <row r="48" ht="42" customHeight="1"/>
-    <row r="49" ht="42" customHeight="1"/>
-    <row r="50" ht="42" customHeight="1"/>
-    <row r="51" ht="42" customHeight="1"/>
-    <row r="52" ht="42" customHeight="1"/>
-    <row r="53" ht="42" customHeight="1"/>
-    <row r="54" ht="42" customHeight="1"/>
-    <row r="55" ht="42" customHeight="1"/>
-    <row r="56" ht="42" customHeight="1"/>
-    <row r="57" ht="42" customHeight="1"/>
-    <row r="58" ht="42" customHeight="1"/>
-    <row r="59" ht="42" customHeight="1"/>
-    <row r="60" ht="42" customHeight="1"/>
-    <row r="61" ht="42" customHeight="1"/>
-    <row r="62" ht="42" customHeight="1"/>
-    <row r="63" ht="42" customHeight="1"/>
+      <c r="G45" s="19"/>
+    </row>
+    <row r="46" ht="42" customHeight="1" spans="7:7">
+      <c r="G46" s="30"/>
+    </row>
+    <row r="47" ht="42" customHeight="1" spans="1:6">
+      <c r="A47" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="B47" s="25">
+        <v>44018</v>
+      </c>
+      <c r="C47" s="25">
+        <v>44019</v>
+      </c>
+      <c r="D47" s="25">
+        <v>44020</v>
+      </c>
+      <c r="E47" s="25">
+        <v>44021</v>
+      </c>
+      <c r="F47" s="25">
+        <v>44022</v>
+      </c>
+    </row>
+    <row r="48" ht="42" customHeight="1" spans="1:7">
+      <c r="A48" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="C48" s="31"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="32"/>
+    </row>
+    <row r="49" ht="42" customHeight="1" spans="1:7">
+      <c r="A49" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="C49" s="34"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="35"/>
+    </row>
+    <row r="50" ht="42" customHeight="1" spans="1:7">
+      <c r="A50" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" s="33"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="33"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="33"/>
+      <c r="G50" s="35"/>
+    </row>
+    <row r="51" ht="42" customHeight="1" spans="1:7">
+      <c r="A51" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B51" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="C51" s="34"/>
+      <c r="D51" s="33"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="33"/>
+      <c r="G51" s="35"/>
+    </row>
+    <row r="52" ht="42" customHeight="1" spans="1:7">
+      <c r="A52" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B52" s="33"/>
+      <c r="C52" s="34"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="35"/>
+    </row>
+    <row r="53" ht="42" customHeight="1" spans="1:7">
+      <c r="A53" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B53" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="C53" s="34"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="35"/>
+    </row>
+    <row r="54" ht="42" customHeight="1" spans="1:7">
+      <c r="A54" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B54" s="33"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="35"/>
+    </row>
+    <row r="55" ht="42" customHeight="1" spans="1:7">
+      <c r="A55" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B55" s="33"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="35"/>
+    </row>
+    <row r="56" ht="42" customHeight="1" spans="1:7">
+      <c r="A56" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B56" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C56" s="34"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="33"/>
+      <c r="G56" s="35"/>
+    </row>
+    <row r="57" ht="200" customHeight="1" spans="1:7">
+      <c r="A57" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B57" s="21"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="35"/>
+    </row>
+    <row r="58" ht="42" customHeight="1" spans="7:7">
+      <c r="G58" s="36"/>
+    </row>
+    <row r="59" ht="42" customHeight="1" spans="7:7">
+      <c r="G59" s="36"/>
+    </row>
+    <row r="60" ht="42" customHeight="1" spans="7:7">
+      <c r="G60" s="36"/>
+    </row>
+    <row r="61" ht="42" customHeight="1" spans="7:7">
+      <c r="G61" s="36"/>
+    </row>
+    <row r="62" ht="42" customHeight="1" spans="7:7">
+      <c r="G62" s="37"/>
+    </row>
+    <row r="63" ht="42" customHeight="1" spans="7:7">
+      <c r="G63" s="37"/>
+    </row>
     <row r="64" ht="42" customHeight="1"/>
     <row r="65" ht="42" customHeight="1"/>
     <row r="66" ht="42" customHeight="1"/>
@@ -2752,7 +2967,7 @@
     <row r="73" ht="42" customHeight="1"/>
     <row r="74" ht="42" customHeight="1"/>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="45">
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B14:B15"/>
@@ -2763,6 +2978,9 @@
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="B41:B42"/>
     <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B53:B55"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="C27:C28"/>

--- a/work_time.xlsx
+++ b/work_time.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="128">
   <si>
     <t>6月第二周</t>
   </si>
@@ -380,16 +380,25 @@
     <t>7月第二周</t>
   </si>
   <si>
-    <t>根据调整样式</t>
+    <t>根据需求调整样式</t>
   </si>
   <si>
     <t>根据墨刀增加商品列表新样式</t>
   </si>
   <si>
+    <t>首页调整：最新穿法和今日上新导航条固定到顶部</t>
+  </si>
+  <si>
     <t>增加文章评论功能</t>
   </si>
   <si>
+    <t>增加返回搜索页面的入口</t>
+  </si>
+  <si>
     <t>核对需求，根据需求调整首页样式</t>
+  </si>
+  <si>
+    <t>核对需求 ，需要增加客服聊天功能、商品反馈功能</t>
   </si>
 </sst>
 </file>
@@ -420,14 +429,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -448,39 +458,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -511,7 +490,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -519,15 +498,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -549,8 +520,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -558,6 +560,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -578,7 +587,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,31 +617,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,37 +647,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -674,25 +671,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -704,37 +689,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -752,18 +713,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -888,10 +897,61 @@
     </border>
     <border>
       <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -911,11 +971,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -953,34 +1019,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -990,10 +1030,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1002,137 +1042,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1220,20 +1260,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1804,6 +1850,48 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1506855</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>2066290</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2835910" y="33689925"/>
+          <a:ext cx="1487805" cy="2018665"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2067,8 +2155,8 @@
   <sheetPr/>
   <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -2821,110 +2909,120 @@
       <c r="A48" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B48" s="31" t="s">
+      <c r="B48" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C48" s="31"/>
-      <c r="D48" s="31"/>
-      <c r="E48" s="31"/>
-      <c r="F48" s="31"/>
-      <c r="G48" s="32"/>
+      <c r="C48" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="31"/>
     </row>
     <row r="49" ht="42" customHeight="1" spans="1:7">
       <c r="A49" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B49" s="33" t="s">
+      <c r="B49" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="C49" s="34"/>
-      <c r="D49" s="33"/>
-      <c r="E49" s="33"/>
-      <c r="F49" s="33"/>
-      <c r="G49" s="35"/>
+      <c r="C49" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="34"/>
     </row>
     <row r="50" ht="42" customHeight="1" spans="1:7">
       <c r="A50" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B50" s="33"/>
-      <c r="C50" s="34"/>
-      <c r="D50" s="33"/>
-      <c r="E50" s="33"/>
-      <c r="F50" s="33"/>
-      <c r="G50" s="35"/>
+      <c r="B50" s="32"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="34"/>
     </row>
     <row r="51" ht="42" customHeight="1" spans="1:7">
       <c r="A51" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B51" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="C51" s="34"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="33"/>
-      <c r="F51" s="33"/>
-      <c r="G51" s="35"/>
+      <c r="B51" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="C51" s="36"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="34"/>
     </row>
     <row r="52" ht="42" customHeight="1" spans="1:7">
       <c r="A52" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B52" s="33"/>
-      <c r="C52" s="34"/>
-      <c r="D52" s="33"/>
-      <c r="E52" s="33"/>
-      <c r="F52" s="33"/>
-      <c r="G52" s="35"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="34"/>
     </row>
     <row r="53" ht="42" customHeight="1" spans="1:7">
       <c r="A53" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B53" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="C53" s="34"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="33"/>
-      <c r="F53" s="33"/>
-      <c r="G53" s="35"/>
+      <c r="B53" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="C53" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="34"/>
     </row>
     <row r="54" ht="42" customHeight="1" spans="1:7">
       <c r="A54" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B54" s="33"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="33"/>
-      <c r="E54" s="33"/>
-      <c r="F54" s="33"/>
-      <c r="G54" s="35"/>
+      <c r="B54" s="32"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="34"/>
     </row>
     <row r="55" ht="42" customHeight="1" spans="1:7">
       <c r="A55" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B55" s="33"/>
-      <c r="C55" s="34"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="33"/>
-      <c r="F55" s="33"/>
-      <c r="G55" s="35"/>
+      <c r="B55" s="32"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="32"/>
+      <c r="G55" s="34"/>
     </row>
     <row r="56" ht="42" customHeight="1" spans="1:7">
       <c r="A56" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B56" s="33" t="s">
+      <c r="B56" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="C56" s="34"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="33"/>
-      <c r="F56" s="33"/>
-      <c r="G56" s="35"/>
+      <c r="C56" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="D56" s="32"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="32"/>
+      <c r="G56" s="34"/>
     </row>
     <row r="57" ht="200" customHeight="1" spans="1:7">
       <c r="A57" s="10" t="s">
@@ -2935,25 +3033,25 @@
       <c r="D57" s="18"/>
       <c r="E57" s="18"/>
       <c r="F57" s="18"/>
-      <c r="G57" s="35"/>
+      <c r="G57" s="34"/>
     </row>
     <row r="58" ht="42" customHeight="1" spans="7:7">
-      <c r="G58" s="36"/>
+      <c r="G58" s="38"/>
     </row>
     <row r="59" ht="42" customHeight="1" spans="7:7">
-      <c r="G59" s="36"/>
+      <c r="G59" s="38"/>
     </row>
     <row r="60" ht="42" customHeight="1" spans="7:7">
-      <c r="G60" s="36"/>
+      <c r="G60" s="38"/>
     </row>
     <row r="61" ht="42" customHeight="1" spans="7:7">
-      <c r="G61" s="36"/>
+      <c r="G61" s="38"/>
     </row>
     <row r="62" ht="42" customHeight="1" spans="7:7">
-      <c r="G62" s="37"/>
+      <c r="G62" s="39"/>
     </row>
     <row r="63" ht="42" customHeight="1" spans="7:7">
-      <c r="G63" s="37"/>
+      <c r="G63" s="39"/>
     </row>
     <row r="64" ht="42" customHeight="1"/>
     <row r="65" ht="42" customHeight="1"/>
@@ -2967,7 +3065,7 @@
     <row r="73" ht="42" customHeight="1"/>
     <row r="74" ht="42" customHeight="1"/>
   </sheetData>
-  <mergeCells count="45">
+  <mergeCells count="47">
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B14:B15"/>
@@ -2987,6 +3085,8 @@
     <mergeCell ref="C29:C30"/>
     <mergeCell ref="C39:C40"/>
     <mergeCell ref="C42:C44"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="C53:C55"/>
     <mergeCell ref="D26:D28"/>
     <mergeCell ref="D29:D30"/>
     <mergeCell ref="D39:D40"/>

--- a/work_time.xlsx
+++ b/work_time.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="131">
   <si>
     <t>6月第二周</t>
   </si>
@@ -389,16 +389,25 @@
     <t>首页调整：最新穿法和今日上新导航条固定到顶部</t>
   </si>
   <si>
+    <t>穿法搜索页的条件筛选：增加显示部分条件，并可以展开折叠的功能</t>
+  </si>
+  <si>
     <t>增加文章评论功能</t>
   </si>
   <si>
     <t>增加返回搜索页面的入口</t>
   </si>
   <si>
+    <t>编写我能穿吗、我要还价页面</t>
+  </si>
+  <si>
     <t>核对需求，根据需求调整首页样式</t>
   </si>
   <si>
     <t>核对需求 ，需要增加客服聊天功能、商品反馈功能</t>
+  </si>
+  <si>
+    <t>核对需求，测试微信客服聊天工具</t>
   </si>
 </sst>
 </file>
@@ -406,10 +415,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -423,51 +432,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -490,6 +454,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -501,6 +486,44 @@
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -520,9 +543,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -538,28 +568,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -587,7 +596,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -599,25 +614,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -629,7 +626,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -647,49 +644,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -701,19 +686,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -731,7 +728,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -743,31 +752,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -927,31 +936,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -986,17 +981,29 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1018,9 +1025,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1030,10 +1039,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1042,137 +1051,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1269,13 +1278,22 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1358,8 +1376,8 @@
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1706245</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>48895</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>2990850</xdr:rowOff>
     </xdr:to>
@@ -1401,7 +1419,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1513205</xdr:colOff>
+      <xdr:colOff>1541780</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
@@ -1420,7 +1438,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2788285" y="15706725"/>
+          <a:off x="2664460" y="15706725"/>
           <a:ext cx="1541780" cy="3133725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1462,7 +1480,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4364355" y="15773400"/>
+          <a:off x="4211955" y="15773400"/>
           <a:ext cx="1581150" cy="2479675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1484,8 +1502,8 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1797050</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>3072765</xdr:rowOff>
     </xdr:to>
@@ -1546,7 +1564,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2816860" y="24755475"/>
+          <a:off x="2664460" y="24755475"/>
           <a:ext cx="1520190" cy="2924175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1588,7 +1606,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4383405" y="24650700"/>
+          <a:off x="4231005" y="24650700"/>
           <a:ext cx="1529080" cy="3086100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1630,7 +1648,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5982970" y="24888825"/>
+          <a:off x="5830570" y="24888825"/>
           <a:ext cx="1499235" cy="2628900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1672,7 +1690,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7516495" y="24650700"/>
+          <a:off x="7364095" y="24650700"/>
           <a:ext cx="1421765" cy="1162685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1714,7 +1732,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7611745" y="25650825"/>
+          <a:off x="7459345" y="25650825"/>
           <a:ext cx="1271905" cy="2085975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1752,7 +1770,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9083040" y="24650700"/>
+          <a:off x="8930640" y="24650700"/>
           <a:ext cx="1524000" cy="1381125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1794,7 +1812,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9230360" y="25984200"/>
+          <a:off x="9077960" y="25984200"/>
           <a:ext cx="1285240" cy="1809750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1817,7 +1835,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1801495</xdr:colOff>
+      <xdr:colOff>1639570</xdr:colOff>
       <xdr:row>56</xdr:row>
       <xdr:rowOff>2315845</xdr:rowOff>
     </xdr:to>
@@ -1837,7 +1855,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1007110" y="33642300"/>
-          <a:ext cx="1801495" cy="2315845"/>
+          <a:ext cx="1639570" cy="2315845"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1878,8 +1896,50 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2835910" y="33689925"/>
+          <a:off x="2683510" y="33689925"/>
           <a:ext cx="1487805" cy="2018665"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>13970</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1560830</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>2162175</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4244975" y="33737550"/>
+          <a:ext cx="1546860" cy="2066925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2155,14 +2215,14 @@
   <sheetPr/>
   <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="13.2166666666667" style="13" customWidth="1"/>
-    <col min="2" max="2" width="23.75" style="13" customWidth="1"/>
+    <col min="2" max="2" width="21.75" style="13" customWidth="1"/>
     <col min="3" max="6" width="20.5583333333333" style="13" customWidth="1"/>
     <col min="7" max="7" width="19.875" style="13" customWidth="1"/>
     <col min="8" max="16384" width="8.88333333333333" style="13"/>
@@ -2915,7 +2975,9 @@
       <c r="C48" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="D48" s="5"/>
+      <c r="D48" s="5" t="s">
+        <v>121</v>
+      </c>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
       <c r="G48" s="31"/>
@@ -2930,84 +2992,90 @@
       <c r="C49" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="D49" s="32"/>
+      <c r="D49" s="34" t="s">
+        <v>124</v>
+      </c>
       <c r="E49" s="32"/>
       <c r="F49" s="32"/>
-      <c r="G49" s="34"/>
+      <c r="G49" s="35"/>
     </row>
     <row r="50" ht="42" customHeight="1" spans="1:7">
       <c r="A50" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B50" s="32"/>
-      <c r="C50" s="35"/>
-      <c r="D50" s="32"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="37"/>
       <c r="E50" s="32"/>
       <c r="F50" s="32"/>
-      <c r="G50" s="34"/>
+      <c r="G50" s="35"/>
     </row>
     <row r="51" ht="42" customHeight="1" spans="1:7">
       <c r="A51" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B51" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="C51" s="36"/>
-      <c r="D51" s="32"/>
+        <v>125</v>
+      </c>
+      <c r="C51" s="38"/>
+      <c r="D51" s="39"/>
       <c r="E51" s="32"/>
       <c r="F51" s="32"/>
-      <c r="G51" s="34"/>
+      <c r="G51" s="35"/>
     </row>
     <row r="52" ht="42" customHeight="1" spans="1:7">
       <c r="A52" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B52" s="32"/>
-      <c r="C52" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="D52" s="32"/>
+      <c r="C52" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="D52" s="34" t="s">
+        <v>127</v>
+      </c>
       <c r="E52" s="32"/>
       <c r="F52" s="32"/>
-      <c r="G52" s="34"/>
+      <c r="G52" s="35"/>
     </row>
     <row r="53" ht="42" customHeight="1" spans="1:7">
       <c r="A53" s="6" t="s">
         <v>28</v>
       </c>
       <c r="B53" s="32" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C53" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="D53" s="32"/>
+        <v>129</v>
+      </c>
+      <c r="D53" s="39"/>
       <c r="E53" s="32"/>
       <c r="F53" s="32"/>
-      <c r="G53" s="34"/>
+      <c r="G53" s="35"/>
     </row>
     <row r="54" ht="42" customHeight="1" spans="1:7">
       <c r="A54" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B54" s="32"/>
-      <c r="C54" s="35"/>
-      <c r="D54" s="32"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="34" t="s">
+        <v>130</v>
+      </c>
       <c r="E54" s="32"/>
       <c r="F54" s="32"/>
-      <c r="G54" s="34"/>
+      <c r="G54" s="35"/>
     </row>
     <row r="55" ht="42" customHeight="1" spans="1:7">
       <c r="A55" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B55" s="32"/>
-      <c r="C55" s="36"/>
-      <c r="D55" s="32"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="39"/>
       <c r="E55" s="32"/>
       <c r="F55" s="32"/>
-      <c r="G55" s="34"/>
+      <c r="G55" s="35"/>
     </row>
     <row r="56" ht="42" customHeight="1" spans="1:7">
       <c r="A56" s="6" t="s">
@@ -3016,13 +3084,15 @@
       <c r="B56" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="C56" s="37" t="s">
+      <c r="C56" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="D56" s="32"/>
+      <c r="D56" s="32" t="s">
+        <v>43</v>
+      </c>
       <c r="E56" s="32"/>
       <c r="F56" s="32"/>
-      <c r="G56" s="34"/>
+      <c r="G56" s="35"/>
     </row>
     <row r="57" ht="200" customHeight="1" spans="1:7">
       <c r="A57" s="10" t="s">
@@ -3033,25 +3103,25 @@
       <c r="D57" s="18"/>
       <c r="E57" s="18"/>
       <c r="F57" s="18"/>
-      <c r="G57" s="34"/>
+      <c r="G57" s="35"/>
     </row>
     <row r="58" ht="42" customHeight="1" spans="7:7">
-      <c r="G58" s="38"/>
+      <c r="G58" s="41"/>
     </row>
     <row r="59" ht="42" customHeight="1" spans="7:7">
-      <c r="G59" s="38"/>
+      <c r="G59" s="41"/>
     </row>
     <row r="60" ht="42" customHeight="1" spans="7:7">
-      <c r="G60" s="38"/>
+      <c r="G60" s="41"/>
     </row>
     <row r="61" ht="42" customHeight="1" spans="7:7">
-      <c r="G61" s="38"/>
+      <c r="G61" s="41"/>
     </row>
     <row r="62" ht="42" customHeight="1" spans="7:7">
-      <c r="G62" s="39"/>
+      <c r="G62" s="42"/>
     </row>
     <row r="63" ht="42" customHeight="1" spans="7:7">
-      <c r="G63" s="39"/>
+      <c r="G63" s="42"/>
     </row>
     <row r="64" ht="42" customHeight="1"/>
     <row r="65" ht="42" customHeight="1"/>
@@ -3065,7 +3135,7 @@
     <row r="73" ht="42" customHeight="1"/>
     <row r="74" ht="42" customHeight="1"/>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="50">
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B14:B15"/>
@@ -3092,6 +3162,9 @@
     <mergeCell ref="D39:D40"/>
     <mergeCell ref="D41:D42"/>
     <mergeCell ref="D43:D44"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="D54:D55"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="E14:E16"/>

--- a/work_time.xlsx
+++ b/work_time.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="138">
   <si>
     <t>6月第二周</t>
   </si>
@@ -395,6 +395,9 @@
     <t>增加文章评论功能</t>
   </si>
   <si>
+    <t>编写听老板说页面</t>
+  </si>
+  <si>
     <t>增加返回搜索页面的入口</t>
   </si>
   <si>
@@ -407,7 +410,25 @@
     <t>核对需求 ，需要增加客服聊天功能、商品反馈功能</t>
   </si>
   <si>
+    <t>编写对老板娘说页面</t>
+  </si>
+  <si>
     <t>核对需求，测试微信客服聊天工具</t>
+  </si>
+  <si>
+    <t>7月第三周</t>
+  </si>
+  <si>
+    <t>编写角色管理页面</t>
+  </si>
+  <si>
+    <t>编写角色资料列表页面</t>
+  </si>
+  <si>
+    <t>编写角色资料编辑页</t>
+  </si>
+  <si>
+    <t>核对需求，讨论快反项目</t>
   </si>
 </sst>
 </file>
@@ -415,10 +436,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -437,114 +458,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -566,9 +481,107 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -576,6 +589,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -596,13 +617,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -620,61 +695,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -692,31 +731,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -734,43 +779,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -937,6 +958,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -947,6 +992,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -985,40 +1039,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1039,10 +1060,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1051,137 +1072,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1290,20 +1311,35 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1952,6 +1988,90 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>62230</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1494790</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>2499995</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5859780" y="33699450"/>
+          <a:ext cx="1432560" cy="2442845"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>64135</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1540510</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>2414905</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="图片 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1071245" y="42097325"/>
+          <a:ext cx="1476375" cy="2367280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2215,8 +2335,8 @@
   <sheetPr/>
   <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -2978,7 +3098,9 @@
       <c r="D48" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="E48" s="5"/>
+      <c r="E48" s="5" t="s">
+        <v>121</v>
+      </c>
       <c r="F48" s="5"/>
       <c r="G48" s="31"/>
     </row>
@@ -2995,7 +3117,9 @@
       <c r="D49" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="E49" s="32"/>
+      <c r="E49" s="34" t="s">
+        <v>72</v>
+      </c>
       <c r="F49" s="32"/>
       <c r="G49" s="35"/>
     </row>
@@ -3006,7 +3130,7 @@
       <c r="B50" s="32"/>
       <c r="C50" s="36"/>
       <c r="D50" s="37"/>
-      <c r="E50" s="32"/>
+      <c r="E50" s="38"/>
       <c r="F50" s="32"/>
       <c r="G50" s="35"/>
     </row>
@@ -3017,9 +3141,11 @@
       <c r="B51" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="C51" s="38"/>
-      <c r="D51" s="39"/>
-      <c r="E51" s="32"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="38"/>
+      <c r="E51" s="34" t="s">
+        <v>126</v>
+      </c>
       <c r="F51" s="32"/>
       <c r="G51" s="35"/>
     </row>
@@ -3029,12 +3155,12 @@
       </c>
       <c r="B52" s="32"/>
       <c r="C52" s="40" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D52" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="E52" s="32"/>
+        <v>128</v>
+      </c>
+      <c r="E52" s="38"/>
       <c r="F52" s="32"/>
       <c r="G52" s="35"/>
     </row>
@@ -3043,13 +3169,15 @@
         <v>28</v>
       </c>
       <c r="B53" s="32" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C53" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="D53" s="39"/>
-      <c r="E53" s="32"/>
+        <v>130</v>
+      </c>
+      <c r="D53" s="38"/>
+      <c r="E53" s="34" t="s">
+        <v>131</v>
+      </c>
       <c r="F53" s="32"/>
       <c r="G53" s="35"/>
     </row>
@@ -3060,9 +3188,9 @@
       <c r="B54" s="32"/>
       <c r="C54" s="36"/>
       <c r="D54" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="E54" s="32"/>
+        <v>132</v>
+      </c>
+      <c r="E54" s="38"/>
       <c r="F54" s="32"/>
       <c r="G54" s="35"/>
     </row>
@@ -3071,9 +3199,11 @@
         <v>37</v>
       </c>
       <c r="B55" s="32"/>
-      <c r="C55" s="38"/>
-      <c r="D55" s="39"/>
-      <c r="E55" s="32"/>
+      <c r="C55" s="39"/>
+      <c r="D55" s="38"/>
+      <c r="E55" s="34" t="s">
+        <v>87</v>
+      </c>
       <c r="F55" s="32"/>
       <c r="G55" s="35"/>
     </row>
@@ -3090,7 +3220,7 @@
       <c r="D56" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="E56" s="32"/>
+      <c r="E56" s="38"/>
       <c r="F56" s="32"/>
       <c r="G56" s="35"/>
     </row>
@@ -3108,34 +3238,148 @@
     <row r="58" ht="42" customHeight="1" spans="7:7">
       <c r="G58" s="41"/>
     </row>
-    <row r="59" ht="42" customHeight="1" spans="7:7">
+    <row r="59" ht="42" customHeight="1" spans="1:7">
+      <c r="A59" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="B59" s="25">
+        <v>44025</v>
+      </c>
+      <c r="C59" s="25">
+        <v>44026</v>
+      </c>
+      <c r="D59" s="25">
+        <v>44027</v>
+      </c>
+      <c r="E59" s="25">
+        <v>44028</v>
+      </c>
+      <c r="F59" s="25">
+        <v>44029</v>
+      </c>
       <c r="G59" s="41"/>
     </row>
-    <row r="60" ht="42" customHeight="1" spans="7:7">
+    <row r="60" ht="42" customHeight="1" spans="1:7">
+      <c r="A60" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
       <c r="G60" s="41"/>
     </row>
-    <row r="61" ht="42" customHeight="1" spans="7:7">
+    <row r="61" ht="42" customHeight="1" spans="1:7">
+      <c r="A61" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="C61" s="43"/>
+      <c r="D61" s="43"/>
+      <c r="E61" s="43"/>
+      <c r="F61" s="32"/>
       <c r="G61" s="41"/>
     </row>
-    <row r="62" ht="42" customHeight="1" spans="7:7">
-      <c r="G62" s="42"/>
-    </row>
-    <row r="63" ht="42" customHeight="1" spans="7:7">
-      <c r="G63" s="42"/>
-    </row>
-    <row r="64" ht="42" customHeight="1"/>
-    <row r="65" ht="42" customHeight="1"/>
-    <row r="66" ht="42" customHeight="1"/>
-    <row r="67" ht="42" customHeight="1"/>
-    <row r="68" ht="42" customHeight="1"/>
-    <row r="69" ht="42" customHeight="1"/>
+    <row r="62" ht="42" customHeight="1" spans="1:7">
+      <c r="A62" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B62" s="44"/>
+      <c r="C62" s="43"/>
+      <c r="D62" s="43"/>
+      <c r="E62" s="43"/>
+      <c r="F62" s="32"/>
+      <c r="G62" s="45"/>
+    </row>
+    <row r="63" ht="42" customHeight="1" spans="1:7">
+      <c r="A63" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B63" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="C63" s="43"/>
+      <c r="D63" s="43"/>
+      <c r="E63" s="43"/>
+      <c r="F63" s="32"/>
+      <c r="G63" s="45"/>
+    </row>
+    <row r="64" ht="42" customHeight="1" spans="1:6">
+      <c r="A64" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B64" s="44"/>
+      <c r="C64" s="43"/>
+      <c r="D64" s="43"/>
+      <c r="E64" s="43"/>
+      <c r="F64" s="32"/>
+    </row>
+    <row r="65" ht="42" customHeight="1" spans="1:6">
+      <c r="A65" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B65" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="C65" s="43"/>
+      <c r="D65" s="43"/>
+      <c r="E65" s="43"/>
+      <c r="F65" s="32"/>
+    </row>
+    <row r="66" ht="42" customHeight="1" spans="1:6">
+      <c r="A66" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B66" s="46"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="32"/>
+    </row>
+    <row r="67" ht="42" customHeight="1" spans="1:6">
+      <c r="A67" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B67" s="44"/>
+      <c r="C67" s="43"/>
+      <c r="D67" s="43"/>
+      <c r="E67" s="43"/>
+      <c r="F67" s="32"/>
+    </row>
+    <row r="68" ht="42" customHeight="1" spans="1:6">
+      <c r="A68" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B68" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="C68" s="43"/>
+      <c r="D68" s="43"/>
+      <c r="E68" s="43"/>
+      <c r="F68" s="32"/>
+    </row>
+    <row r="69" ht="195" customHeight="1" spans="1:6">
+      <c r="A69" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B69" s="21"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="18"/>
+    </row>
     <row r="70" ht="42" customHeight="1"/>
     <row r="71" ht="42" customHeight="1"/>
     <row r="72" ht="42" customHeight="1"/>
     <row r="73" ht="42" customHeight="1"/>
     <row r="74" ht="42" customHeight="1"/>
   </sheetData>
-  <mergeCells count="50">
+  <mergeCells count="57">
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B14:B15"/>
@@ -3149,6 +3393,9 @@
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="B51:B52"/>
     <mergeCell ref="B53:B55"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="B65:B67"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="C27:C28"/>
@@ -3173,6 +3420,10 @@
     <mergeCell ref="E39:E40"/>
     <mergeCell ref="E41:E42"/>
     <mergeCell ref="E43:E44"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="E55:E56"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="F8:F9"/>

--- a/work_time.xlsx
+++ b/work_time.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="143">
   <si>
     <t>6月第二周</t>
   </si>
@@ -422,13 +422,28 @@
     <t>编写角色管理页面</t>
   </si>
   <si>
+    <t>初始化需求采集项目,根据编写页面</t>
+  </si>
+  <si>
     <t>编写角色资料列表页面</t>
   </si>
   <si>
+    <t>初始化项目</t>
+  </si>
+  <si>
     <t>编写角色资料编辑页</t>
   </si>
   <si>
-    <t>核对需求，讨论快反项目</t>
+    <t>根据墨刀编写首页,导航栏, 通知栏</t>
+  </si>
+  <si>
+    <t>核对需求，讨论需求采集项目</t>
+  </si>
+  <si>
+    <t>根据墨刀编写会员查询页, 注册页</t>
+  </si>
+  <si>
+    <t>根据墨刀编写顾客记录页,  顾客特征目测页</t>
   </si>
 </sst>
 </file>
@@ -436,10 +451,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -465,9 +480,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -481,16 +516,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -504,16 +532,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -521,14 +557,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -549,31 +577,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -581,14 +603,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -596,7 +611,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -617,7 +632,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -629,37 +752,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -677,13 +770,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -695,19 +782,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -719,73 +794,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -797,7 +812,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -957,21 +972,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -992,30 +992,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1046,6 +1022,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1054,155 +1039,185 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1334,12 +1349,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2072,6 +2081,90 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1358265</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>1780540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2769235" y="42116375"/>
+          <a:ext cx="1253490" cy="1713865"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>1809750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1296035</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>330200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="图片 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2721610" y="43859450"/>
+          <a:ext cx="1238885" cy="996950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2336,7 +2429,7 @@
   <dimension ref="A1:G74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -3266,7 +3359,9 @@
       <c r="B60" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C60" s="5"/>
+      <c r="C60" s="5" t="s">
+        <v>135</v>
+      </c>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
@@ -3276,10 +3371,12 @@
       <c r="A61" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B61" s="42" t="s">
-        <v>135</v>
-      </c>
-      <c r="C61" s="43"/>
+      <c r="B61" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="C61" s="42" t="s">
+        <v>137</v>
+      </c>
       <c r="D61" s="43"/>
       <c r="E61" s="43"/>
       <c r="F61" s="32"/>
@@ -3289,8 +3386,8 @@
       <c r="A62" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B62" s="44"/>
-      <c r="C62" s="43"/>
+      <c r="B62" s="38"/>
+      <c r="C62" s="44"/>
       <c r="D62" s="43"/>
       <c r="E62" s="43"/>
       <c r="F62" s="32"/>
@@ -3300,10 +3397,12 @@
       <c r="A63" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B63" s="42" t="s">
-        <v>136</v>
-      </c>
-      <c r="C63" s="43"/>
+      <c r="B63" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="C63" s="42" t="s">
+        <v>139</v>
+      </c>
       <c r="D63" s="43"/>
       <c r="E63" s="43"/>
       <c r="F63" s="32"/>
@@ -3313,8 +3412,8 @@
       <c r="A64" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B64" s="44"/>
-      <c r="C64" s="43"/>
+      <c r="B64" s="38"/>
+      <c r="C64" s="44"/>
       <c r="D64" s="43"/>
       <c r="E64" s="43"/>
       <c r="F64" s="32"/>
@@ -3323,10 +3422,12 @@
       <c r="A65" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B65" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="C65" s="43"/>
+      <c r="B65" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="C65" s="42" t="s">
+        <v>141</v>
+      </c>
       <c r="D65" s="43"/>
       <c r="E65" s="43"/>
       <c r="F65" s="32"/>
@@ -3335,8 +3436,8 @@
       <c r="A66" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B66" s="46"/>
-      <c r="C66" s="43"/>
+      <c r="B66" s="37"/>
+      <c r="C66" s="44"/>
       <c r="D66" s="43"/>
       <c r="E66" s="43"/>
       <c r="F66" s="32"/>
@@ -3345,8 +3446,10 @@
       <c r="A67" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B67" s="44"/>
-      <c r="C67" s="43"/>
+      <c r="B67" s="38"/>
+      <c r="C67" s="42" t="s">
+        <v>142</v>
+      </c>
       <c r="D67" s="43"/>
       <c r="E67" s="43"/>
       <c r="F67" s="32"/>
@@ -3355,10 +3458,10 @@
       <c r="A68" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B68" s="47" t="s">
+      <c r="B68" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="C68" s="43"/>
+      <c r="C68" s="44"/>
       <c r="D68" s="43"/>
       <c r="E68" s="43"/>
       <c r="F68" s="32"/>
@@ -3379,7 +3482,7 @@
     <row r="73" ht="42" customHeight="1"/>
     <row r="74" ht="42" customHeight="1"/>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="61">
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B14:B15"/>
@@ -3404,6 +3507,10 @@
     <mergeCell ref="C42:C44"/>
     <mergeCell ref="C49:C51"/>
     <mergeCell ref="C53:C55"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="C67:C68"/>
     <mergeCell ref="D26:D28"/>
     <mergeCell ref="D29:D30"/>
     <mergeCell ref="D39:D40"/>

--- a/work_time.xlsx
+++ b/work_time.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="147">
   <si>
     <t>6月第二周</t>
   </si>
@@ -425,22 +425,34 @@
     <t>初始化需求采集项目,根据编写页面</t>
   </si>
   <si>
+    <t>完善商品信息采集页</t>
+  </si>
+  <si>
     <t>编写角色资料列表页面</t>
   </si>
   <si>
     <t>初始化项目</t>
   </si>
   <si>
+    <t>增加折叠展开效果</t>
+  </si>
+  <si>
     <t>编写角色资料编辑页</t>
   </si>
   <si>
     <t>根据墨刀编写首页,导航栏, 通知栏</t>
   </si>
   <si>
+    <t>整理小程序商城首页,  穿法列表页. 穿法详情页,  商品列表页, 商品详情页json数据</t>
+  </si>
+  <si>
     <t>核对需求，讨论需求采集项目</t>
   </si>
   <si>
     <t>根据墨刀编写会员查询页, 注册页</t>
+  </si>
+  <si>
+    <t>确认小程序商城页面,  确认信息采集系统流程与需求</t>
   </si>
   <si>
     <t>根据墨刀编写顾客记录页,  顾客特征目测页</t>
@@ -453,8 +465,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -474,20 +486,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -495,14 +493,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -516,9 +507,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -549,14 +539,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -579,7 +593,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -601,17 +615,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -632,19 +644,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -656,19 +734,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -680,43 +752,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -734,85 +800,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -975,6 +987,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -996,6 +1017,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1007,24 +1052,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1054,31 +1081,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1087,137 +1099,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1349,6 +1361,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2165,6 +2180,90 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1453515</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>1029335</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="图片 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4231005" y="42049700"/>
+          <a:ext cx="1453515" cy="1029335"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1557020</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>1114425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>27940</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="图片 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4221480" y="43164125"/>
+          <a:ext cx="1604010" cy="1371600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2429,7 +2528,7 @@
   <dimension ref="A1:G74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -3362,7 +3461,9 @@
       <c r="C60" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="D60" s="5"/>
+      <c r="D60" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
       <c r="G60" s="41"/>
@@ -3372,12 +3473,14 @@
         <v>7</v>
       </c>
       <c r="B61" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="C61" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="D61" s="43"/>
+      <c r="C61" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="D61" s="42" t="s">
+        <v>139</v>
+      </c>
       <c r="E61" s="43"/>
       <c r="F61" s="32"/>
       <c r="G61" s="41"/>
@@ -3387,8 +3490,8 @@
         <v>13</v>
       </c>
       <c r="B62" s="38"/>
-      <c r="C62" s="44"/>
-      <c r="D62" s="43"/>
+      <c r="C62" s="38"/>
+      <c r="D62" s="44"/>
       <c r="E62" s="43"/>
       <c r="F62" s="32"/>
       <c r="G62" s="45"/>
@@ -3398,12 +3501,14 @@
         <v>19</v>
       </c>
       <c r="B63" s="34" t="s">
-        <v>138</v>
-      </c>
-      <c r="C63" s="42" t="s">
-        <v>139</v>
-      </c>
-      <c r="D63" s="43"/>
+        <v>140</v>
+      </c>
+      <c r="C63" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="D63" s="42" t="s">
+        <v>142</v>
+      </c>
       <c r="E63" s="43"/>
       <c r="F63" s="32"/>
       <c r="G63" s="45"/>
@@ -3413,8 +3518,8 @@
         <v>23</v>
       </c>
       <c r="B64" s="38"/>
-      <c r="C64" s="44"/>
-      <c r="D64" s="43"/>
+      <c r="C64" s="38"/>
+      <c r="D64" s="46"/>
       <c r="E64" s="43"/>
       <c r="F64" s="32"/>
     </row>
@@ -3423,12 +3528,12 @@
         <v>28</v>
       </c>
       <c r="B65" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="C65" s="42" t="s">
-        <v>141</v>
-      </c>
-      <c r="D65" s="43"/>
+        <v>143</v>
+      </c>
+      <c r="C65" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="D65" s="44"/>
       <c r="E65" s="43"/>
       <c r="F65" s="32"/>
     </row>
@@ -3437,8 +3542,10 @@
         <v>32</v>
       </c>
       <c r="B66" s="37"/>
-      <c r="C66" s="44"/>
-      <c r="D66" s="43"/>
+      <c r="C66" s="38"/>
+      <c r="D66" s="42" t="s">
+        <v>145</v>
+      </c>
       <c r="E66" s="43"/>
       <c r="F66" s="32"/>
     </row>
@@ -3447,10 +3554,10 @@
         <v>37</v>
       </c>
       <c r="B67" s="38"/>
-      <c r="C67" s="42" t="s">
-        <v>142</v>
-      </c>
-      <c r="D67" s="43"/>
+      <c r="C67" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="D67" s="44"/>
       <c r="E67" s="43"/>
       <c r="F67" s="32"/>
     </row>
@@ -3461,8 +3568,10 @@
       <c r="B68" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="C68" s="44"/>
-      <c r="D68" s="43"/>
+      <c r="C68" s="38"/>
+      <c r="D68" s="32" t="s">
+        <v>43</v>
+      </c>
       <c r="E68" s="43"/>
       <c r="F68" s="32"/>
     </row>
@@ -3482,7 +3591,7 @@
     <row r="73" ht="42" customHeight="1"/>
     <row r="74" ht="42" customHeight="1"/>
   </sheetData>
-  <mergeCells count="61">
+  <mergeCells count="64">
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B14:B15"/>
@@ -3519,6 +3628,9 @@
     <mergeCell ref="D49:D51"/>
     <mergeCell ref="D52:D53"/>
     <mergeCell ref="D54:D55"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="D66:D67"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="E14:E16"/>

--- a/work_time.xlsx
+++ b/work_time.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="154">
   <si>
     <t>6月第二周</t>
   </si>
@@ -428,6 +428,9 @@
     <t>完善商品信息采集页</t>
   </si>
   <si>
+    <t>调整小程序商城细节,并确认数据格式</t>
+  </si>
+  <si>
     <t>编写角色资料列表页面</t>
   </si>
   <si>
@@ -437,6 +440,12 @@
     <t>增加折叠展开效果</t>
   </si>
   <si>
+    <t>调整首页的跳转指向</t>
+  </si>
+  <si>
+    <t>调整商品列表页展示</t>
+  </si>
+  <si>
     <t>编写角色资料编辑页</t>
   </si>
   <si>
@@ -446,16 +455,28 @@
     <t>整理小程序商城首页,  穿法列表页. 穿法详情页,  商品列表页, 商品详情页json数据</t>
   </si>
   <si>
+    <t>调整商品详情页的折叠效果及数据格式</t>
+  </si>
+  <si>
     <t>核对需求，讨论需求采集项目</t>
   </si>
   <si>
     <t>根据墨刀编写会员查询页, 注册页</t>
   </si>
   <si>
+    <t>增加穿法详情页的近似款展示</t>
+  </si>
+  <si>
     <t>确认小程序商城页面,  确认信息采集系统流程与需求</t>
   </si>
   <si>
     <t>根据墨刀编写顾客记录页,  顾客特征目测页</t>
+  </si>
+  <si>
+    <t>调整筛选组件, 支持单选多选</t>
+  </si>
+  <si>
+    <t>核对需求, 撰写工作报告</t>
   </si>
 </sst>
 </file>
@@ -465,8 +486,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -493,7 +514,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -508,7 +529,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -519,6 +563,21 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -538,39 +597,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -591,6 +620,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -599,17 +635,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -617,13 +645,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -644,13 +665,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -662,19 +707,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -686,61 +731,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -758,7 +749,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -770,43 +797,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -818,7 +827,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -984,11 +1005,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1019,6 +1046,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -1041,28 +1079,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1087,10 +1108,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1099,137 +1120,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1350,19 +1371,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2264,6 +2279,48 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>2381250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="图片 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5797550" y="42049700"/>
+          <a:ext cx="1582420" cy="2381250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2528,7 +2585,7 @@
   <dimension ref="A1:G74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="E69" sqref="E69"/>
+      <selection activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -3464,7 +3521,9 @@
       <c r="D60" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="E60" s="5"/>
+      <c r="E60" s="5" t="s">
+        <v>137</v>
+      </c>
       <c r="F60" s="5"/>
       <c r="G60" s="41"/>
     </row>
@@ -3473,15 +3532,17 @@
         <v>7</v>
       </c>
       <c r="B61" s="34" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C61" s="34" t="s">
-        <v>138</v>
-      </c>
-      <c r="D61" s="42" t="s">
         <v>139</v>
       </c>
-      <c r="E61" s="43"/>
+      <c r="D61" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="E61" s="32" t="s">
+        <v>141</v>
+      </c>
       <c r="F61" s="32"/>
       <c r="G61" s="41"/>
     </row>
@@ -3491,27 +3552,31 @@
       </c>
       <c r="B62" s="38"/>
       <c r="C62" s="38"/>
-      <c r="D62" s="44"/>
-      <c r="E62" s="43"/>
+      <c r="D62" s="38"/>
+      <c r="E62" s="32" t="s">
+        <v>142</v>
+      </c>
       <c r="F62" s="32"/>
-      <c r="G62" s="45"/>
+      <c r="G62" s="42"/>
     </row>
     <row r="63" ht="42" customHeight="1" spans="1:7">
       <c r="A63" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B63" s="34" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C63" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="D63" s="42" t="s">
-        <v>142</v>
-      </c>
-      <c r="E63" s="43"/>
+        <v>144</v>
+      </c>
+      <c r="D63" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="E63" s="43" t="s">
+        <v>146</v>
+      </c>
       <c r="F63" s="32"/>
-      <c r="G63" s="45"/>
+      <c r="G63" s="42"/>
     </row>
     <row r="64" ht="42" customHeight="1" spans="1:6">
       <c r="A64" s="6" t="s">
@@ -3519,8 +3584,8 @@
       </c>
       <c r="B64" s="38"/>
       <c r="C64" s="38"/>
-      <c r="D64" s="46"/>
-      <c r="E64" s="43"/>
+      <c r="D64" s="37"/>
+      <c r="E64" s="44"/>
       <c r="F64" s="32"/>
     </row>
     <row r="65" ht="42" customHeight="1" spans="1:6">
@@ -3528,13 +3593,15 @@
         <v>28</v>
       </c>
       <c r="B65" s="34" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C65" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="D65" s="44"/>
-      <c r="E65" s="43"/>
+        <v>148</v>
+      </c>
+      <c r="D65" s="38"/>
+      <c r="E65" s="43" t="s">
+        <v>149</v>
+      </c>
       <c r="F65" s="32"/>
     </row>
     <row r="66" ht="42" customHeight="1" spans="1:6">
@@ -3543,10 +3610,10 @@
       </c>
       <c r="B66" s="37"/>
       <c r="C66" s="38"/>
-      <c r="D66" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="E66" s="43"/>
+      <c r="D66" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="E66" s="44"/>
       <c r="F66" s="32"/>
     </row>
     <row r="67" ht="42" customHeight="1" spans="1:6">
@@ -3555,10 +3622,12 @@
       </c>
       <c r="B67" s="38"/>
       <c r="C67" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="D67" s="44"/>
-      <c r="E67" s="43"/>
+        <v>151</v>
+      </c>
+      <c r="D67" s="38"/>
+      <c r="E67" s="32" t="s">
+        <v>152</v>
+      </c>
       <c r="F67" s="32"/>
     </row>
     <row r="68" ht="42" customHeight="1" spans="1:6">
@@ -3572,7 +3641,9 @@
       <c r="D68" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="E68" s="43"/>
+      <c r="E68" s="32" t="s">
+        <v>153</v>
+      </c>
       <c r="F68" s="32"/>
     </row>
     <row r="69" ht="195" customHeight="1" spans="1:6">
@@ -3591,7 +3662,7 @@
     <row r="73" ht="42" customHeight="1"/>
     <row r="74" ht="42" customHeight="1"/>
   </sheetData>
-  <mergeCells count="64">
+  <mergeCells count="66">
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B14:B15"/>
@@ -3643,6 +3714,8 @@
     <mergeCell ref="E51:E52"/>
     <mergeCell ref="E53:E54"/>
     <mergeCell ref="E55:E56"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="E65:E66"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="F8:F9"/>

--- a/work_time.xlsx
+++ b/work_time.xlsx
@@ -485,9 +485,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -507,14 +507,75 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -529,22 +590,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -555,14 +601,6 @@
       <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -582,24 +620,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -620,31 +642,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -665,7 +665,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -677,19 +803,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -701,55 +833,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -761,91 +845,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1005,17 +1005,46 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1044,22 +1073,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1078,40 +1102,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1120,137 +1120,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1373,12 +1373,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2585,7 +2579,7 @@
   <dimension ref="A1:G74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="F69" sqref="F69"/>
+      <selection activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -3572,7 +3566,7 @@
       <c r="D63" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="E63" s="43" t="s">
+      <c r="E63" s="34" t="s">
         <v>146</v>
       </c>
       <c r="F63" s="32"/>
@@ -3585,7 +3579,7 @@
       <c r="B64" s="38"/>
       <c r="C64" s="38"/>
       <c r="D64" s="37"/>
-      <c r="E64" s="44"/>
+      <c r="E64" s="38"/>
       <c r="F64" s="32"/>
     </row>
     <row r="65" ht="42" customHeight="1" spans="1:6">
@@ -3599,7 +3593,7 @@
         <v>148</v>
       </c>
       <c r="D65" s="38"/>
-      <c r="E65" s="43" t="s">
+      <c r="E65" s="34" t="s">
         <v>149</v>
       </c>
       <c r="F65" s="32"/>
@@ -3613,7 +3607,7 @@
       <c r="D66" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="E66" s="44"/>
+      <c r="E66" s="38"/>
       <c r="F66" s="32"/>
     </row>
     <row r="67" ht="42" customHeight="1" spans="1:6">

--- a/work_time.xlsx
+++ b/work_time.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23235" windowHeight="13140" firstSheet="1"/>
+    <workbookView windowWidth="23295" windowHeight="13140" firstSheet="1"/>
   </bookViews>
   <sheets>
     <sheet name="6月" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="159">
   <si>
     <t>6月第二周</t>
   </si>
@@ -431,6 +431,9 @@
     <t>调整小程序商城细节,并确认数据格式</t>
   </si>
   <si>
+    <t>调整小程序商城</t>
+  </si>
+  <si>
     <t>编写角色资料列表页面</t>
   </si>
   <si>
@@ -443,6 +446,9 @@
     <t>调整首页的跳转指向</t>
   </si>
   <si>
+    <t>完善条件筛选组件单选多选功能</t>
+  </si>
+  <si>
     <t>调整商品列表页展示</t>
   </si>
   <si>
@@ -458,6 +464,12 @@
     <t>调整商品详情页的折叠效果及数据格式</t>
   </si>
   <si>
+    <t>商品详情增加搭配建议</t>
+  </si>
+  <si>
+    <t>穿法详情增加搭配建议</t>
+  </si>
+  <si>
     <t>核对需求，讨论需求采集项目</t>
   </si>
   <si>
@@ -465,6 +477,9 @@
   </si>
   <si>
     <t>增加穿法详情页的近似款展示</t>
+  </si>
+  <si>
+    <t>确认首页,  穿法页,  商品详情页等的字段, 并调整的json数据格式,</t>
   </si>
   <si>
     <t>确认小程序商城页面,  确认信息采集系统流程与需求</t>
@@ -485,9 +500,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -507,21 +522,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -552,76 +575,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -644,7 +605,61 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -665,7 +680,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -677,25 +776,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -707,67 +824,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -779,73 +860,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1018,41 +1033,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1073,6 +1053,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1084,6 +1073,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1102,16 +1102,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1120,137 +1135,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1371,8 +1386,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2315,6 +2336,48 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>34925</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>2391410</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="图片 22"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7364095" y="42049700"/>
+          <a:ext cx="1601470" cy="2391410"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2578,7 +2641,7 @@
   <sheetPr/>
   <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
       <selection activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
@@ -3518,7 +3581,9 @@
       <c r="E60" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="F60" s="5"/>
+      <c r="F60" s="5" t="s">
+        <v>138</v>
+      </c>
       <c r="G60" s="41"/>
     </row>
     <row r="61" ht="42" customHeight="1" spans="1:7">
@@ -3526,18 +3591,20 @@
         <v>7</v>
       </c>
       <c r="B61" s="34" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C61" s="34" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D61" s="34" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E61" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="F61" s="32"/>
+        <v>142</v>
+      </c>
+      <c r="F61" s="42" t="s">
+        <v>143</v>
+      </c>
       <c r="G61" s="41"/>
     </row>
     <row r="62" ht="42" customHeight="1" spans="1:7">
@@ -3548,29 +3615,31 @@
       <c r="C62" s="38"/>
       <c r="D62" s="38"/>
       <c r="E62" s="32" t="s">
-        <v>142</v>
-      </c>
-      <c r="F62" s="32"/>
-      <c r="G62" s="42"/>
+        <v>144</v>
+      </c>
+      <c r="F62" s="42"/>
+      <c r="G62" s="43"/>
     </row>
     <row r="63" ht="42" customHeight="1" spans="1:7">
       <c r="A63" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B63" s="34" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C63" s="34" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D63" s="34" t="s">
-        <v>145</v>
-      </c>
-      <c r="E63" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="F63" s="32"/>
-      <c r="G63" s="42"/>
+        <v>147</v>
+      </c>
+      <c r="E63" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="F63" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="G63" s="43"/>
     </row>
     <row r="64" ht="42" customHeight="1" spans="1:6">
       <c r="A64" s="6" t="s">
@@ -3579,24 +3648,28 @@
       <c r="B64" s="38"/>
       <c r="C64" s="38"/>
       <c r="D64" s="37"/>
-      <c r="E64" s="38"/>
-      <c r="F64" s="32"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="32" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="65" ht="42" customHeight="1" spans="1:6">
       <c r="A65" s="6" t="s">
         <v>28</v>
       </c>
       <c r="B65" s="34" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C65" s="34" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D65" s="38"/>
-      <c r="E65" s="34" t="s">
-        <v>149</v>
-      </c>
-      <c r="F65" s="32"/>
+      <c r="E65" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="F65" s="44" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="66" ht="42" customHeight="1" spans="1:6">
       <c r="A66" s="6" t="s">
@@ -3605,10 +3678,10 @@
       <c r="B66" s="37"/>
       <c r="C66" s="38"/>
       <c r="D66" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="E66" s="38"/>
-      <c r="F66" s="32"/>
+        <v>155</v>
+      </c>
+      <c r="E66" s="32"/>
+      <c r="F66" s="44"/>
     </row>
     <row r="67" ht="42" customHeight="1" spans="1:6">
       <c r="A67" s="6" t="s">
@@ -3616,13 +3689,13 @@
       </c>
       <c r="B67" s="38"/>
       <c r="C67" s="34" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D67" s="38"/>
       <c r="E67" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="F67" s="32"/>
+        <v>157</v>
+      </c>
+      <c r="F67" s="44"/>
     </row>
     <row r="68" ht="42" customHeight="1" spans="1:6">
       <c r="A68" s="6" t="s">
@@ -3636,9 +3709,11 @@
         <v>43</v>
       </c>
       <c r="E68" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="F68" s="32"/>
+        <v>158</v>
+      </c>
+      <c r="F68" s="32" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="69" ht="195" customHeight="1" spans="1:6">
       <c r="A69" s="10" t="s">
@@ -3656,7 +3731,7 @@
     <row r="73" ht="42" customHeight="1"/>
     <row r="74" ht="42" customHeight="1"/>
   </sheetData>
-  <mergeCells count="66">
+  <mergeCells count="68">
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B14:B15"/>
@@ -3719,6 +3794,8 @@
     <mergeCell ref="F38:F39"/>
     <mergeCell ref="F40:F42"/>
     <mergeCell ref="F43:F44"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="F65:F67"/>
     <mergeCell ref="G15:G17"/>
     <mergeCell ref="G37:G38"/>
     <mergeCell ref="G39:G41"/>

--- a/work_time.xlsx
+++ b/work_time.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="166">
   <si>
     <t>6月第二周</t>
   </si>
@@ -492,6 +492,27 @@
   </si>
   <si>
     <t>核对需求, 撰写工作报告</t>
+  </si>
+  <si>
+    <t>7月第四周</t>
+  </si>
+  <si>
+    <t>编写需求采集项目员工入职登记页面</t>
+  </si>
+  <si>
+    <t>编写文本输入组件</t>
+  </si>
+  <si>
+    <t>编写横向滚动组件</t>
+  </si>
+  <si>
+    <t>根据墨刀编写入职登记页面</t>
+  </si>
+  <si>
+    <t>实现横向滚动表格功能</t>
+  </si>
+  <si>
+    <t>核对需求, 确认需求采集操作流程, 撰写工作报告</t>
   </si>
 </sst>
 </file>
@@ -500,9 +521,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -522,17 +543,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -543,8 +564,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -575,6 +597,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -582,7 +627,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -603,9 +648,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -626,44 +685,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -680,7 +701,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -692,7 +761,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -704,43 +827,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -758,7 +851,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -770,97 +869,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1020,11 +1041,52 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1056,34 +1118,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1102,31 +1138,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1135,16 +1156,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1153,119 +1174,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1386,13 +1407,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2171,15 +2198,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>1809750</xdr:rowOff>
+      <xdr:rowOff>1619250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1296035</xdr:colOff>
+      <xdr:colOff>1429385</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>330200</xdr:rowOff>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2196,7 +2223,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2721610" y="43859450"/>
+          <a:off x="2854960" y="43668950"/>
           <a:ext cx="1238885" cy="996950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2366,6 +2393,48 @@
         <a:xfrm>
           <a:off x="7364095" y="42049700"/>
           <a:ext cx="1601470" cy="2391410"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1647825</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>2292350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="图片 30"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1007110" y="50393600"/>
+          <a:ext cx="1647825" cy="2292350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2639,10 +2708,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G74"/>
+  <dimension ref="A1:G201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="G69" sqref="G69"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -3602,7 +3671,7 @@
       <c r="E61" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="F61" s="42" t="s">
+      <c r="F61" s="18" t="s">
         <v>143</v>
       </c>
       <c r="G61" s="41"/>
@@ -3617,8 +3686,8 @@
       <c r="E62" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="F62" s="42"/>
-      <c r="G62" s="43"/>
+      <c r="F62" s="18"/>
+      <c r="G62" s="42"/>
     </row>
     <row r="63" ht="42" customHeight="1" spans="1:7">
       <c r="A63" s="6" t="s">
@@ -3639,7 +3708,7 @@
       <c r="F63" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="G63" s="43"/>
+      <c r="G63" s="42"/>
     </row>
     <row r="64" ht="42" customHeight="1" spans="1:6">
       <c r="A64" s="6" t="s">
@@ -3667,7 +3736,7 @@
       <c r="E65" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="F65" s="44" t="s">
+      <c r="F65" s="32" t="s">
         <v>154</v>
       </c>
     </row>
@@ -3681,7 +3750,7 @@
         <v>155</v>
       </c>
       <c r="E66" s="32"/>
-      <c r="F66" s="44"/>
+      <c r="F66" s="32"/>
     </row>
     <row r="67" ht="42" customHeight="1" spans="1:6">
       <c r="A67" s="6" t="s">
@@ -3695,7 +3764,7 @@
       <c r="E67" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="F67" s="44"/>
+      <c r="F67" s="32"/>
     </row>
     <row r="68" ht="42" customHeight="1" spans="1:6">
       <c r="A68" s="6" t="s">
@@ -3726,12 +3795,260 @@
       <c r="F69" s="18"/>
     </row>
     <row r="70" ht="42" customHeight="1"/>
-    <row r="71" ht="42" customHeight="1"/>
-    <row r="72" ht="42" customHeight="1"/>
-    <row r="73" ht="42" customHeight="1"/>
-    <row r="74" ht="42" customHeight="1"/>
+    <row r="71" ht="42" customHeight="1" spans="1:6">
+      <c r="A71" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="B71" s="25">
+        <v>44032</v>
+      </c>
+      <c r="C71" s="25">
+        <v>44033</v>
+      </c>
+      <c r="D71" s="25">
+        <v>44034</v>
+      </c>
+      <c r="E71" s="25">
+        <v>44035</v>
+      </c>
+      <c r="F71" s="25">
+        <v>44036</v>
+      </c>
+    </row>
+    <row r="72" ht="42" customHeight="1" spans="1:6">
+      <c r="A72" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B72" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="C72" s="43"/>
+      <c r="D72" s="43"/>
+      <c r="E72" s="43"/>
+      <c r="F72" s="43"/>
+    </row>
+    <row r="73" ht="42" customHeight="1" spans="1:6">
+      <c r="A73" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B73" s="43" t="s">
+        <v>161</v>
+      </c>
+      <c r="C73" s="43"/>
+      <c r="D73" s="43"/>
+      <c r="E73" s="43"/>
+      <c r="F73" s="43"/>
+    </row>
+    <row r="74" ht="42" customHeight="1" spans="1:6">
+      <c r="A74" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B74" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="C74" s="43"/>
+      <c r="D74" s="43"/>
+      <c r="E74" s="43"/>
+      <c r="F74" s="43"/>
+    </row>
+    <row r="75" ht="42" customHeight="1" spans="1:6">
+      <c r="A75" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B75" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="C75" s="43"/>
+      <c r="D75" s="43"/>
+      <c r="E75" s="43"/>
+      <c r="F75" s="43"/>
+    </row>
+    <row r="76" ht="42" customHeight="1" spans="1:6">
+      <c r="A76" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B76" s="43"/>
+      <c r="C76" s="43"/>
+      <c r="D76" s="43"/>
+      <c r="E76" s="43"/>
+      <c r="F76" s="43"/>
+    </row>
+    <row r="77" ht="42" customHeight="1" spans="1:6">
+      <c r="A77" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B77" s="43"/>
+      <c r="C77" s="43"/>
+      <c r="D77" s="43"/>
+      <c r="E77" s="43"/>
+      <c r="F77" s="43"/>
+    </row>
+    <row r="78" ht="42" customHeight="1" spans="1:6">
+      <c r="A78" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B78" s="44" t="s">
+        <v>164</v>
+      </c>
+      <c r="C78" s="43"/>
+      <c r="D78" s="43"/>
+      <c r="E78" s="43"/>
+      <c r="F78" s="43"/>
+    </row>
+    <row r="79" ht="42" customHeight="1" spans="1:6">
+      <c r="A79" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B79" s="45" t="s">
+        <v>165</v>
+      </c>
+      <c r="C79" s="43"/>
+      <c r="D79" s="43"/>
+      <c r="E79" s="43"/>
+      <c r="F79" s="43"/>
+    </row>
+    <row r="80" ht="42" customHeight="1" spans="1:6">
+      <c r="A80" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B80" s="46"/>
+      <c r="C80" s="43"/>
+      <c r="D80" s="43"/>
+      <c r="E80" s="43"/>
+      <c r="F80" s="43"/>
+    </row>
+    <row r="81" ht="193" customHeight="1" spans="1:6">
+      <c r="A81" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B81" s="21"/>
+      <c r="C81" s="18"/>
+      <c r="D81" s="18"/>
+      <c r="E81" s="18"/>
+      <c r="F81" s="18"/>
+    </row>
+    <row r="82" ht="42" customHeight="1"/>
+    <row r="83" ht="42" customHeight="1"/>
+    <row r="84" ht="42" customHeight="1"/>
+    <row r="85" ht="42" customHeight="1"/>
+    <row r="86" ht="42" customHeight="1"/>
+    <row r="87" ht="42" customHeight="1"/>
+    <row r="88" ht="42" customHeight="1"/>
+    <row r="89" ht="42" customHeight="1"/>
+    <row r="90" ht="42" customHeight="1"/>
+    <row r="91" ht="42" customHeight="1"/>
+    <row r="92" ht="42" customHeight="1"/>
+    <row r="93" ht="42" customHeight="1"/>
+    <row r="94" ht="42" customHeight="1"/>
+    <row r="95" ht="42" customHeight="1"/>
+    <row r="96" ht="42" customHeight="1"/>
+    <row r="97" ht="42" customHeight="1"/>
+    <row r="98" ht="42" customHeight="1"/>
+    <row r="99" ht="42" customHeight="1"/>
+    <row r="100" ht="42" customHeight="1"/>
+    <row r="101" ht="42" customHeight="1"/>
+    <row r="102" ht="42" customHeight="1"/>
+    <row r="103" ht="42" customHeight="1"/>
+    <row r="104" ht="42" customHeight="1"/>
+    <row r="105" ht="42" customHeight="1"/>
+    <row r="106" ht="42" customHeight="1"/>
+    <row r="107" ht="42" customHeight="1"/>
+    <row r="108" ht="42" customHeight="1"/>
+    <row r="109" ht="42" customHeight="1"/>
+    <row r="110" ht="42" customHeight="1"/>
+    <row r="111" ht="42" customHeight="1"/>
+    <row r="112" ht="42" customHeight="1"/>
+    <row r="113" ht="42" customHeight="1"/>
+    <row r="114" ht="42" customHeight="1"/>
+    <row r="115" ht="42" customHeight="1"/>
+    <row r="116" ht="42" customHeight="1"/>
+    <row r="117" ht="42" customHeight="1"/>
+    <row r="118" ht="42" customHeight="1"/>
+    <row r="119" ht="42" customHeight="1"/>
+    <row r="120" ht="42" customHeight="1"/>
+    <row r="121" ht="42" customHeight="1"/>
+    <row r="122" ht="42" customHeight="1"/>
+    <row r="123" ht="42" customHeight="1"/>
+    <row r="124" ht="42" customHeight="1"/>
+    <row r="125" ht="42" customHeight="1"/>
+    <row r="126" ht="42" customHeight="1"/>
+    <row r="127" ht="42" customHeight="1"/>
+    <row r="128" ht="42" customHeight="1"/>
+    <row r="129" ht="42" customHeight="1"/>
+    <row r="130" ht="42" customHeight="1"/>
+    <row r="131" ht="42" customHeight="1"/>
+    <row r="132" ht="42" customHeight="1"/>
+    <row r="133" ht="42" customHeight="1"/>
+    <row r="134" ht="42" customHeight="1"/>
+    <row r="135" ht="42" customHeight="1"/>
+    <row r="136" ht="42" customHeight="1"/>
+    <row r="137" ht="42" customHeight="1"/>
+    <row r="138" ht="42" customHeight="1"/>
+    <row r="139" ht="42" customHeight="1"/>
+    <row r="140" ht="42" customHeight="1"/>
+    <row r="141" ht="42" customHeight="1"/>
+    <row r="142" ht="42" customHeight="1"/>
+    <row r="143" ht="42" customHeight="1"/>
+    <row r="144" ht="42" customHeight="1"/>
+    <row r="145" ht="42" customHeight="1"/>
+    <row r="146" ht="42" customHeight="1"/>
+    <row r="147" ht="42" customHeight="1"/>
+    <row r="148" ht="42" customHeight="1"/>
+    <row r="149" ht="42" customHeight="1"/>
+    <row r="150" ht="42" customHeight="1"/>
+    <row r="151" ht="42" customHeight="1"/>
+    <row r="152" ht="42" customHeight="1"/>
+    <row r="153" ht="42" customHeight="1"/>
+    <row r="154" ht="42" customHeight="1"/>
+    <row r="155" ht="42" customHeight="1"/>
+    <row r="156" ht="42" customHeight="1"/>
+    <row r="157" ht="42" customHeight="1"/>
+    <row r="158" ht="42" customHeight="1"/>
+    <row r="159" ht="42" customHeight="1"/>
+    <row r="160" ht="42" customHeight="1"/>
+    <row r="161" ht="42" customHeight="1"/>
+    <row r="162" ht="42" customHeight="1"/>
+    <row r="163" ht="42" customHeight="1"/>
+    <row r="164" ht="42" customHeight="1"/>
+    <row r="165" ht="42" customHeight="1"/>
+    <row r="166" ht="42" customHeight="1"/>
+    <row r="167" ht="42" customHeight="1"/>
+    <row r="168" ht="42" customHeight="1"/>
+    <row r="169" ht="42" customHeight="1"/>
+    <row r="170" ht="42" customHeight="1"/>
+    <row r="171" ht="42" customHeight="1"/>
+    <row r="172" ht="42" customHeight="1"/>
+    <row r="173" ht="42" customHeight="1"/>
+    <row r="174" ht="42" customHeight="1"/>
+    <row r="175" ht="42" customHeight="1"/>
+    <row r="176" ht="42" customHeight="1"/>
+    <row r="177" ht="42" customHeight="1"/>
+    <row r="178" ht="42" customHeight="1"/>
+    <row r="179" ht="42" customHeight="1"/>
+    <row r="180" ht="42" customHeight="1"/>
+    <row r="181" ht="42" customHeight="1"/>
+    <row r="182" ht="42" customHeight="1"/>
+    <row r="183" ht="42" customHeight="1"/>
+    <row r="184" ht="42" customHeight="1"/>
+    <row r="185" ht="42" customHeight="1"/>
+    <row r="186" ht="42" customHeight="1"/>
+    <row r="187" ht="42" customHeight="1"/>
+    <row r="188" ht="42" customHeight="1"/>
+    <row r="189" ht="42" customHeight="1"/>
+    <row r="190" ht="42" customHeight="1"/>
+    <row r="191" ht="42" customHeight="1"/>
+    <row r="192" ht="42" customHeight="1"/>
+    <row r="193" ht="42" customHeight="1"/>
+    <row r="194" ht="42" customHeight="1"/>
+    <row r="195" ht="42" customHeight="1"/>
+    <row r="196" ht="42" customHeight="1"/>
+    <row r="197" ht="42" customHeight="1"/>
+    <row r="198" ht="42" customHeight="1"/>
+    <row r="199" ht="42" customHeight="1"/>
+    <row r="200" ht="42" customHeight="1"/>
+    <row r="201" ht="42" customHeight="1"/>
   </sheetData>
-  <mergeCells count="68">
+  <mergeCells count="70">
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B14:B15"/>
@@ -3748,6 +4065,8 @@
     <mergeCell ref="B61:B62"/>
     <mergeCell ref="B63:B64"/>
     <mergeCell ref="B65:B67"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B79:B80"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="C27:C28"/>

--- a/work_time.xlsx
+++ b/work_time.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="173">
   <si>
     <t>6月第二周</t>
   </si>
@@ -500,19 +500,40 @@
     <t>编写需求采集项目员工入职登记页面</t>
   </si>
   <si>
+    <t>编写顾客信息收集页面, "我的"页面</t>
+  </si>
+  <si>
     <t>编写文本输入组件</t>
   </si>
   <si>
+    <t>完善员工入职登记页</t>
+  </si>
+  <si>
     <t>编写横向滚动组件</t>
   </si>
   <si>
+    <t>编写表格增删改查的组件</t>
+  </si>
+  <si>
     <t>根据墨刀编写入职登记页面</t>
   </si>
   <si>
+    <t>编写表格组件</t>
+  </si>
+  <si>
+    <t>引用lodash</t>
+  </si>
+  <si>
     <t>实现横向滚动表格功能</t>
   </si>
   <si>
+    <t>编写"我的"页面</t>
+  </si>
+  <si>
     <t>核对需求, 确认需求采集操作流程, 撰写工作报告</t>
+  </si>
+  <si>
+    <t>编写顾客信息收集页面</t>
   </si>
 </sst>
 </file>
@@ -520,10 +541,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -543,7 +564,66 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -557,16 +637,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -597,7 +677,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -605,66 +685,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -701,7 +722,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -713,7 +764,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -725,7 +860,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -737,151 +896,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1041,45 +1062,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1096,21 +1078,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1138,16 +1105,70 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1156,137 +1177,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1410,16 +1431,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2447,6 +2477,48 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1647825</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>523875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1434465</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="图片 23"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2654935" y="50384075"/>
+          <a:ext cx="1443990" cy="2514600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2711,7 +2783,7 @@
   <dimension ref="A1:G201"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+      <selection activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -3819,103 +3891,117 @@
       <c r="A72" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B72" s="43" t="s">
+      <c r="B72" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="C72" s="43"/>
-      <c r="D72" s="43"/>
-      <c r="E72" s="43"/>
-      <c r="F72" s="43"/>
+      <c r="C72" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
     </row>
     <row r="73" ht="42" customHeight="1" spans="1:6">
       <c r="A73" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B73" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="C73" s="43"/>
-      <c r="D73" s="43"/>
-      <c r="E73" s="43"/>
-      <c r="F73" s="43"/>
+      <c r="B73" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="C73" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
     </row>
     <row r="74" ht="42" customHeight="1" spans="1:6">
       <c r="A74" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B74" s="43" t="s">
-        <v>162</v>
-      </c>
-      <c r="C74" s="43"/>
-      <c r="D74" s="43"/>
-      <c r="E74" s="43"/>
-      <c r="F74" s="43"/>
+      <c r="B74" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="C74" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
     </row>
     <row r="75" ht="42" customHeight="1" spans="1:6">
       <c r="A75" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B75" s="43" t="s">
-        <v>163</v>
-      </c>
-      <c r="C75" s="43"/>
-      <c r="D75" s="43"/>
-      <c r="E75" s="43"/>
-      <c r="F75" s="43"/>
+      <c r="B75" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="C75" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
     </row>
     <row r="76" ht="42" customHeight="1" spans="1:6">
       <c r="A76" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B76" s="43"/>
-      <c r="C76" s="43"/>
-      <c r="D76" s="43"/>
-      <c r="E76" s="43"/>
-      <c r="F76" s="43"/>
+      <c r="B76" s="44"/>
+      <c r="C76" s="45" t="s">
+        <v>168</v>
+      </c>
+      <c r="D76" s="46"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
     </row>
     <row r="77" ht="42" customHeight="1" spans="1:6">
       <c r="A77" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B77" s="43"/>
-      <c r="C77" s="43"/>
-      <c r="D77" s="43"/>
-      <c r="E77" s="43"/>
-      <c r="F77" s="43"/>
+      <c r="B77" s="44"/>
+      <c r="C77" s="45"/>
+      <c r="D77" s="46"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
     </row>
     <row r="78" ht="42" customHeight="1" spans="1:6">
       <c r="A78" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B78" s="44" t="s">
-        <v>164</v>
-      </c>
-      <c r="C78" s="43"/>
-      <c r="D78" s="43"/>
-      <c r="E78" s="43"/>
-      <c r="F78" s="43"/>
+      <c r="B78" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="C78" s="48" t="s">
+        <v>170</v>
+      </c>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
     </row>
     <row r="79" ht="42" customHeight="1" spans="1:6">
       <c r="A79" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B79" s="45" t="s">
-        <v>165</v>
-      </c>
-      <c r="C79" s="43"/>
-      <c r="D79" s="43"/>
-      <c r="E79" s="43"/>
-      <c r="F79" s="43"/>
+      <c r="B79" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="C79" s="49"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
     </row>
     <row r="80" ht="42" customHeight="1" spans="1:6">
       <c r="A80" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B80" s="46"/>
-      <c r="C80" s="43"/>
-      <c r="D80" s="43"/>
-      <c r="E80" s="43"/>
-      <c r="F80" s="43"/>
+      <c r="B80" s="38"/>
+      <c r="C80" s="43" t="s">
+        <v>172</v>
+      </c>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
     </row>
     <row r="81" ht="193" customHeight="1" spans="1:6">
       <c r="A81" s="10" t="s">
@@ -4048,7 +4134,7 @@
     <row r="200" ht="42" customHeight="1"/>
     <row r="201" ht="42" customHeight="1"/>
   </sheetData>
-  <mergeCells count="70">
+  <mergeCells count="72">
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B14:B15"/>
@@ -4079,6 +4165,8 @@
     <mergeCell ref="C63:C64"/>
     <mergeCell ref="C65:C66"/>
     <mergeCell ref="C67:C68"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="C78:C79"/>
     <mergeCell ref="D26:D28"/>
     <mergeCell ref="D29:D30"/>
     <mergeCell ref="D39:D40"/>

--- a/work_time.xlsx
+++ b/work_time.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="176">
   <si>
     <t>6月第二周</t>
   </si>
@@ -503,12 +503,18 @@
     <t>编写顾客信息收集页面, "我的"页面</t>
   </si>
   <si>
+    <t>编写顾客信息收集页, 顾客列表页</t>
+  </si>
+  <si>
     <t>编写文本输入组件</t>
   </si>
   <si>
     <t>完善员工入职登记页</t>
   </si>
   <si>
+    <t>编写顾客信息收集页面</t>
+  </si>
+  <si>
     <t>编写横向滚动组件</t>
   </si>
   <si>
@@ -521,9 +527,15 @@
     <t>编写表格组件</t>
   </si>
   <si>
+    <t>编写开关组件, 折叠展开组件</t>
+  </si>
+  <si>
     <t>引用lodash</t>
   </si>
   <si>
+    <t>编写顾客信息列表页</t>
+  </si>
+  <si>
     <t>实现横向滚动表格功能</t>
   </si>
   <si>
@@ -531,9 +543,6 @@
   </si>
   <si>
     <t>核对需求, 确认需求采集操作流程, 撰写工作报告</t>
-  </si>
-  <si>
-    <t>编写顾客信息收集页面</t>
   </si>
 </sst>
 </file>
@@ -541,10 +550,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -564,37 +573,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -608,45 +587,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -677,15 +625,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -706,6 +646,75 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -722,7 +731,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -734,7 +785,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -746,127 +845,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -884,7 +869,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -896,13 +899,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1064,11 +1073,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1082,26 +1098,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1121,26 +1128,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1165,10 +1174,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1177,7 +1186,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1186,128 +1195,128 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1431,25 +1440,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2519,6 +2525,48 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>75565</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1551305</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>2397760</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="图片 24"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4306570" y="50450750"/>
+          <a:ext cx="1475740" cy="2340610"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2783,7 +2831,7 @@
   <dimension ref="A1:G201"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="D81" sqref="D81"/>
+      <selection activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -3897,7 +3945,9 @@
       <c r="C72" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="D72" s="5"/>
+      <c r="D72" s="5" t="s">
+        <v>162</v>
+      </c>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
     </row>
@@ -3906,12 +3956,14 @@
         <v>7</v>
       </c>
       <c r="B73" s="32" t="s">
-        <v>162</v>
-      </c>
-      <c r="C73" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="D73" s="5"/>
+      <c r="C73" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="D73" s="44" t="s">
+        <v>165</v>
+      </c>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
     </row>
@@ -3920,12 +3972,12 @@
         <v>13</v>
       </c>
       <c r="B74" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="C74" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="D74" s="5"/>
+        <v>166</v>
+      </c>
+      <c r="C74" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="D74" s="44"/>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
     </row>
@@ -3934,12 +3986,14 @@
         <v>19</v>
       </c>
       <c r="B75" s="32" t="s">
-        <v>166</v>
-      </c>
-      <c r="C75" s="43" t="s">
-        <v>167</v>
-      </c>
-      <c r="D75" s="5"/>
+        <v>168</v>
+      </c>
+      <c r="C75" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="D75" s="44" t="s">
+        <v>170</v>
+      </c>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
     </row>
@@ -3947,11 +4001,11 @@
       <c r="A76" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B76" s="44"/>
-      <c r="C76" s="45" t="s">
-        <v>168</v>
-      </c>
-      <c r="D76" s="46"/>
+      <c r="B76" s="43"/>
+      <c r="C76" s="43" t="s">
+        <v>171</v>
+      </c>
+      <c r="D76" s="44"/>
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
     </row>
@@ -3959,9 +4013,11 @@
       <c r="A77" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B77" s="44"/>
-      <c r="C77" s="45"/>
-      <c r="D77" s="46"/>
+      <c r="B77" s="43"/>
+      <c r="C77" s="43"/>
+      <c r="D77" s="44" t="s">
+        <v>172</v>
+      </c>
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
     </row>
@@ -3969,13 +4025,13 @@
       <c r="A78" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B78" s="47" t="s">
-        <v>169</v>
-      </c>
-      <c r="C78" s="48" t="s">
-        <v>170</v>
-      </c>
-      <c r="D78" s="5"/>
+      <c r="B78" s="46" t="s">
+        <v>173</v>
+      </c>
+      <c r="C78" s="47" t="s">
+        <v>174</v>
+      </c>
+      <c r="D78" s="44"/>
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
     </row>
@@ -3984,10 +4040,12 @@
         <v>37</v>
       </c>
       <c r="B79" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="C79" s="49"/>
-      <c r="D79" s="5"/>
+        <v>175</v>
+      </c>
+      <c r="C79" s="48"/>
+      <c r="D79" s="44" t="s">
+        <v>158</v>
+      </c>
       <c r="E79" s="5"/>
       <c r="F79" s="5"/>
     </row>
@@ -3996,10 +4054,10 @@
         <v>40</v>
       </c>
       <c r="B80" s="38"/>
-      <c r="C80" s="43" t="s">
-        <v>172</v>
-      </c>
-      <c r="D80" s="5"/>
+      <c r="C80" s="45" t="s">
+        <v>165</v>
+      </c>
+      <c r="D80" s="44"/>
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
     </row>
@@ -4134,7 +4192,7 @@
     <row r="200" ht="42" customHeight="1"/>
     <row r="201" ht="42" customHeight="1"/>
   </sheetData>
-  <mergeCells count="72">
+  <mergeCells count="76">
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B14:B15"/>
@@ -4178,6 +4236,10 @@
     <mergeCell ref="D61:D62"/>
     <mergeCell ref="D63:D65"/>
     <mergeCell ref="D66:D67"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="D79:D80"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="E14:E16"/>

--- a/work_time.xlsx
+++ b/work_time.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="181">
   <si>
     <t>6月第二周</t>
   </si>
@@ -515,12 +515,18 @@
     <t>编写顾客信息收集页面</t>
   </si>
   <si>
+    <t>增加顾客列表筛选下拉选择功能</t>
+  </si>
+  <si>
     <t>编写横向滚动组件</t>
   </si>
   <si>
     <t>编写表格增删改查的组件</t>
   </si>
   <si>
+    <t>增加顾客列表日期区间选择功能</t>
+  </si>
+  <si>
     <t>根据墨刀编写入职登记页面</t>
   </si>
   <si>
@@ -530,12 +536,18 @@
     <t>编写开关组件, 折叠展开组件</t>
   </si>
   <si>
+    <t>增加顾客信息勾选后自动折叠并显示标题的功能</t>
+  </si>
+  <si>
     <t>引用lodash</t>
   </si>
   <si>
     <t>编写顾客信息列表页</t>
   </si>
   <si>
+    <t>增加员工入职页图片上传功能</t>
+  </si>
+  <si>
     <t>实现横向滚动表格功能</t>
   </si>
   <si>
@@ -543,6 +555,9 @@
   </si>
   <si>
     <t>核对需求, 确认需求采集操作流程, 撰写工作报告</t>
+  </si>
+  <si>
+    <t>开会</t>
   </si>
 </sst>
 </file>
@@ -550,10 +565,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -586,8 +601,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -595,6 +640,30 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -625,7 +694,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -646,75 +730,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -731,7 +746,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -743,73 +758,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -827,7 +776,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -845,43 +896,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -893,25 +920,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1071,20 +1086,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1094,21 +1106,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1130,11 +1127,44 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1153,31 +1183,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1186,137 +1201,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1443,11 +1458,14 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2450,7 +2468,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1647825</xdr:colOff>
+      <xdr:colOff>1583690</xdr:colOff>
       <xdr:row>80</xdr:row>
       <xdr:rowOff>2292350</xdr:rowOff>
     </xdr:to>
@@ -2470,7 +2488,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1007110" y="50393600"/>
-          <a:ext cx="1647825" cy="2292350"/>
+          <a:ext cx="1583690" cy="2292350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2555,6 +2573,48 @@
         <a:xfrm>
           <a:off x="4306570" y="50450750"/>
           <a:ext cx="1475740" cy="2340610"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>99695</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1457960</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>2354580</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="图片 25"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5897245" y="50422175"/>
+          <a:ext cx="1358265" cy="2326005"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2831,7 +2891,7 @@
   <dimension ref="A1:G201"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="E81" sqref="E81"/>
+      <selection activeCell="F81" sqref="F81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -3948,7 +4008,9 @@
       <c r="D72" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="E72" s="5"/>
+      <c r="E72" s="5" t="s">
+        <v>162</v>
+      </c>
       <c r="F72" s="5"/>
     </row>
     <row r="73" ht="42" customHeight="1" spans="1:6">
@@ -3961,10 +4023,12 @@
       <c r="C73" s="43" t="s">
         <v>164</v>
       </c>
-      <c r="D73" s="44" t="s">
+      <c r="D73" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="E73" s="5"/>
+      <c r="E73" s="32" t="s">
+        <v>166</v>
+      </c>
       <c r="F73" s="5"/>
     </row>
     <row r="74" ht="42" customHeight="1" spans="1:6">
@@ -3972,13 +4036,15 @@
         <v>13</v>
       </c>
       <c r="B74" s="32" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C74" s="43" t="s">
-        <v>167</v>
-      </c>
-      <c r="D74" s="44"/>
-      <c r="E74" s="5"/>
+        <v>168</v>
+      </c>
+      <c r="D74" s="32"/>
+      <c r="E74" s="32" t="s">
+        <v>169</v>
+      </c>
       <c r="F74" s="5"/>
     </row>
     <row r="75" ht="42" customHeight="1" spans="1:6">
@@ -3986,15 +4052,17 @@
         <v>19</v>
       </c>
       <c r="B75" s="32" t="s">
-        <v>168</v>
-      </c>
-      <c r="C75" s="45" t="s">
-        <v>169</v>
-      </c>
-      <c r="D75" s="44" t="s">
         <v>170</v>
       </c>
-      <c r="E75" s="5"/>
+      <c r="C75" s="44" t="s">
+        <v>171</v>
+      </c>
+      <c r="D75" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="E75" s="45" t="s">
+        <v>173</v>
+      </c>
       <c r="F75" s="5"/>
     </row>
     <row r="76" ht="42" customHeight="1" spans="1:6">
@@ -4003,10 +4071,10 @@
       </c>
       <c r="B76" s="43"/>
       <c r="C76" s="43" t="s">
-        <v>171</v>
-      </c>
-      <c r="D76" s="44"/>
-      <c r="E76" s="5"/>
+        <v>174</v>
+      </c>
+      <c r="D76" s="32"/>
+      <c r="E76" s="46"/>
       <c r="F76" s="5"/>
     </row>
     <row r="77" ht="42" customHeight="1" spans="1:6">
@@ -4015,24 +4083,28 @@
       </c>
       <c r="B77" s="43"/>
       <c r="C77" s="43"/>
-      <c r="D77" s="44" t="s">
-        <v>172</v>
-      </c>
-      <c r="E77" s="5"/>
+      <c r="D77" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="E77" s="32" t="s">
+        <v>176</v>
+      </c>
       <c r="F77" s="5"/>
     </row>
     <row r="78" ht="42" customHeight="1" spans="1:6">
       <c r="A78" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B78" s="46" t="s">
-        <v>173</v>
-      </c>
-      <c r="C78" s="47" t="s">
-        <v>174</v>
-      </c>
-      <c r="D78" s="44"/>
-      <c r="E78" s="5"/>
+      <c r="B78" s="47" t="s">
+        <v>177</v>
+      </c>
+      <c r="C78" s="48" t="s">
+        <v>178</v>
+      </c>
+      <c r="D78" s="32"/>
+      <c r="E78" s="32" t="s">
+        <v>69</v>
+      </c>
       <c r="F78" s="5"/>
     </row>
     <row r="79" ht="42" customHeight="1" spans="1:6">
@@ -4040,13 +4112,15 @@
         <v>37</v>
       </c>
       <c r="B79" s="34" t="s">
-        <v>175</v>
-      </c>
-      <c r="C79" s="48"/>
-      <c r="D79" s="44" t="s">
+        <v>179</v>
+      </c>
+      <c r="C79" s="49"/>
+      <c r="D79" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="E79" s="5"/>
+      <c r="E79" s="45" t="s">
+        <v>180</v>
+      </c>
       <c r="F79" s="5"/>
     </row>
     <row r="80" ht="42" customHeight="1" spans="1:6">
@@ -4054,11 +4128,11 @@
         <v>40</v>
       </c>
       <c r="B80" s="38"/>
-      <c r="C80" s="45" t="s">
+      <c r="C80" s="44" t="s">
         <v>165</v>
       </c>
-      <c r="D80" s="44"/>
-      <c r="E80" s="5"/>
+      <c r="D80" s="32"/>
+      <c r="E80" s="46"/>
       <c r="F80" s="5"/>
     </row>
     <row r="81" ht="193" customHeight="1" spans="1:6">
@@ -4192,7 +4266,7 @@
     <row r="200" ht="42" customHeight="1"/>
     <row r="201" ht="42" customHeight="1"/>
   </sheetData>
-  <mergeCells count="76">
+  <mergeCells count="78">
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B14:B15"/>
@@ -4254,6 +4328,8 @@
     <mergeCell ref="E55:E56"/>
     <mergeCell ref="E63:E64"/>
     <mergeCell ref="E65:E66"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="E79:E80"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="F8:F9"/>

--- a/work_time.xlsx
+++ b/work_time.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="186">
   <si>
     <t>6月第二周</t>
   </si>
@@ -558,6 +558,21 @@
   </si>
   <si>
     <t>开会</t>
+  </si>
+  <si>
+    <t>7月第五周</t>
+  </si>
+  <si>
+    <t>调整顾客信息数据格式与样式</t>
+  </si>
+  <si>
+    <t>修改条件筛选组件数据格式</t>
+  </si>
+  <si>
+    <t>修改组件增加数轴显示</t>
+  </si>
+  <si>
+    <t>增加顾客列表更多筛选</t>
   </si>
 </sst>
 </file>
@@ -565,10 +580,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -602,10 +617,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -625,13 +640,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -639,7 +647,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -654,16 +662,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -694,7 +701,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -702,14 +709,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -730,6 +737,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -746,7 +761,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -758,31 +803,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -794,73 +821,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -878,13 +839,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -902,31 +923,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1086,26 +1101,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1121,30 +1136,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1169,6 +1160,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1189,149 +1204,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1461,12 +1476,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1474,6 +1483,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2627,6 +2648,48 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6985</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1483995</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>2215515</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="图片 26"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1014095" y="58731150"/>
+          <a:ext cx="1477010" cy="2196465"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2890,8 +2953,8 @@
   <sheetPr/>
   <dimension ref="A1:G201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="F81" sqref="F81"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87:B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -4060,7 +4123,7 @@
       <c r="D75" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="E75" s="45" t="s">
+      <c r="E75" s="34" t="s">
         <v>173</v>
       </c>
       <c r="F75" s="5"/>
@@ -4074,7 +4137,7 @@
         <v>174</v>
       </c>
       <c r="D76" s="32"/>
-      <c r="E76" s="46"/>
+      <c r="E76" s="38"/>
       <c r="F76" s="5"/>
     </row>
     <row r="77" ht="42" customHeight="1" spans="1:6">
@@ -4095,10 +4158,10 @@
       <c r="A78" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B78" s="47" t="s">
+      <c r="B78" s="45" t="s">
         <v>177</v>
       </c>
-      <c r="C78" s="48" t="s">
+      <c r="C78" s="46" t="s">
         <v>178</v>
       </c>
       <c r="D78" s="32"/>
@@ -4114,11 +4177,11 @@
       <c r="B79" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="C79" s="49"/>
+      <c r="C79" s="47"/>
       <c r="D79" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="E79" s="45" t="s">
+      <c r="E79" s="34" t="s">
         <v>180</v>
       </c>
       <c r="F79" s="5"/>
@@ -4132,7 +4195,7 @@
         <v>165</v>
       </c>
       <c r="D80" s="32"/>
-      <c r="E80" s="46"/>
+      <c r="E80" s="38"/>
       <c r="F80" s="5"/>
     </row>
     <row r="81" ht="193" customHeight="1" spans="1:6">
@@ -4146,17 +4209,136 @@
       <c r="F81" s="18"/>
     </row>
     <row r="82" ht="42" customHeight="1"/>
-    <row r="83" ht="42" customHeight="1"/>
-    <row r="84" ht="42" customHeight="1"/>
-    <row r="85" ht="42" customHeight="1"/>
-    <row r="86" ht="42" customHeight="1"/>
-    <row r="87" ht="42" customHeight="1"/>
-    <row r="88" ht="42" customHeight="1"/>
-    <row r="89" ht="42" customHeight="1"/>
-    <row r="90" ht="42" customHeight="1"/>
-    <row r="91" ht="42" customHeight="1"/>
-    <row r="92" ht="42" customHeight="1"/>
-    <row r="93" ht="42" customHeight="1"/>
+    <row r="83" ht="42" customHeight="1" spans="1:6">
+      <c r="A83" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="B83" s="25">
+        <v>44039</v>
+      </c>
+      <c r="C83" s="25">
+        <v>44040</v>
+      </c>
+      <c r="D83" s="25">
+        <v>44041</v>
+      </c>
+      <c r="E83" s="25">
+        <v>44042</v>
+      </c>
+      <c r="F83" s="25">
+        <v>44043</v>
+      </c>
+    </row>
+    <row r="84" ht="42" customHeight="1" spans="1:6">
+      <c r="A84" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B84" s="48" t="s">
+        <v>182</v>
+      </c>
+      <c r="C84" s="48"/>
+      <c r="D84" s="48"/>
+      <c r="E84" s="48"/>
+      <c r="F84" s="5"/>
+    </row>
+    <row r="85" ht="42" customHeight="1" spans="1:6">
+      <c r="A85" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B85" s="49" t="s">
+        <v>183</v>
+      </c>
+      <c r="C85" s="48"/>
+      <c r="D85" s="48"/>
+      <c r="E85" s="48"/>
+      <c r="F85" s="5"/>
+    </row>
+    <row r="86" ht="42" customHeight="1" spans="1:6">
+      <c r="A86" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B86" s="50"/>
+      <c r="C86" s="48"/>
+      <c r="D86" s="48"/>
+      <c r="E86" s="48"/>
+      <c r="F86" s="5"/>
+    </row>
+    <row r="87" ht="42" customHeight="1" spans="1:6">
+      <c r="A87" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B87" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="C87" s="48"/>
+      <c r="D87" s="48"/>
+      <c r="E87" s="48"/>
+      <c r="F87" s="5"/>
+    </row>
+    <row r="88" ht="42" customHeight="1" spans="1:6">
+      <c r="A88" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B88" s="51"/>
+      <c r="C88" s="48"/>
+      <c r="D88" s="48"/>
+      <c r="E88" s="48"/>
+      <c r="F88" s="5"/>
+    </row>
+    <row r="89" ht="42" customHeight="1" spans="1:6">
+      <c r="A89" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B89" s="50"/>
+      <c r="C89" s="48"/>
+      <c r="D89" s="48"/>
+      <c r="E89" s="48"/>
+      <c r="F89" s="5"/>
+    </row>
+    <row r="90" ht="42" customHeight="1" spans="1:6">
+      <c r="A90" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B90" s="49" t="s">
+        <v>185</v>
+      </c>
+      <c r="C90" s="48"/>
+      <c r="D90" s="48"/>
+      <c r="E90" s="48"/>
+      <c r="F90" s="5"/>
+    </row>
+    <row r="91" ht="42" customHeight="1" spans="1:6">
+      <c r="A91" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B91" s="50"/>
+      <c r="C91" s="48"/>
+      <c r="D91" s="48"/>
+      <c r="E91" s="48"/>
+      <c r="F91" s="5"/>
+    </row>
+    <row r="92" ht="42" customHeight="1" spans="1:6">
+      <c r="A92" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B92" s="48" t="s">
+        <v>158</v>
+      </c>
+      <c r="C92" s="48"/>
+      <c r="D92" s="48"/>
+      <c r="E92" s="48"/>
+      <c r="F92" s="5"/>
+    </row>
+    <row r="93" ht="186" customHeight="1" spans="1:6">
+      <c r="A93" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B93" s="21"/>
+      <c r="C93" s="21"/>
+      <c r="D93" s="21"/>
+      <c r="E93" s="21"/>
+      <c r="F93" s="18"/>
+    </row>
     <row r="94" ht="42" customHeight="1"/>
     <row r="95" ht="42" customHeight="1"/>
     <row r="96" ht="42" customHeight="1"/>
@@ -4266,7 +4448,7 @@
     <row r="200" ht="42" customHeight="1"/>
     <row r="201" ht="42" customHeight="1"/>
   </sheetData>
-  <mergeCells count="78">
+  <mergeCells count="81">
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B14:B15"/>
@@ -4285,6 +4467,9 @@
     <mergeCell ref="B65:B67"/>
     <mergeCell ref="B75:B77"/>
     <mergeCell ref="B79:B80"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="B87:B89"/>
+    <mergeCell ref="B90:B91"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="C27:C28"/>

--- a/work_time.xlsx
+++ b/work_time.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="190">
   <si>
     <t>6月第二周</t>
   </si>
@@ -566,10 +566,22 @@
     <t>调整顾客信息数据格式与样式</t>
   </si>
   <si>
+    <t>完善顾客信息页</t>
+  </si>
+  <si>
     <t>修改条件筛选组件数据格式</t>
   </si>
   <si>
+    <t>完善日期时间选择功能</t>
+  </si>
+  <si>
     <t>修改组件增加数轴显示</t>
+  </si>
+  <si>
+    <t>增加折叠功能</t>
+  </si>
+  <si>
+    <t>重写数轴显示组件, 优化性能问题, 增加滑动时相应文字高亮</t>
   </si>
   <si>
     <t>增加顾客列表更多筛选</t>
@@ -580,10 +592,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -609,13 +621,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -624,44 +629,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -670,7 +644,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -701,7 +675,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -715,8 +689,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -738,9 +751,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -761,7 +773,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -773,37 +899,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -815,115 +935,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -941,7 +953,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1142,11 +1154,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1177,9 +1187,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1204,10 +1216,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1216,133 +1228,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1488,13 +1500,13 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2690,6 +2702,48 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>495300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1341120</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>2315210</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="图片 27"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2769235" y="58674000"/>
+          <a:ext cx="1236345" cy="2353310"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2953,8 +3007,8 @@
   <sheetPr/>
   <dimension ref="A1:G201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="B87" sqref="B87:B89"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -4236,7 +4290,9 @@
       <c r="B84" s="48" t="s">
         <v>182</v>
       </c>
-      <c r="C84" s="48"/>
+      <c r="C84" s="5" t="s">
+        <v>183</v>
+      </c>
       <c r="D84" s="48"/>
       <c r="E84" s="48"/>
       <c r="F84" s="5"/>
@@ -4245,10 +4301,12 @@
       <c r="A85" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B85" s="49" t="s">
-        <v>183</v>
-      </c>
-      <c r="C85" s="48"/>
+      <c r="B85" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="C85" s="49" t="s">
+        <v>185</v>
+      </c>
       <c r="D85" s="48"/>
       <c r="E85" s="48"/>
       <c r="F85" s="5"/>
@@ -4257,8 +4315,8 @@
       <c r="A86" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B86" s="50"/>
-      <c r="C86" s="48"/>
+      <c r="B86" s="38"/>
+      <c r="C86" s="50"/>
       <c r="D86" s="48"/>
       <c r="E86" s="48"/>
       <c r="F86" s="5"/>
@@ -4267,10 +4325,12 @@
       <c r="A87" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B87" s="49" t="s">
-        <v>184</v>
-      </c>
-      <c r="C87" s="48"/>
+      <c r="B87" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="C87" s="32" t="s">
+        <v>187</v>
+      </c>
       <c r="D87" s="48"/>
       <c r="E87" s="48"/>
       <c r="F87" s="5"/>
@@ -4279,8 +4339,10 @@
       <c r="A88" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B88" s="51"/>
-      <c r="C88" s="48"/>
+      <c r="B88" s="37"/>
+      <c r="C88" s="49" t="s">
+        <v>188</v>
+      </c>
       <c r="D88" s="48"/>
       <c r="E88" s="48"/>
       <c r="F88" s="5"/>
@@ -4289,8 +4351,8 @@
       <c r="A89" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B89" s="50"/>
-      <c r="C89" s="48"/>
+      <c r="B89" s="38"/>
+      <c r="C89" s="51"/>
       <c r="D89" s="48"/>
       <c r="E89" s="48"/>
       <c r="F89" s="5"/>
@@ -4299,10 +4361,10 @@
       <c r="A90" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B90" s="49" t="s">
-        <v>185</v>
-      </c>
-      <c r="C90" s="48"/>
+      <c r="B90" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="C90" s="51"/>
       <c r="D90" s="48"/>
       <c r="E90" s="48"/>
       <c r="F90" s="5"/>
@@ -4311,8 +4373,8 @@
       <c r="A91" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B91" s="50"/>
-      <c r="C91" s="48"/>
+      <c r="B91" s="38"/>
+      <c r="C91" s="50"/>
       <c r="D91" s="48"/>
       <c r="E91" s="48"/>
       <c r="F91" s="5"/>
@@ -4321,10 +4383,12 @@
       <c r="A92" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B92" s="48" t="s">
+      <c r="B92" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="C92" s="48"/>
+      <c r="C92" s="32" t="s">
+        <v>158</v>
+      </c>
       <c r="D92" s="48"/>
       <c r="E92" s="48"/>
       <c r="F92" s="5"/>
@@ -4448,7 +4512,7 @@
     <row r="200" ht="42" customHeight="1"/>
     <row r="201" ht="42" customHeight="1"/>
   </sheetData>
-  <mergeCells count="81">
+  <mergeCells count="83">
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B14:B15"/>
@@ -4484,6 +4548,8 @@
     <mergeCell ref="C67:C68"/>
     <mergeCell ref="C76:C77"/>
     <mergeCell ref="C78:C79"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="C88:C91"/>
     <mergeCell ref="D26:D28"/>
     <mergeCell ref="D29:D30"/>
     <mergeCell ref="D39:D40"/>

--- a/work_time.xlsx
+++ b/work_time.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="193">
   <si>
     <t>6月第二周</t>
   </si>
@@ -569,16 +569,25 @@
     <t>完善顾客信息页</t>
   </si>
   <si>
+    <t>编写顾客详情页</t>
+  </si>
+  <si>
     <t>修改条件筛选组件数据格式</t>
   </si>
   <si>
     <t>完善日期时间选择功能</t>
   </si>
   <si>
+    <t>增加穿法筛选条件</t>
+  </si>
+  <si>
     <t>修改组件增加数轴显示</t>
   </si>
   <si>
     <t>增加折叠功能</t>
+  </si>
+  <si>
+    <t>对接并测试增删改查api,解决content-type问题</t>
   </si>
   <si>
     <t>重写数轴显示组件, 优化性能问题, 增加滑动时相应文字高亮</t>
@@ -592,8 +601,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -615,6 +624,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -629,13 +645,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -643,8 +668,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -655,6 +681,29 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -675,7 +724,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -684,14 +740,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -718,45 +766,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -773,7 +782,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -785,13 +824,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -803,25 +896,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -833,25 +938,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -869,91 +962,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1138,6 +1147,32 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1155,8 +1190,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1164,8 +1199,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1184,42 +1219,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1228,137 +1237,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1497,16 +1506,13 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2744,6 +2750,48 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>147320</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1409700</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>23495</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="图片 28"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4378325" y="58750200"/>
+          <a:ext cx="1262380" cy="2347595"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3008,7 +3056,7 @@
   <dimension ref="A1:G201"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84"/>
+      <selection activeCell="E93" sqref="E93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -4287,14 +4335,16 @@
       <c r="A84" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B84" s="48" t="s">
+      <c r="B84" s="5" t="s">
         <v>182</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="D84" s="48"/>
-      <c r="E84" s="48"/>
+      <c r="D84" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E84" s="5"/>
       <c r="F84" s="5"/>
     </row>
     <row r="85" ht="42" customHeight="1" spans="1:6">
@@ -4302,13 +4352,15 @@
         <v>7</v>
       </c>
       <c r="B85" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="C85" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="D85" s="32" t="s">
         <v>184</v>
       </c>
-      <c r="C85" s="49" t="s">
-        <v>185</v>
-      </c>
-      <c r="D85" s="48"/>
-      <c r="E85" s="48"/>
+      <c r="E85" s="5"/>
       <c r="F85" s="5"/>
     </row>
     <row r="86" ht="42" customHeight="1" spans="1:6">
@@ -4316,9 +4368,11 @@
         <v>13</v>
       </c>
       <c r="B86" s="38"/>
-      <c r="C86" s="50"/>
-      <c r="D86" s="48"/>
-      <c r="E86" s="48"/>
+      <c r="C86" s="38"/>
+      <c r="D86" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="E86" s="5"/>
       <c r="F86" s="5"/>
     </row>
     <row r="87" ht="42" customHeight="1" spans="1:6">
@@ -4326,13 +4380,15 @@
         <v>19</v>
       </c>
       <c r="B87" s="34" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C87" s="32" t="s">
-        <v>187</v>
-      </c>
-      <c r="D87" s="48"/>
-      <c r="E87" s="48"/>
+        <v>189</v>
+      </c>
+      <c r="D87" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="E87" s="5"/>
       <c r="F87" s="5"/>
     </row>
     <row r="88" ht="42" customHeight="1" spans="1:6">
@@ -4340,11 +4396,11 @@
         <v>23</v>
       </c>
       <c r="B88" s="37"/>
-      <c r="C88" s="49" t="s">
-        <v>188</v>
-      </c>
-      <c r="D88" s="48"/>
-      <c r="E88" s="48"/>
+      <c r="C88" s="34" t="s">
+        <v>191</v>
+      </c>
+      <c r="D88" s="49"/>
+      <c r="E88" s="5"/>
       <c r="F88" s="5"/>
     </row>
     <row r="89" ht="42" customHeight="1" spans="1:6">
@@ -4352,9 +4408,9 @@
         <v>28</v>
       </c>
       <c r="B89" s="38"/>
-      <c r="C89" s="51"/>
-      <c r="D89" s="48"/>
-      <c r="E89" s="48"/>
+      <c r="C89" s="37"/>
+      <c r="D89" s="49"/>
+      <c r="E89" s="5"/>
       <c r="F89" s="5"/>
     </row>
     <row r="90" ht="42" customHeight="1" spans="1:6">
@@ -4362,11 +4418,11 @@
         <v>32</v>
       </c>
       <c r="B90" s="34" t="s">
-        <v>189</v>
-      </c>
-      <c r="C90" s="51"/>
-      <c r="D90" s="48"/>
-      <c r="E90" s="48"/>
+        <v>192</v>
+      </c>
+      <c r="C90" s="37"/>
+      <c r="D90" s="49"/>
+      <c r="E90" s="5"/>
       <c r="F90" s="5"/>
     </row>
     <row r="91" ht="42" customHeight="1" spans="1:6">
@@ -4374,9 +4430,11 @@
         <v>37</v>
       </c>
       <c r="B91" s="38"/>
-      <c r="C91" s="50"/>
-      <c r="D91" s="48"/>
-      <c r="E91" s="48"/>
+      <c r="C91" s="38"/>
+      <c r="D91" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="E91" s="5"/>
       <c r="F91" s="5"/>
     </row>
     <row r="92" ht="42" customHeight="1" spans="1:6">
@@ -4389,8 +4447,8 @@
       <c r="C92" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="D92" s="48"/>
-      <c r="E92" s="48"/>
+      <c r="D92" s="50"/>
+      <c r="E92" s="5"/>
       <c r="F92" s="5"/>
     </row>
     <row r="93" ht="186" customHeight="1" spans="1:6">
@@ -4512,7 +4570,7 @@
     <row r="200" ht="42" customHeight="1"/>
     <row r="201" ht="42" customHeight="1"/>
   </sheetData>
-  <mergeCells count="83">
+  <mergeCells count="85">
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B14:B15"/>
@@ -4565,6 +4623,8 @@
     <mergeCell ref="D75:D76"/>
     <mergeCell ref="D77:D78"/>
     <mergeCell ref="D79:D80"/>
+    <mergeCell ref="D87:D90"/>
+    <mergeCell ref="D91:D92"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="E14:E16"/>

--- a/work_time.xlsx
+++ b/work_time.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="198">
   <si>
     <t>6月第二周</t>
   </si>
@@ -572,15 +572,24 @@
     <t>编写顾客详情页</t>
   </si>
   <si>
+    <t>编写表单增删改查demo</t>
+  </si>
+  <si>
     <t>修改条件筛选组件数据格式</t>
   </si>
   <si>
     <t>完善日期时间选择功能</t>
   </si>
   <si>
+    <t>编写添加, 编辑 , 列表 页面样式</t>
+  </si>
+  <si>
     <t>增加穿法筛选条件</t>
   </si>
   <si>
+    <t>编写表单提交</t>
+  </si>
+  <si>
     <t>修改组件增加数轴显示</t>
   </si>
   <si>
@@ -591,6 +600,12 @@
   </si>
   <si>
     <t>重写数轴显示组件, 优化性能问题, 增加滑动时相应文字高亮</t>
+  </si>
+  <si>
+    <t>修改自定义表单组件</t>
+  </si>
+  <si>
+    <t>增加常用表单验证</t>
   </si>
   <si>
     <t>增加顾客列表更多筛选</t>
@@ -602,9 +617,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -624,24 +639,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -653,57 +668,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -724,7 +693,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -739,7 +730,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -760,8 +766,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -782,19 +797,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -806,151 +839,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -963,6 +858,126 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1122,6 +1137,71 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1146,56 +1226,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1204,31 +1234,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1237,137 +1252,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1509,10 +1524,13 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2792,6 +2810,48 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>112395</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1382395</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>2329180</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="图片 29"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5909945" y="58803540"/>
+          <a:ext cx="1270000" cy="2237740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3055,8 +3115,8 @@
   <sheetPr/>
   <dimension ref="A1:G201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="E93" sqref="E93"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="F93" sqref="F93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -4344,7 +4404,9 @@
       <c r="D84" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="E84" s="5"/>
+      <c r="E84" s="5" t="s">
+        <v>185</v>
+      </c>
       <c r="F84" s="5"/>
     </row>
     <row r="85" ht="42" customHeight="1" spans="1:6">
@@ -4352,15 +4414,17 @@
         <v>7</v>
       </c>
       <c r="B85" s="34" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C85" s="34" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D85" s="32" t="s">
         <v>184</v>
       </c>
-      <c r="E85" s="5"/>
+      <c r="E85" s="32" t="s">
+        <v>188</v>
+      </c>
       <c r="F85" s="5"/>
     </row>
     <row r="86" ht="42" customHeight="1" spans="1:6">
@@ -4370,9 +4434,11 @@
       <c r="B86" s="38"/>
       <c r="C86" s="38"/>
       <c r="D86" s="32" t="s">
-        <v>187</v>
-      </c>
-      <c r="E86" s="5"/>
+        <v>189</v>
+      </c>
+      <c r="E86" s="48" t="s">
+        <v>190</v>
+      </c>
       <c r="F86" s="5"/>
     </row>
     <row r="87" ht="42" customHeight="1" spans="1:6">
@@ -4380,15 +4446,15 @@
         <v>19</v>
       </c>
       <c r="B87" s="34" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C87" s="32" t="s">
-        <v>189</v>
-      </c>
-      <c r="D87" s="48" t="s">
-        <v>190</v>
-      </c>
-      <c r="E87" s="5"/>
+        <v>192</v>
+      </c>
+      <c r="D87" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="E87" s="49"/>
       <c r="F87" s="5"/>
     </row>
     <row r="88" ht="42" customHeight="1" spans="1:6">
@@ -4397,10 +4463,12 @@
       </c>
       <c r="B88" s="37"/>
       <c r="C88" s="34" t="s">
-        <v>191</v>
-      </c>
-      <c r="D88" s="49"/>
-      <c r="E88" s="5"/>
+        <v>194</v>
+      </c>
+      <c r="D88" s="37"/>
+      <c r="E88" s="50" t="s">
+        <v>195</v>
+      </c>
       <c r="F88" s="5"/>
     </row>
     <row r="89" ht="42" customHeight="1" spans="1:6">
@@ -4409,8 +4477,10 @@
       </c>
       <c r="B89" s="38"/>
       <c r="C89" s="37"/>
-      <c r="D89" s="49"/>
-      <c r="E89" s="5"/>
+      <c r="D89" s="37"/>
+      <c r="E89" s="48" t="s">
+        <v>196</v>
+      </c>
       <c r="F89" s="5"/>
     </row>
     <row r="90" ht="42" customHeight="1" spans="1:6">
@@ -4418,11 +4488,11 @@
         <v>32</v>
       </c>
       <c r="B90" s="34" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C90" s="37"/>
-      <c r="D90" s="49"/>
-      <c r="E90" s="5"/>
+      <c r="D90" s="37"/>
+      <c r="E90" s="51"/>
       <c r="F90" s="5"/>
     </row>
     <row r="91" ht="42" customHeight="1" spans="1:6">
@@ -4431,10 +4501,10 @@
       </c>
       <c r="B91" s="38"/>
       <c r="C91" s="38"/>
-      <c r="D91" s="50" t="s">
+      <c r="D91" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="E91" s="5"/>
+      <c r="E91" s="49"/>
       <c r="F91" s="5"/>
     </row>
     <row r="92" ht="42" customHeight="1" spans="1:6">
@@ -4447,8 +4517,10 @@
       <c r="C92" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="D92" s="50"/>
-      <c r="E92" s="5"/>
+      <c r="D92" s="32"/>
+      <c r="E92" s="32" t="s">
+        <v>158</v>
+      </c>
       <c r="F92" s="5"/>
     </row>
     <row r="93" ht="186" customHeight="1" spans="1:6">
@@ -4570,7 +4642,7 @@
     <row r="200" ht="42" customHeight="1"/>
     <row r="201" ht="42" customHeight="1"/>
   </sheetData>
-  <mergeCells count="85">
+  <mergeCells count="87">
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B14:B15"/>
@@ -4641,6 +4713,8 @@
     <mergeCell ref="E65:E66"/>
     <mergeCell ref="E75:E76"/>
     <mergeCell ref="E79:E80"/>
+    <mergeCell ref="E86:E87"/>
+    <mergeCell ref="E89:E91"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="F8:F9"/>

--- a/work_time.xlsx
+++ b/work_time.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="202">
   <si>
     <t>6月第二周</t>
   </si>
@@ -575,6 +575,9 @@
     <t>编写表单增删改查demo</t>
   </si>
   <si>
+    <t>编写添加穿法页</t>
+  </si>
+  <si>
     <t>修改条件筛选组件数据格式</t>
   </si>
   <si>
@@ -584,6 +587,9 @@
     <t>编写添加, 编辑 , 列表 页面样式</t>
   </si>
   <si>
+    <t>封装可添加选项的多选组件</t>
+  </si>
+  <si>
     <t>增加穿法筛选条件</t>
   </si>
   <si>
@@ -599,10 +605,16 @@
     <t>对接并测试增删改查api,解决content-type问题</t>
   </si>
   <si>
+    <t>调整自动折叠组件</t>
+  </si>
+  <si>
     <t>重写数轴显示组件, 优化性能问题, 增加滑动时相应文字高亮</t>
   </si>
   <si>
     <t>修改自定义表单组件</t>
+  </si>
+  <si>
+    <t>编写添加穿法页面</t>
   </si>
   <si>
     <t>增加常用表单验证</t>
@@ -617,9 +629,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -652,9 +664,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -662,7 +673,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -684,31 +695,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -721,26 +709,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -766,9 +739,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -777,6 +750,45 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -797,7 +809,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -809,43 +929,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -857,37 +959,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -899,85 +989,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1137,32 +1149,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1193,11 +1186,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1207,6 +1198,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1226,11 +1232,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1240,10 +1252,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1255,134 +1267,134 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1526,9 +1538,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2852,6 +2861,48 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>99695</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1266825</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>2322830</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="图片 31"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7463790" y="58778775"/>
+          <a:ext cx="1167130" cy="2256155"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3116,7 +3167,7 @@
   <dimension ref="A1:G201"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="F93" sqref="F93"/>
+      <selection activeCell="G89" sqref="G89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -4407,25 +4458,29 @@
       <c r="E84" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="F84" s="5"/>
+      <c r="F84" s="5" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="85" ht="42" customHeight="1" spans="1:6">
       <c r="A85" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B85" s="34" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C85" s="34" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D85" s="32" t="s">
         <v>184</v>
       </c>
       <c r="E85" s="32" t="s">
-        <v>188</v>
-      </c>
-      <c r="F85" s="5"/>
+        <v>189</v>
+      </c>
+      <c r="F85" s="48" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="86" ht="42" customHeight="1" spans="1:6">
       <c r="A86" s="6" t="s">
@@ -4434,28 +4489,30 @@
       <c r="B86" s="38"/>
       <c r="C86" s="38"/>
       <c r="D86" s="32" t="s">
-        <v>189</v>
-      </c>
-      <c r="E86" s="48" t="s">
-        <v>190</v>
-      </c>
-      <c r="F86" s="5"/>
+        <v>191</v>
+      </c>
+      <c r="E86" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="F86" s="49"/>
     </row>
     <row r="87" ht="42" customHeight="1" spans="1:6">
       <c r="A87" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B87" s="34" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C87" s="32" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D87" s="34" t="s">
-        <v>193</v>
-      </c>
-      <c r="E87" s="49"/>
-      <c r="F87" s="5"/>
+        <v>195</v>
+      </c>
+      <c r="E87" s="38"/>
+      <c r="F87" s="32" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="88" ht="42" customHeight="1" spans="1:6">
       <c r="A88" s="6" t="s">
@@ -4463,13 +4520,15 @@
       </c>
       <c r="B88" s="37"/>
       <c r="C88" s="34" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D88" s="37"/>
-      <c r="E88" s="50" t="s">
-        <v>195</v>
-      </c>
-      <c r="F88" s="5"/>
+      <c r="E88" s="44" t="s">
+        <v>198</v>
+      </c>
+      <c r="F88" s="48" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="89" ht="42" customHeight="1" spans="1:6">
       <c r="A89" s="6" t="s">
@@ -4478,22 +4537,22 @@
       <c r="B89" s="38"/>
       <c r="C89" s="37"/>
       <c r="D89" s="37"/>
-      <c r="E89" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="F89" s="5"/>
+      <c r="E89" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="F89" s="50"/>
     </row>
     <row r="90" ht="42" customHeight="1" spans="1:6">
       <c r="A90" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B90" s="34" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C90" s="37"/>
       <c r="D90" s="37"/>
-      <c r="E90" s="51"/>
-      <c r="F90" s="5"/>
+      <c r="E90" s="37"/>
+      <c r="F90" s="49"/>
     </row>
     <row r="91" ht="42" customHeight="1" spans="1:6">
       <c r="A91" s="6" t="s">
@@ -4504,8 +4563,10 @@
       <c r="D91" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="E91" s="49"/>
-      <c r="F91" s="5"/>
+      <c r="E91" s="38"/>
+      <c r="F91" s="48" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="92" ht="42" customHeight="1" spans="1:6">
       <c r="A92" s="6" t="s">
@@ -4521,7 +4582,7 @@
       <c r="E92" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="F92" s="5"/>
+      <c r="F92" s="49"/>
     </row>
     <row r="93" ht="186" customHeight="1" spans="1:6">
       <c r="A93" s="10" t="s">
@@ -4642,7 +4703,7 @@
     <row r="200" ht="42" customHeight="1"/>
     <row r="201" ht="42" customHeight="1"/>
   </sheetData>
-  <mergeCells count="87">
+  <mergeCells count="90">
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B14:B15"/>
@@ -4726,6 +4787,9 @@
     <mergeCell ref="F43:F44"/>
     <mergeCell ref="F61:F62"/>
     <mergeCell ref="F65:F67"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="F88:F90"/>
+    <mergeCell ref="F91:F92"/>
     <mergeCell ref="G15:G17"/>
     <mergeCell ref="G37:G38"/>
     <mergeCell ref="G39:G41"/>

--- a/work_time.xlsx
+++ b/work_time.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="207">
   <si>
     <t>6月第二周</t>
   </si>
@@ -621,6 +621,21 @@
   </si>
   <si>
     <t>增加顾客列表更多筛选</t>
+  </si>
+  <si>
+    <t>8月第一周</t>
+  </si>
+  <si>
+    <t>编写顾客货品需求页</t>
+  </si>
+  <si>
+    <t>梳理页面数据格式</t>
+  </si>
+  <si>
+    <t>编写可选择可输入文字的组件</t>
+  </si>
+  <si>
+    <t>编写页面和逻辑代码</t>
   </si>
 </sst>
 </file>
@@ -628,10 +643,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -651,74 +666,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -739,6 +687,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -747,9 +732,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -757,14 +764,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -786,9 +785,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -809,13 +824,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -827,37 +878,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -875,19 +896,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -899,19 +920,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -929,13 +938,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -947,49 +998,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1151,20 +1166,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1193,11 +1212,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1216,46 +1261,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1264,137 +1279,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1532,6 +1547,12 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2903,6 +2924,48 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>73660</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1416685</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>2649220</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="图片 41"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1080770" y="66970275"/>
+          <a:ext cx="1343025" cy="2620645"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3166,8 +3229,8 @@
   <sheetPr/>
   <dimension ref="A1:G201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="G89" sqref="G89"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -4478,7 +4541,7 @@
       <c r="E85" s="32" t="s">
         <v>189</v>
       </c>
-      <c r="F85" s="48" t="s">
+      <c r="F85" s="34" t="s">
         <v>190</v>
       </c>
     </row>
@@ -4494,7 +4557,7 @@
       <c r="E86" s="34" t="s">
         <v>192</v>
       </c>
-      <c r="F86" s="49"/>
+      <c r="F86" s="38"/>
     </row>
     <row r="87" ht="42" customHeight="1" spans="1:6">
       <c r="A87" s="6" t="s">
@@ -4526,7 +4589,7 @@
       <c r="E88" s="44" t="s">
         <v>198</v>
       </c>
-      <c r="F88" s="48" t="s">
+      <c r="F88" s="34" t="s">
         <v>199</v>
       </c>
     </row>
@@ -4540,7 +4603,7 @@
       <c r="E89" s="34" t="s">
         <v>200</v>
       </c>
-      <c r="F89" s="50"/>
+      <c r="F89" s="37"/>
     </row>
     <row r="90" ht="42" customHeight="1" spans="1:6">
       <c r="A90" s="6" t="s">
@@ -4552,7 +4615,7 @@
       <c r="C90" s="37"/>
       <c r="D90" s="37"/>
       <c r="E90" s="37"/>
-      <c r="F90" s="49"/>
+      <c r="F90" s="38"/>
     </row>
     <row r="91" ht="42" customHeight="1" spans="1:6">
       <c r="A91" s="6" t="s">
@@ -4564,7 +4627,7 @@
         <v>158</v>
       </c>
       <c r="E91" s="38"/>
-      <c r="F91" s="48" t="s">
+      <c r="F91" s="34" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4582,7 +4645,7 @@
       <c r="E92" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="F92" s="49"/>
+      <c r="F92" s="38"/>
     </row>
     <row r="93" ht="186" customHeight="1" spans="1:6">
       <c r="A93" s="10" t="s">
@@ -4595,17 +4658,134 @@
       <c r="F93" s="18"/>
     </row>
     <row r="94" ht="42" customHeight="1"/>
-    <row r="95" ht="42" customHeight="1"/>
-    <row r="96" ht="42" customHeight="1"/>
-    <row r="97" ht="42" customHeight="1"/>
-    <row r="98" ht="42" customHeight="1"/>
-    <row r="99" ht="42" customHeight="1"/>
-    <row r="100" ht="42" customHeight="1"/>
-    <row r="101" ht="42" customHeight="1"/>
-    <row r="102" ht="42" customHeight="1"/>
-    <row r="103" ht="42" customHeight="1"/>
-    <row r="104" ht="42" customHeight="1"/>
-    <row r="105" ht="42" customHeight="1"/>
+    <row r="95" ht="42" customHeight="1" spans="1:6">
+      <c r="A95" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="B95" s="25">
+        <v>44046</v>
+      </c>
+      <c r="C95" s="25">
+        <v>44047</v>
+      </c>
+      <c r="D95" s="25">
+        <v>44048</v>
+      </c>
+      <c r="E95" s="25">
+        <v>44049</v>
+      </c>
+      <c r="F95" s="25">
+        <v>44050</v>
+      </c>
+    </row>
+    <row r="96" ht="42" customHeight="1" spans="1:6">
+      <c r="A96" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B96" s="48" t="s">
+        <v>203</v>
+      </c>
+      <c r="C96" s="49"/>
+      <c r="D96" s="49"/>
+      <c r="E96" s="49"/>
+      <c r="F96" s="49"/>
+    </row>
+    <row r="97" ht="42" customHeight="1" spans="1:6">
+      <c r="A97" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B97" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="C97" s="49"/>
+      <c r="D97" s="49"/>
+      <c r="E97" s="49"/>
+      <c r="F97" s="49"/>
+    </row>
+    <row r="98" ht="42" customHeight="1" spans="1:6">
+      <c r="A98" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B98" s="51"/>
+      <c r="C98" s="49"/>
+      <c r="D98" s="49"/>
+      <c r="E98" s="49"/>
+      <c r="F98" s="49"/>
+    </row>
+    <row r="99" ht="42" customHeight="1" spans="1:6">
+      <c r="A99" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B99" s="50" t="s">
+        <v>205</v>
+      </c>
+      <c r="C99" s="49"/>
+      <c r="D99" s="49"/>
+      <c r="E99" s="49"/>
+      <c r="F99" s="49"/>
+    </row>
+    <row r="100" ht="42" customHeight="1" spans="1:6">
+      <c r="A100" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B100" s="51"/>
+      <c r="C100" s="49"/>
+      <c r="D100" s="49"/>
+      <c r="E100" s="49"/>
+      <c r="F100" s="49"/>
+    </row>
+    <row r="101" ht="42" customHeight="1" spans="1:6">
+      <c r="A101" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B101" s="50" t="s">
+        <v>206</v>
+      </c>
+      <c r="C101" s="49"/>
+      <c r="D101" s="49"/>
+      <c r="E101" s="49"/>
+      <c r="F101" s="49"/>
+    </row>
+    <row r="102" ht="42" customHeight="1" spans="1:6">
+      <c r="A102" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B102" s="52"/>
+      <c r="C102" s="49"/>
+      <c r="D102" s="49"/>
+      <c r="E102" s="49"/>
+      <c r="F102" s="49"/>
+    </row>
+    <row r="103" ht="42" customHeight="1" spans="1:6">
+      <c r="A103" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B103" s="52"/>
+      <c r="C103" s="49"/>
+      <c r="D103" s="49"/>
+      <c r="E103" s="49"/>
+      <c r="F103" s="49"/>
+    </row>
+    <row r="104" ht="42" customHeight="1" spans="1:6">
+      <c r="A104" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B104" s="51"/>
+      <c r="C104" s="49"/>
+      <c r="D104" s="49"/>
+      <c r="E104" s="49"/>
+      <c r="F104" s="49"/>
+    </row>
+    <row r="105" ht="215" customHeight="1" spans="1:6">
+      <c r="A105" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B105" s="49"/>
+      <c r="C105" s="49"/>
+      <c r="D105" s="49"/>
+      <c r="E105" s="49"/>
+      <c r="F105" s="49"/>
+    </row>
     <row r="106" ht="42" customHeight="1"/>
     <row r="107" ht="42" customHeight="1"/>
     <row r="108" ht="42" customHeight="1"/>
@@ -4703,7 +4883,7 @@
     <row r="200" ht="42" customHeight="1"/>
     <row r="201" ht="42" customHeight="1"/>
   </sheetData>
-  <mergeCells count="90">
+  <mergeCells count="93">
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B14:B15"/>
@@ -4725,6 +4905,9 @@
     <mergeCell ref="B85:B86"/>
     <mergeCell ref="B87:B89"/>
     <mergeCell ref="B90:B91"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="B101:B104"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="C27:C28"/>

--- a/work_time.xlsx
+++ b/work_time.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="211">
   <si>
     <t>6月第二周</t>
   </si>
@@ -629,13 +629,25 @@
     <t>编写顾客货品需求页</t>
   </si>
   <si>
+    <t>调整穿法添加页面</t>
+  </si>
+  <si>
     <t>梳理页面数据格式</t>
   </si>
   <si>
+    <t>调整request调用方式</t>
+  </si>
+  <si>
+    <t>增加页面权限控制</t>
+  </si>
+  <si>
     <t>编写可选择可输入文字的组件</t>
   </si>
   <si>
     <t>编写页面和逻辑代码</t>
+  </si>
+  <si>
+    <t>调整添加穿法页面</t>
   </si>
 </sst>
 </file>
@@ -672,6 +684,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -688,14 +721,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -716,31 +766,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -762,16 +798,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -780,22 +808,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -824,7 +836,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -836,19 +872,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -860,25 +896,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -890,13 +932,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -908,7 +944,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -920,13 +974,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -944,67 +1010,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1173,6 +1185,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1184,30 +1214,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1238,11 +1244,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1267,10 +1279,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1279,133 +1291,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1549,19 +1561,19 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2966,6 +2978,48 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1494790</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>2632075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="图片 32"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId33"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2673985" y="67056000"/>
+          <a:ext cx="1485265" cy="2517775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3229,8 +3283,8 @@
   <sheetPr/>
   <dimension ref="A1:G201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="B105" sqref="B105"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="D103" sqref="D103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -4682,109 +4736,119 @@
       <c r="A96" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B96" s="48" t="s">
+      <c r="B96" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="C96" s="49"/>
-      <c r="D96" s="49"/>
-      <c r="E96" s="49"/>
-      <c r="F96" s="49"/>
+      <c r="C96" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D96" s="48"/>
+      <c r="E96" s="48"/>
+      <c r="F96" s="48"/>
     </row>
     <row r="97" ht="42" customHeight="1" spans="1:6">
       <c r="A97" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B97" s="50" t="s">
-        <v>204</v>
-      </c>
-      <c r="C97" s="49"/>
-      <c r="D97" s="49"/>
-      <c r="E97" s="49"/>
-      <c r="F97" s="49"/>
+      <c r="B97" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="C97" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="D97" s="48"/>
+      <c r="E97" s="48"/>
+      <c r="F97" s="48"/>
     </row>
     <row r="98" ht="42" customHeight="1" spans="1:6">
       <c r="A98" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B98" s="51"/>
-      <c r="C98" s="49"/>
-      <c r="D98" s="49"/>
-      <c r="E98" s="49"/>
-      <c r="F98" s="49"/>
+      <c r="B98" s="38"/>
+      <c r="C98" s="49" t="s">
+        <v>207</v>
+      </c>
+      <c r="D98" s="48"/>
+      <c r="E98" s="48"/>
+      <c r="F98" s="48"/>
     </row>
     <row r="99" ht="42" customHeight="1" spans="1:6">
       <c r="A99" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B99" s="50" t="s">
-        <v>205</v>
-      </c>
-      <c r="C99" s="49"/>
-      <c r="D99" s="49"/>
-      <c r="E99" s="49"/>
-      <c r="F99" s="49"/>
+      <c r="B99" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="C99" s="50"/>
+      <c r="D99" s="48"/>
+      <c r="E99" s="48"/>
+      <c r="F99" s="48"/>
     </row>
     <row r="100" ht="42" customHeight="1" spans="1:6">
       <c r="A100" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B100" s="51"/>
-      <c r="C100" s="49"/>
-      <c r="D100" s="49"/>
-      <c r="E100" s="49"/>
-      <c r="F100" s="49"/>
+      <c r="B100" s="38"/>
+      <c r="C100" s="51"/>
+      <c r="D100" s="48"/>
+      <c r="E100" s="48"/>
+      <c r="F100" s="48"/>
     </row>
     <row r="101" ht="42" customHeight="1" spans="1:6">
       <c r="A101" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B101" s="50" t="s">
-        <v>206</v>
-      </c>
-      <c r="C101" s="49"/>
-      <c r="D101" s="49"/>
-      <c r="E101" s="49"/>
-      <c r="F101" s="49"/>
+      <c r="B101" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="C101" s="49" t="s">
+        <v>210</v>
+      </c>
+      <c r="D101" s="48"/>
+      <c r="E101" s="48"/>
+      <c r="F101" s="48"/>
     </row>
     <row r="102" ht="42" customHeight="1" spans="1:6">
       <c r="A102" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B102" s="52"/>
-      <c r="C102" s="49"/>
-      <c r="D102" s="49"/>
-      <c r="E102" s="49"/>
-      <c r="F102" s="49"/>
+      <c r="B102" s="37"/>
+      <c r="C102" s="50"/>
+      <c r="D102" s="48"/>
+      <c r="E102" s="48"/>
+      <c r="F102" s="48"/>
     </row>
     <row r="103" ht="42" customHeight="1" spans="1:6">
       <c r="A103" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B103" s="52"/>
-      <c r="C103" s="49"/>
-      <c r="D103" s="49"/>
-      <c r="E103" s="49"/>
-      <c r="F103" s="49"/>
+      <c r="B103" s="37"/>
+      <c r="C103" s="51"/>
+      <c r="D103" s="48"/>
+      <c r="E103" s="48"/>
+      <c r="F103" s="48"/>
     </row>
     <row r="104" ht="42" customHeight="1" spans="1:6">
       <c r="A104" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B104" s="51"/>
-      <c r="C104" s="49"/>
-      <c r="D104" s="49"/>
-      <c r="E104" s="49"/>
-      <c r="F104" s="49"/>
+      <c r="B104" s="38"/>
+      <c r="C104" s="52" t="s">
+        <v>158</v>
+      </c>
+      <c r="D104" s="48"/>
+      <c r="E104" s="48"/>
+      <c r="F104" s="48"/>
     </row>
     <row r="105" ht="215" customHeight="1" spans="1:6">
       <c r="A105" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B105" s="49"/>
-      <c r="C105" s="49"/>
-      <c r="D105" s="49"/>
-      <c r="E105" s="49"/>
-      <c r="F105" s="49"/>
+      <c r="B105" s="48"/>
+      <c r="C105" s="48"/>
+      <c r="D105" s="48"/>
+      <c r="E105" s="48"/>
+      <c r="F105" s="48"/>
     </row>
     <row r="106" ht="42" customHeight="1"/>
     <row r="107" ht="42" customHeight="1"/>
@@ -4883,7 +4947,7 @@
     <row r="200" ht="42" customHeight="1"/>
     <row r="201" ht="42" customHeight="1"/>
   </sheetData>
-  <mergeCells count="93">
+  <mergeCells count="95">
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B14:B15"/>
@@ -4924,6 +4988,8 @@
     <mergeCell ref="C78:C79"/>
     <mergeCell ref="C85:C86"/>
     <mergeCell ref="C88:C91"/>
+    <mergeCell ref="C98:C100"/>
+    <mergeCell ref="C101:C103"/>
     <mergeCell ref="D26:D28"/>
     <mergeCell ref="D29:D30"/>
     <mergeCell ref="D39:D40"/>

--- a/work_time.xlsx
+++ b/work_time.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="215">
   <si>
     <t>6月第二周</t>
   </si>
@@ -632,22 +632,34 @@
     <t>调整穿法添加页面</t>
   </si>
   <si>
+    <t>封装路由函数</t>
+  </si>
+  <si>
     <t>梳理页面数据格式</t>
   </si>
   <si>
     <t>调整request调用方式</t>
   </si>
   <si>
+    <t>封装统一的路由函数</t>
+  </si>
+  <si>
     <t>增加页面权限控制</t>
   </si>
   <si>
     <t>编写可选择可输入文字的组件</t>
   </si>
   <si>
+    <t>调整可单选可多选组件</t>
+  </si>
+  <si>
     <t>编写页面和逻辑代码</t>
   </si>
   <si>
     <t>调整添加穿法页面</t>
+  </si>
+  <si>
+    <t>确定创建穿法数据格式</t>
   </si>
 </sst>
 </file>
@@ -655,10 +667,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -678,35 +690,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -714,38 +712,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -760,7 +727,60 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -783,39 +803,31 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -836,7 +848,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -848,79 +920,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -932,31 +932,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -974,7 +956,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -986,42 +1022,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1176,21 +1188,12 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1198,47 +1201,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1260,6 +1222,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1273,155 +1250,199 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1563,16 +1584,22 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3020,6 +3047,48 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>61595</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1547495</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>2604135</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="图片 33"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId34"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4292600" y="67065525"/>
+          <a:ext cx="1485900" cy="2480310"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3284,7 +3353,7 @@
   <dimension ref="A1:G201"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="D103" sqref="D103"/>
+      <selection activeCell="E105" sqref="E105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -4742,7 +4811,9 @@
       <c r="C96" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="D96" s="48"/>
+      <c r="D96" s="5" t="s">
+        <v>205</v>
+      </c>
       <c r="E96" s="48"/>
       <c r="F96" s="48"/>
     </row>
@@ -4751,13 +4822,15 @@
         <v>7</v>
       </c>
       <c r="B97" s="34" t="s">
-        <v>205</v>
-      </c>
-      <c r="C97" s="32" t="s">
         <v>206</v>
       </c>
-      <c r="D97" s="48"/>
-      <c r="E97" s="48"/>
+      <c r="C97" s="43" t="s">
+        <v>207</v>
+      </c>
+      <c r="D97" s="49" t="s">
+        <v>208</v>
+      </c>
+      <c r="E97" s="50"/>
       <c r="F97" s="48"/>
     </row>
     <row r="98" ht="42" customHeight="1" spans="1:6">
@@ -4765,11 +4838,11 @@
         <v>13</v>
       </c>
       <c r="B98" s="38"/>
-      <c r="C98" s="49" t="s">
-        <v>207</v>
-      </c>
-      <c r="D98" s="48"/>
-      <c r="E98" s="48"/>
+      <c r="C98" s="46" t="s">
+        <v>209</v>
+      </c>
+      <c r="D98" s="51"/>
+      <c r="E98" s="50"/>
       <c r="F98" s="48"/>
     </row>
     <row r="99" ht="42" customHeight="1" spans="1:6">
@@ -4777,11 +4850,11 @@
         <v>19</v>
       </c>
       <c r="B99" s="34" t="s">
-        <v>208</v>
-      </c>
-      <c r="C99" s="50"/>
-      <c r="D99" s="48"/>
-      <c r="E99" s="48"/>
+        <v>210</v>
+      </c>
+      <c r="C99" s="52"/>
+      <c r="D99" s="51"/>
+      <c r="E99" s="50"/>
       <c r="F99" s="48"/>
     </row>
     <row r="100" ht="42" customHeight="1" spans="1:6">
@@ -4789,9 +4862,11 @@
         <v>23</v>
       </c>
       <c r="B100" s="38"/>
-      <c r="C100" s="51"/>
-      <c r="D100" s="48"/>
-      <c r="E100" s="48"/>
+      <c r="C100" s="47"/>
+      <c r="D100" s="53" t="s">
+        <v>211</v>
+      </c>
+      <c r="E100" s="50"/>
       <c r="F100" s="48"/>
     </row>
     <row r="101" ht="42" customHeight="1" spans="1:6">
@@ -4799,13 +4874,13 @@
         <v>28</v>
       </c>
       <c r="B101" s="34" t="s">
-        <v>209</v>
-      </c>
-      <c r="C101" s="49" t="s">
-        <v>210</v>
-      </c>
-      <c r="D101" s="48"/>
-      <c r="E101" s="48"/>
+        <v>212</v>
+      </c>
+      <c r="C101" s="46" t="s">
+        <v>213</v>
+      </c>
+      <c r="D101" s="53"/>
+      <c r="E101" s="50"/>
       <c r="F101" s="48"/>
     </row>
     <row r="102" ht="42" customHeight="1" spans="1:6">
@@ -4813,9 +4888,11 @@
         <v>32</v>
       </c>
       <c r="B102" s="37"/>
-      <c r="C102" s="50"/>
-      <c r="D102" s="48"/>
-      <c r="E102" s="48"/>
+      <c r="C102" s="52"/>
+      <c r="D102" s="53" t="s">
+        <v>214</v>
+      </c>
+      <c r="E102" s="50"/>
       <c r="F102" s="48"/>
     </row>
     <row r="103" ht="42" customHeight="1" spans="1:6">
@@ -4823,9 +4900,9 @@
         <v>37</v>
       </c>
       <c r="B103" s="37"/>
-      <c r="C103" s="51"/>
-      <c r="D103" s="48"/>
-      <c r="E103" s="48"/>
+      <c r="C103" s="47"/>
+      <c r="D103" s="53"/>
+      <c r="E103" s="50"/>
       <c r="F103" s="48"/>
     </row>
     <row r="104" ht="42" customHeight="1" spans="1:6">
@@ -4833,11 +4910,13 @@
         <v>40</v>
       </c>
       <c r="B104" s="38"/>
-      <c r="C104" s="52" t="s">
+      <c r="C104" s="54" t="s">
         <v>158</v>
       </c>
-      <c r="D104" s="48"/>
-      <c r="E104" s="48"/>
+      <c r="D104" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="E104" s="50"/>
       <c r="F104" s="48"/>
     </row>
     <row r="105" ht="215" customHeight="1" spans="1:6">
@@ -4947,7 +5026,7 @@
     <row r="200" ht="42" customHeight="1"/>
     <row r="201" ht="42" customHeight="1"/>
   </sheetData>
-  <mergeCells count="95">
+  <mergeCells count="98">
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B14:B15"/>
@@ -5007,6 +5086,9 @@
     <mergeCell ref="D79:D80"/>
     <mergeCell ref="D87:D90"/>
     <mergeCell ref="D91:D92"/>
+    <mergeCell ref="D97:D99"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="D102:D103"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="E14:E16"/>

--- a/work_time.xlsx
+++ b/work_time.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="216">
   <si>
     <t>6月第二周</t>
   </si>
@@ -660,6 +660,9 @@
   </si>
   <si>
     <t>确定创建穿法数据格式</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
   </si>
 </sst>
 </file>
@@ -690,6 +693,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -697,7 +707,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -712,14 +737,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -733,6 +751,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
@@ -742,7 +791,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -756,14 +805,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
@@ -772,13 +813,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -801,37 +835,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -848,7 +851,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -860,37 +881,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -908,25 +905,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -950,7 +995,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -962,73 +1019,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1197,10 +1200,69 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1222,21 +1284,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1250,60 +1297,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1312,137 +1315,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1590,13 +1593,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4841,7 +4838,7 @@
       <c r="C98" s="46" t="s">
         <v>209</v>
       </c>
-      <c r="D98" s="51"/>
+      <c r="D98" s="49"/>
       <c r="E98" s="50"/>
       <c r="F98" s="48"/>
     </row>
@@ -4852,8 +4849,8 @@
       <c r="B99" s="34" t="s">
         <v>210</v>
       </c>
-      <c r="C99" s="52"/>
-      <c r="D99" s="51"/>
+      <c r="C99" s="51"/>
+      <c r="D99" s="49"/>
       <c r="E99" s="50"/>
       <c r="F99" s="48"/>
     </row>
@@ -4863,7 +4860,7 @@
       </c>
       <c r="B100" s="38"/>
       <c r="C100" s="47"/>
-      <c r="D100" s="53" t="s">
+      <c r="D100" s="32" t="s">
         <v>211</v>
       </c>
       <c r="E100" s="50"/>
@@ -4879,7 +4876,7 @@
       <c r="C101" s="46" t="s">
         <v>213</v>
       </c>
-      <c r="D101" s="53"/>
+      <c r="D101" s="32"/>
       <c r="E101" s="50"/>
       <c r="F101" s="48"/>
     </row>
@@ -4888,8 +4885,8 @@
         <v>32</v>
       </c>
       <c r="B102" s="37"/>
-      <c r="C102" s="52"/>
-      <c r="D102" s="53" t="s">
+      <c r="C102" s="51"/>
+      <c r="D102" s="32" t="s">
         <v>214</v>
       </c>
       <c r="E102" s="50"/>
@@ -4901,7 +4898,7 @@
       </c>
       <c r="B103" s="37"/>
       <c r="C103" s="47"/>
-      <c r="D103" s="53"/>
+      <c r="D103" s="32"/>
       <c r="E103" s="50"/>
       <c r="F103" s="48"/>
     </row>
@@ -4910,13 +4907,15 @@
         <v>40</v>
       </c>
       <c r="B104" s="38"/>
-      <c r="C104" s="54" t="s">
+      <c r="C104" s="52" t="s">
         <v>158</v>
       </c>
       <c r="D104" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="E104" s="50"/>
+      <c r="E104" s="50" t="s">
+        <v>215</v>
+      </c>
       <c r="F104" s="48"/>
     </row>
     <row r="105" ht="215" customHeight="1" spans="1:6">

--- a/work_time.xlsx
+++ b/work_time.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="218">
   <si>
     <t>6月第二周</t>
   </si>
@@ -635,6 +635,9 @@
     <t>封装路由函数</t>
   </si>
   <si>
+    <t>修改路由封装函数</t>
+  </si>
+  <si>
     <t>梳理页面数据格式</t>
   </si>
   <si>
@@ -644,6 +647,9 @@
     <t>封装统一的路由函数</t>
   </si>
   <si>
+    <t>重构路由封装函数, 分离路由路径与文件路径</t>
+  </si>
+  <si>
     <t>增加页面权限控制</t>
   </si>
   <si>
@@ -659,10 +665,10 @@
     <t>调整添加穿法页面</t>
   </si>
   <si>
+    <t>重构页面权限控制, 在路由函数内完成权限校验</t>
+  </si>
+  <si>
     <t>确定创建穿法数据格式</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    </t>
   </si>
 </sst>
 </file>
@@ -693,6 +699,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -700,7 +729,76 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -721,64 +819,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -790,49 +835,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -851,43 +857,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -899,7 +881,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -923,7 +911,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -935,73 +971,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1013,13 +1001,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1032,6 +1026,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1200,16 +1206,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1239,11 +1245,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1251,8 +1263,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1268,32 +1280,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1303,10 +1309,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1315,137 +1321,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1590,13 +1596,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3086,6 +3098,48 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>194945</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1292225</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>2613660</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="图片 34"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId35"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5992495" y="67065525"/>
+          <a:ext cx="1097280" cy="2489835"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3349,8 +3403,8 @@
   <sheetPr/>
   <dimension ref="A1:G201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="E105" sqref="E105"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="F105" sqref="F105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -4811,7 +4865,9 @@
       <c r="D96" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="E96" s="48"/>
+      <c r="E96" s="5" t="s">
+        <v>206</v>
+      </c>
       <c r="F96" s="48"/>
     </row>
     <row r="97" ht="42" customHeight="1" spans="1:6">
@@ -4819,15 +4875,17 @@
         <v>7</v>
       </c>
       <c r="B97" s="34" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C97" s="43" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D97" s="49" t="s">
-        <v>208</v>
-      </c>
-      <c r="E97" s="50"/>
+        <v>209</v>
+      </c>
+      <c r="E97" s="33" t="s">
+        <v>210</v>
+      </c>
       <c r="F97" s="48"/>
     </row>
     <row r="98" ht="42" customHeight="1" spans="1:6">
@@ -4836,10 +4894,10 @@
       </c>
       <c r="B98" s="38"/>
       <c r="C98" s="46" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D98" s="49"/>
-      <c r="E98" s="50"/>
+      <c r="E98" s="36"/>
       <c r="F98" s="48"/>
     </row>
     <row r="99" ht="42" customHeight="1" spans="1:6">
@@ -4847,11 +4905,11 @@
         <v>19</v>
       </c>
       <c r="B99" s="34" t="s">
-        <v>210</v>
-      </c>
-      <c r="C99" s="51"/>
+        <v>212</v>
+      </c>
+      <c r="C99" s="50"/>
       <c r="D99" s="49"/>
-      <c r="E99" s="50"/>
+      <c r="E99" s="36"/>
       <c r="F99" s="48"/>
     </row>
     <row r="100" ht="42" customHeight="1" spans="1:6">
@@ -4861,9 +4919,9 @@
       <c r="B100" s="38"/>
       <c r="C100" s="47"/>
       <c r="D100" s="32" t="s">
-        <v>211</v>
-      </c>
-      <c r="E100" s="50"/>
+        <v>213</v>
+      </c>
+      <c r="E100" s="36"/>
       <c r="F100" s="48"/>
     </row>
     <row r="101" ht="42" customHeight="1" spans="1:6">
@@ -4871,13 +4929,15 @@
         <v>28</v>
       </c>
       <c r="B101" s="34" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C101" s="46" t="s">
-        <v>213</v>
-      </c>
-      <c r="D101" s="32"/>
-      <c r="E101" s="50"/>
+        <v>215</v>
+      </c>
+      <c r="D101" s="43"/>
+      <c r="E101" s="32" t="s">
+        <v>216</v>
+      </c>
       <c r="F101" s="48"/>
     </row>
     <row r="102" ht="42" customHeight="1" spans="1:6">
@@ -4885,11 +4945,11 @@
         <v>32</v>
       </c>
       <c r="B102" s="37"/>
-      <c r="C102" s="51"/>
-      <c r="D102" s="32" t="s">
-        <v>214</v>
-      </c>
-      <c r="E102" s="50"/>
+      <c r="C102" s="50"/>
+      <c r="D102" s="43" t="s">
+        <v>217</v>
+      </c>
+      <c r="E102" s="32"/>
       <c r="F102" s="48"/>
     </row>
     <row r="103" ht="42" customHeight="1" spans="1:6">
@@ -4898,9 +4958,9 @@
       </c>
       <c r="B103" s="37"/>
       <c r="C103" s="47"/>
-      <c r="D103" s="32"/>
-      <c r="E103" s="50"/>
-      <c r="F103" s="48"/>
+      <c r="D103" s="43"/>
+      <c r="E103" s="32"/>
+      <c r="F103" s="51"/>
     </row>
     <row r="104" ht="42" customHeight="1" spans="1:6">
       <c r="A104" s="6" t="s">
@@ -4910,13 +4970,13 @@
       <c r="C104" s="52" t="s">
         <v>158</v>
       </c>
-      <c r="D104" s="49" t="s">
+      <c r="D104" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="E104" s="50" t="s">
-        <v>215</v>
-      </c>
-      <c r="F104" s="48"/>
+      <c r="E104" s="54" t="s">
+        <v>158</v>
+      </c>
+      <c r="F104" s="51"/>
     </row>
     <row r="105" ht="215" customHeight="1" spans="1:6">
       <c r="A105" s="10" t="s">
@@ -5025,7 +5085,7 @@
     <row r="200" ht="42" customHeight="1"/>
     <row r="201" ht="42" customHeight="1"/>
   </sheetData>
-  <mergeCells count="98">
+  <mergeCells count="100">
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B14:B15"/>
@@ -5106,6 +5166,8 @@
     <mergeCell ref="E79:E80"/>
     <mergeCell ref="E86:E87"/>
     <mergeCell ref="E89:E91"/>
+    <mergeCell ref="E97:E100"/>
+    <mergeCell ref="E101:E103"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="F8:F9"/>

--- a/work_time.xlsx
+++ b/work_time.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23295" windowHeight="13140" firstSheet="1"/>
+    <workbookView windowWidth="16425" windowHeight="12390" firstSheet="1"/>
   </bookViews>
   <sheets>
     <sheet name="6月" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="224">
   <si>
     <t>6月第二周</t>
   </si>
@@ -638,6 +638,9 @@
     <t>修改路由封装函数</t>
   </si>
   <si>
+    <t>完善后台管理系统架构</t>
+  </si>
+  <si>
     <t>梳理页面数据格式</t>
   </si>
   <si>
@@ -650,12 +653,18 @@
     <t>重构路由封装函数, 分离路由路径与文件路径</t>
   </si>
   <si>
+    <t>重构需求采集小程序登录验证</t>
+  </si>
+  <si>
     <t>增加页面权限控制</t>
   </si>
   <si>
     <t>编写可选择可输入文字的组件</t>
   </si>
   <si>
+    <t>导入富文本编辑器tinymce, 以及行高插件</t>
+  </si>
+  <si>
     <t>调整可单选可多选组件</t>
   </si>
   <si>
@@ -668,7 +677,16 @@
     <t>重构页面权限控制, 在路由函数内完成权限校验</t>
   </si>
   <si>
+    <t>导入lodash</t>
+  </si>
+  <si>
     <t>确定创建穿法数据格式</t>
+  </si>
+  <si>
+    <t>配置webpack路径别名</t>
+  </si>
+  <si>
+    <t>配置scss全局变量</t>
   </si>
 </sst>
 </file>
@@ -705,22 +723,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -728,31 +730,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -767,38 +755,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -813,7 +770,52 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -824,6 +826,22 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -857,19 +875,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -887,55 +929,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -947,19 +953,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -977,19 +977,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1001,19 +1001,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1025,7 +1025,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1042,7 +1060,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1197,6 +1215,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -1206,25 +1233,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1241,6 +1255,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1271,10 +1294,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1295,11 +1316,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1309,10 +1336,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1321,137 +1348,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1599,17 +1626,20 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -3140,6 +3170,48 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>109220</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>523875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1431925</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>143510</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="图片 35"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId36"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7473315" y="66932175"/>
+          <a:ext cx="1322705" cy="2883535"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3403,8 +3475,8 @@
   <sheetPr/>
   <dimension ref="A1:G201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="F105" sqref="F105"/>
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="F103" sqref="F103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -4868,25 +4940,29 @@
       <c r="E96" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="F96" s="48"/>
+      <c r="F96" s="48" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="97" ht="42" customHeight="1" spans="1:6">
       <c r="A97" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B97" s="34" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C97" s="43" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D97" s="49" t="s">
-        <v>209</v>
-      </c>
-      <c r="E97" s="33" t="s">
         <v>210</v>
       </c>
-      <c r="F97" s="48"/>
+      <c r="E97" s="50" t="s">
+        <v>211</v>
+      </c>
+      <c r="F97" s="51" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="98" ht="42" customHeight="1" spans="1:6">
       <c r="A98" s="6" t="s">
@@ -4894,23 +4970,25 @@
       </c>
       <c r="B98" s="38"/>
       <c r="C98" s="46" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D98" s="49"/>
-      <c r="E98" s="36"/>
-      <c r="F98" s="48"/>
+      <c r="E98" s="52"/>
+      <c r="F98" s="51"/>
     </row>
     <row r="99" ht="42" customHeight="1" spans="1:6">
       <c r="A99" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B99" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="C99" s="50"/>
+        <v>214</v>
+      </c>
+      <c r="C99" s="53"/>
       <c r="D99" s="49"/>
-      <c r="E99" s="36"/>
-      <c r="F99" s="48"/>
+      <c r="E99" s="52"/>
+      <c r="F99" s="51" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="100" ht="42" customHeight="1" spans="1:6">
       <c r="A100" s="6" t="s">
@@ -4919,38 +4997,42 @@
       <c r="B100" s="38"/>
       <c r="C100" s="47"/>
       <c r="D100" s="32" t="s">
-        <v>213</v>
-      </c>
-      <c r="E100" s="36"/>
-      <c r="F100" s="48"/>
+        <v>216</v>
+      </c>
+      <c r="E100" s="52"/>
+      <c r="F100" s="51"/>
     </row>
     <row r="101" ht="42" customHeight="1" spans="1:6">
       <c r="A101" s="6" t="s">
         <v>28</v>
       </c>
       <c r="B101" s="34" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C101" s="46" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D101" s="43"/>
-      <c r="E101" s="32" t="s">
-        <v>216</v>
-      </c>
-      <c r="F101" s="48"/>
+      <c r="E101" s="43" t="s">
+        <v>219</v>
+      </c>
+      <c r="F101" s="32" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="102" ht="42" customHeight="1" spans="1:6">
       <c r="A102" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B102" s="37"/>
-      <c r="C102" s="50"/>
+      <c r="C102" s="53"/>
       <c r="D102" s="43" t="s">
-        <v>217</v>
-      </c>
-      <c r="E102" s="32"/>
-      <c r="F102" s="48"/>
+        <v>221</v>
+      </c>
+      <c r="E102" s="43"/>
+      <c r="F102" s="32" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="103" ht="42" customHeight="1" spans="1:6">
       <c r="A103" s="6" t="s">
@@ -4959,24 +5041,28 @@
       <c r="B103" s="37"/>
       <c r="C103" s="47"/>
       <c r="D103" s="43"/>
-      <c r="E103" s="32"/>
-      <c r="F103" s="51"/>
+      <c r="E103" s="43"/>
+      <c r="F103" s="32" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="104" ht="42" customHeight="1" spans="1:6">
       <c r="A104" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B104" s="38"/>
-      <c r="C104" s="52" t="s">
+      <c r="C104" s="54" t="s">
         <v>158</v>
       </c>
-      <c r="D104" s="53" t="s">
+      <c r="D104" s="55" t="s">
         <v>43</v>
       </c>
       <c r="E104" s="54" t="s">
         <v>158</v>
       </c>
-      <c r="F104" s="51"/>
+      <c r="F104" s="49" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="105" ht="215" customHeight="1" spans="1:6">
       <c r="A105" s="10" t="s">
@@ -5085,7 +5171,7 @@
     <row r="200" ht="42" customHeight="1"/>
     <row r="201" ht="42" customHeight="1"/>
   </sheetData>
-  <mergeCells count="100">
+  <mergeCells count="102">
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B14:B15"/>
@@ -5182,6 +5268,8 @@
     <mergeCell ref="F85:F86"/>
     <mergeCell ref="F88:F90"/>
     <mergeCell ref="F91:F92"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="F99:F100"/>
     <mergeCell ref="G15:G17"/>
     <mergeCell ref="G37:G38"/>
     <mergeCell ref="G39:G41"/>

--- a/work_time.xlsx
+++ b/work_time.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="229">
   <si>
     <t>6月第二周</t>
   </si>
@@ -687,6 +687,21 @@
   </si>
   <si>
     <t>配置scss全局变量</t>
+  </si>
+  <si>
+    <t>8月第2周</t>
+  </si>
+  <si>
+    <t>编写首页管理模块</t>
+  </si>
+  <si>
+    <t>商城后台各模块划分</t>
+  </si>
+  <si>
+    <t>整理首页管理所需数据</t>
+  </si>
+  <si>
+    <t>增加输入提示功能</t>
   </si>
 </sst>
 </file>
@@ -695,8 +710,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -731,8 +746,90 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -754,68 +851,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -836,29 +874,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -875,13 +890,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -893,25 +938,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -929,13 +968,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -947,61 +1046,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1013,49 +1064,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1235,26 +1250,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1283,24 +1296,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1317,16 +1312,36 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1336,10 +1351,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1348,137 +1363,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1626,20 +1641,35 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -3212,6 +3242,48 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>23495</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1574800</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>1686560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="图片 42"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId37"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1030605" y="75682475"/>
+          <a:ext cx="1551305" cy="1543685"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3475,8 +3547,8 @@
   <sheetPr/>
   <dimension ref="A1:G201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="F103" sqref="F103"/>
+    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="C117" sqref="C117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -4960,7 +5032,7 @@
       <c r="E97" s="50" t="s">
         <v>211</v>
       </c>
-      <c r="F97" s="51" t="s">
+      <c r="F97" s="32" t="s">
         <v>212</v>
       </c>
     </row>
@@ -4973,8 +5045,8 @@
         <v>213</v>
       </c>
       <c r="D98" s="49"/>
-      <c r="E98" s="52"/>
-      <c r="F98" s="51"/>
+      <c r="E98" s="51"/>
+      <c r="F98" s="32"/>
     </row>
     <row r="99" ht="42" customHeight="1" spans="1:6">
       <c r="A99" s="6" t="s">
@@ -4983,10 +5055,10 @@
       <c r="B99" s="34" t="s">
         <v>214</v>
       </c>
-      <c r="C99" s="53"/>
+      <c r="C99" s="52"/>
       <c r="D99" s="49"/>
-      <c r="E99" s="52"/>
-      <c r="F99" s="51" t="s">
+      <c r="E99" s="51"/>
+      <c r="F99" s="32" t="s">
         <v>215</v>
       </c>
     </row>
@@ -4999,8 +5071,8 @@
       <c r="D100" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="E100" s="52"/>
-      <c r="F100" s="51"/>
+      <c r="E100" s="51"/>
+      <c r="F100" s="32"/>
     </row>
     <row r="101" ht="42" customHeight="1" spans="1:6">
       <c r="A101" s="6" t="s">
@@ -5025,7 +5097,7 @@
         <v>32</v>
       </c>
       <c r="B102" s="37"/>
-      <c r="C102" s="53"/>
+      <c r="C102" s="52"/>
       <c r="D102" s="43" t="s">
         <v>221</v>
       </c>
@@ -5051,13 +5123,13 @@
         <v>40</v>
       </c>
       <c r="B104" s="38"/>
-      <c r="C104" s="54" t="s">
+      <c r="C104" s="53" t="s">
         <v>158</v>
       </c>
-      <c r="D104" s="55" t="s">
+      <c r="D104" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="E104" s="54" t="s">
+      <c r="E104" s="53" t="s">
         <v>158</v>
       </c>
       <c r="F104" s="49" t="s">
@@ -5075,17 +5147,138 @@
       <c r="F105" s="48"/>
     </row>
     <row r="106" ht="42" customHeight="1"/>
-    <row r="107" ht="42" customHeight="1"/>
-    <row r="108" ht="42" customHeight="1"/>
-    <row r="109" ht="42" customHeight="1"/>
-    <row r="110" ht="42" customHeight="1"/>
-    <row r="111" ht="42" customHeight="1"/>
-    <row r="112" ht="42" customHeight="1"/>
-    <row r="113" ht="42" customHeight="1"/>
-    <row r="114" ht="42" customHeight="1"/>
-    <row r="115" ht="42" customHeight="1"/>
-    <row r="116" ht="42" customHeight="1"/>
-    <row r="117" ht="42" customHeight="1"/>
+    <row r="107" ht="42" customHeight="1" spans="1:6">
+      <c r="A107" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="B107" s="25">
+        <v>44053</v>
+      </c>
+      <c r="C107" s="25">
+        <v>44054</v>
+      </c>
+      <c r="D107" s="25">
+        <v>44055</v>
+      </c>
+      <c r="E107" s="25">
+        <v>44056</v>
+      </c>
+      <c r="F107" s="25">
+        <v>44057</v>
+      </c>
+    </row>
+    <row r="108" ht="42" customHeight="1" spans="1:6">
+      <c r="A108" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5"/>
+      <c r="F108" s="48"/>
+    </row>
+    <row r="109" ht="42" customHeight="1" spans="1:6">
+      <c r="A109" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B109" s="55" t="s">
+        <v>226</v>
+      </c>
+      <c r="C109" s="56"/>
+      <c r="D109" s="56"/>
+      <c r="E109" s="56"/>
+      <c r="F109" s="56"/>
+    </row>
+    <row r="110" ht="42" customHeight="1" spans="1:6">
+      <c r="A110" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B110" s="57"/>
+      <c r="C110" s="56"/>
+      <c r="D110" s="56"/>
+      <c r="E110" s="56"/>
+      <c r="F110" s="56"/>
+    </row>
+    <row r="111" ht="42" customHeight="1" spans="1:6">
+      <c r="A111" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B111" s="58" t="s">
+        <v>227</v>
+      </c>
+      <c r="C111" s="56"/>
+      <c r="D111" s="56"/>
+      <c r="E111" s="56"/>
+      <c r="F111" s="56"/>
+    </row>
+    <row r="112" ht="42" customHeight="1" spans="1:6">
+      <c r="A112" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B112" s="59"/>
+      <c r="C112" s="56"/>
+      <c r="D112" s="56"/>
+      <c r="E112" s="56"/>
+      <c r="F112" s="56"/>
+    </row>
+    <row r="113" ht="42" customHeight="1" spans="1:6">
+      <c r="A113" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B113" s="55" t="s">
+        <v>225</v>
+      </c>
+      <c r="C113" s="56"/>
+      <c r="D113" s="56"/>
+      <c r="E113" s="56"/>
+      <c r="F113" s="56"/>
+    </row>
+    <row r="114" ht="42" customHeight="1" spans="1:6">
+      <c r="A114" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B114" s="57"/>
+      <c r="C114" s="56"/>
+      <c r="D114" s="56"/>
+      <c r="E114" s="56"/>
+      <c r="F114" s="56"/>
+    </row>
+    <row r="115" ht="42" customHeight="1" spans="1:6">
+      <c r="A115" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B115" s="60" t="s">
+        <v>228</v>
+      </c>
+      <c r="C115" s="56"/>
+      <c r="D115" s="56"/>
+      <c r="E115" s="56"/>
+      <c r="F115" s="56"/>
+    </row>
+    <row r="116" ht="42" customHeight="1" spans="1:6">
+      <c r="A116" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B116" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="C116" s="56"/>
+      <c r="D116" s="56"/>
+      <c r="E116" s="56"/>
+      <c r="F116" s="56"/>
+    </row>
+    <row r="117" ht="157" customHeight="1" spans="1:6">
+      <c r="A117" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B117" s="56"/>
+      <c r="C117" s="56"/>
+      <c r="D117" s="56"/>
+      <c r="E117" s="56"/>
+      <c r="F117" s="56"/>
+    </row>
     <row r="118" ht="42" customHeight="1"/>
     <row r="119" ht="42" customHeight="1"/>
     <row r="120" ht="42" customHeight="1"/>
@@ -5171,7 +5364,7 @@
     <row r="200" ht="42" customHeight="1"/>
     <row r="201" ht="42" customHeight="1"/>
   </sheetData>
-  <mergeCells count="102">
+  <mergeCells count="105">
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B14:B15"/>
@@ -5196,6 +5389,9 @@
     <mergeCell ref="B97:B98"/>
     <mergeCell ref="B99:B100"/>
     <mergeCell ref="B101:B104"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="B113:B114"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="C27:C28"/>

--- a/work_time.xlsx
+++ b/work_time.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="234">
   <si>
     <t>6月第二周</t>
   </si>
@@ -695,10 +695,25 @@
     <t>编写首页管理模块</t>
   </si>
   <si>
+    <t>完善图文与图文分类管理</t>
+  </si>
+  <si>
     <t>商城后台各模块划分</t>
   </si>
   <si>
+    <t>梳理图文管理, 图文分类管理的字段变化</t>
+  </si>
+  <si>
+    <t>调整图文管理, 图文分类管理</t>
+  </si>
+  <si>
     <t>整理首页管理所需数据</t>
+  </si>
+  <si>
+    <t>调整富文本编辑器pc端移动端样式不一致问题</t>
+  </si>
+  <si>
+    <t>解决富文本编辑器移动端图片尺寸过大问题</t>
   </si>
   <si>
     <t>增加输入提示功能</t>
@@ -709,10 +724,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -732,6 +747,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -739,7 +792,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -754,22 +815,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -784,52 +830,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -851,6 +861,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -859,17 +876,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -890,25 +905,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -920,25 +917,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -956,7 +941,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -974,91 +1067,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1070,7 +1085,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1250,8 +1265,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1276,22 +1293,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1328,11 +1330,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1351,10 +1366,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1363,133 +1378,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1653,22 +1668,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3284,6 +3299,48 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1539240</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>1821815</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="图片 36"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId38"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2740660" y="75653900"/>
+          <a:ext cx="1463040" cy="1707515"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3548,7 +3605,7 @@
   <dimension ref="A1:G201"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="C117" sqref="C117"/>
+      <selection activeCell="D117" sqref="D117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -5174,7 +5231,9 @@
       <c r="B108" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="C108" s="5"/>
+      <c r="C108" s="5" t="s">
+        <v>226</v>
+      </c>
       <c r="D108" s="5"/>
       <c r="E108" s="5"/>
       <c r="F108" s="48"/>
@@ -5183,79 +5242,87 @@
       <c r="A109" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B109" s="55" t="s">
-        <v>226</v>
-      </c>
-      <c r="C109" s="56"/>
-      <c r="D109" s="56"/>
-      <c r="E109" s="56"/>
-      <c r="F109" s="56"/>
+      <c r="B109" s="34" t="s">
+        <v>227</v>
+      </c>
+      <c r="C109" s="32" t="s">
+        <v>228</v>
+      </c>
+      <c r="D109" s="55"/>
+      <c r="E109" s="55"/>
+      <c r="F109" s="55"/>
     </row>
     <row r="110" ht="42" customHeight="1" spans="1:6">
       <c r="A110" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B110" s="57"/>
-      <c r="C110" s="56"/>
-      <c r="D110" s="56"/>
-      <c r="E110" s="56"/>
-      <c r="F110" s="56"/>
+      <c r="B110" s="38"/>
+      <c r="C110" s="56" t="s">
+        <v>229</v>
+      </c>
+      <c r="D110" s="55"/>
+      <c r="E110" s="55"/>
+      <c r="F110" s="55"/>
     </row>
     <row r="111" ht="42" customHeight="1" spans="1:6">
       <c r="A111" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B111" s="58" t="s">
-        <v>227</v>
-      </c>
-      <c r="C111" s="56"/>
-      <c r="D111" s="56"/>
-      <c r="E111" s="56"/>
-      <c r="F111" s="56"/>
+      <c r="B111" s="57" t="s">
+        <v>230</v>
+      </c>
+      <c r="C111" s="58"/>
+      <c r="D111" s="55"/>
+      <c r="E111" s="55"/>
+      <c r="F111" s="55"/>
     </row>
     <row r="112" ht="42" customHeight="1" spans="1:6">
       <c r="A112" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B112" s="59"/>
-      <c r="C112" s="56"/>
-      <c r="D112" s="56"/>
-      <c r="E112" s="56"/>
-      <c r="F112" s="56"/>
+      <c r="C112" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="D112" s="55"/>
+      <c r="E112" s="55"/>
+      <c r="F112" s="55"/>
     </row>
     <row r="113" ht="42" customHeight="1" spans="1:6">
       <c r="A113" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B113" s="55" t="s">
+      <c r="B113" s="34" t="s">
         <v>225</v>
       </c>
-      <c r="C113" s="56"/>
-      <c r="D113" s="56"/>
-      <c r="E113" s="56"/>
-      <c r="F113" s="56"/>
+      <c r="C113" s="56" t="s">
+        <v>232</v>
+      </c>
+      <c r="D113" s="55"/>
+      <c r="E113" s="55"/>
+      <c r="F113" s="55"/>
     </row>
     <row r="114" ht="42" customHeight="1" spans="1:6">
       <c r="A114" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B114" s="57"/>
-      <c r="C114" s="56"/>
-      <c r="D114" s="56"/>
-      <c r="E114" s="56"/>
-      <c r="F114" s="56"/>
+      <c r="B114" s="38"/>
+      <c r="C114" s="60"/>
+      <c r="D114" s="55"/>
+      <c r="E114" s="55"/>
+      <c r="F114" s="55"/>
     </row>
     <row r="115" ht="42" customHeight="1" spans="1:6">
       <c r="A115" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B115" s="60" t="s">
-        <v>228</v>
-      </c>
-      <c r="C115" s="56"/>
-      <c r="D115" s="56"/>
-      <c r="E115" s="56"/>
-      <c r="F115" s="56"/>
+      <c r="B115" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="C115" s="58"/>
+      <c r="D115" s="55"/>
+      <c r="E115" s="55"/>
+      <c r="F115" s="55"/>
     </row>
     <row r="116" ht="42" customHeight="1" spans="1:6">
       <c r="A116" s="6" t="s">
@@ -5264,20 +5331,22 @@
       <c r="B116" s="53" t="s">
         <v>158</v>
       </c>
-      <c r="C116" s="56"/>
-      <c r="D116" s="56"/>
-      <c r="E116" s="56"/>
-      <c r="F116" s="56"/>
+      <c r="C116" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="D116" s="55"/>
+      <c r="E116" s="55"/>
+      <c r="F116" s="55"/>
     </row>
     <row r="117" ht="157" customHeight="1" spans="1:6">
       <c r="A117" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B117" s="56"/>
-      <c r="C117" s="56"/>
-      <c r="D117" s="56"/>
-      <c r="E117" s="56"/>
-      <c r="F117" s="56"/>
+      <c r="B117" s="55"/>
+      <c r="C117" s="55"/>
+      <c r="D117" s="55"/>
+      <c r="E117" s="55"/>
+      <c r="F117" s="55"/>
     </row>
     <row r="118" ht="42" customHeight="1"/>
     <row r="119" ht="42" customHeight="1"/>
@@ -5364,7 +5433,7 @@
     <row r="200" ht="42" customHeight="1"/>
     <row r="201" ht="42" customHeight="1"/>
   </sheetData>
-  <mergeCells count="105">
+  <mergeCells count="107">
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B14:B15"/>
@@ -5410,6 +5479,8 @@
     <mergeCell ref="C88:C91"/>
     <mergeCell ref="C98:C100"/>
     <mergeCell ref="C101:C103"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="C113:C115"/>
     <mergeCell ref="D26:D28"/>
     <mergeCell ref="D29:D30"/>
     <mergeCell ref="D39:D40"/>

--- a/work_time.xlsx
+++ b/work_time.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="239">
   <si>
     <t>6月第二周</t>
   </si>
@@ -698,22 +698,37 @@
     <t>完善图文与图文分类管理</t>
   </si>
   <si>
+    <t>完善图文管理</t>
+  </si>
+  <si>
     <t>商城后台各模块划分</t>
   </si>
   <si>
     <t>梳理图文管理, 图文分类管理的字段变化</t>
   </si>
   <si>
+    <t>配置tinymce ,增加字体选择和大小插件</t>
+  </si>
+  <si>
     <t>调整图文管理, 图文分类管理</t>
   </si>
   <si>
+    <t>测试并调整富文本编辑器pc和小程序端样式一致性</t>
+  </si>
+  <si>
     <t>整理首页管理所需数据</t>
   </si>
   <si>
     <t>调整富文本编辑器pc端移动端样式不一致问题</t>
   </si>
   <si>
+    <t>修改生成器模板,   增加表单输入提示</t>
+  </si>
+  <si>
     <t>解决富文本编辑器移动端图片尺寸过大问题</t>
+  </si>
+  <si>
+    <t xml:space="preserve">小程序商城导入router工具类, 编写路由文件并修改原有路由 </t>
   </si>
   <si>
     <t>增加输入提示功能</t>
@@ -724,10 +739,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -747,7 +762,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -756,6 +815,53 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -778,21 +884,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -806,85 +898,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -905,13 +920,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -929,31 +1058,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -965,127 +1100,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1263,6 +1278,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1270,6 +1300,30 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1289,15 +1343,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1313,41 +1358,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1366,10 +1381,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1378,133 +1393,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3341,6 +3356,48 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>80645</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1562100</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>1835785</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="图片 37"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId39"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4311650" y="75711050"/>
+          <a:ext cx="1481455" cy="1664335"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3605,7 +3662,7 @@
   <dimension ref="A1:G201"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="D117" sqref="D117"/>
+      <selection activeCell="E117" sqref="E117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -5234,7 +5291,9 @@
       <c r="C108" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="D108" s="5"/>
+      <c r="D108" s="5" t="s">
+        <v>227</v>
+      </c>
       <c r="E108" s="5"/>
       <c r="F108" s="48"/>
     </row>
@@ -5243,12 +5302,14 @@
         <v>7</v>
       </c>
       <c r="B109" s="34" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C109" s="32" t="s">
-        <v>228</v>
-      </c>
-      <c r="D109" s="55"/>
+        <v>229</v>
+      </c>
+      <c r="D109" s="32" t="s">
+        <v>230</v>
+      </c>
       <c r="E109" s="55"/>
       <c r="F109" s="55"/>
     </row>
@@ -5257,10 +5318,12 @@
         <v>13</v>
       </c>
       <c r="B110" s="38"/>
-      <c r="C110" s="56" t="s">
-        <v>229</v>
-      </c>
-      <c r="D110" s="55"/>
+      <c r="C110" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="D110" s="56" t="s">
+        <v>232</v>
+      </c>
       <c r="E110" s="55"/>
       <c r="F110" s="55"/>
     </row>
@@ -5269,10 +5332,10 @@
         <v>19</v>
       </c>
       <c r="B111" s="57" t="s">
-        <v>230</v>
-      </c>
-      <c r="C111" s="58"/>
-      <c r="D111" s="55"/>
+        <v>233</v>
+      </c>
+      <c r="C111" s="38"/>
+      <c r="D111" s="58"/>
       <c r="E111" s="55"/>
       <c r="F111" s="55"/>
     </row>
@@ -5282,9 +5345,11 @@
       </c>
       <c r="B112" s="59"/>
       <c r="C112" s="22" t="s">
-        <v>231</v>
-      </c>
-      <c r="D112" s="55"/>
+        <v>234</v>
+      </c>
+      <c r="D112" s="56" t="s">
+        <v>235</v>
+      </c>
       <c r="E112" s="55"/>
       <c r="F112" s="55"/>
     </row>
@@ -5295,10 +5360,10 @@
       <c r="B113" s="34" t="s">
         <v>225</v>
       </c>
-      <c r="C113" s="56" t="s">
-        <v>232</v>
-      </c>
-      <c r="D113" s="55"/>
+      <c r="C113" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="D113" s="58"/>
       <c r="E113" s="55"/>
       <c r="F113" s="55"/>
     </row>
@@ -5307,8 +5372,10 @@
         <v>32</v>
       </c>
       <c r="B114" s="38"/>
-      <c r="C114" s="60"/>
-      <c r="D114" s="55"/>
+      <c r="C114" s="37"/>
+      <c r="D114" s="56" t="s">
+        <v>237</v>
+      </c>
       <c r="E114" s="55"/>
       <c r="F114" s="55"/>
     </row>
@@ -5317,10 +5384,10 @@
         <v>37</v>
       </c>
       <c r="B115" s="32" t="s">
-        <v>233</v>
-      </c>
-      <c r="C115" s="58"/>
-      <c r="D115" s="55"/>
+        <v>238</v>
+      </c>
+      <c r="C115" s="38"/>
+      <c r="D115" s="60"/>
       <c r="E115" s="55"/>
       <c r="F115" s="55"/>
     </row>
@@ -5334,7 +5401,7 @@
       <c r="C116" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="D116" s="55"/>
+      <c r="D116" s="58"/>
       <c r="E116" s="55"/>
       <c r="F116" s="55"/>
     </row>
@@ -5433,7 +5500,7 @@
     <row r="200" ht="42" customHeight="1"/>
     <row r="201" ht="42" customHeight="1"/>
   </sheetData>
-  <mergeCells count="107">
+  <mergeCells count="110">
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B14:B15"/>
@@ -5501,6 +5568,9 @@
     <mergeCell ref="D97:D99"/>
     <mergeCell ref="D100:D101"/>
     <mergeCell ref="D102:D103"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="D114:D116"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="E14:E16"/>

--- a/work_time.xlsx
+++ b/work_time.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="243">
   <si>
     <t>6月第二周</t>
   </si>
@@ -701,6 +701,9 @@
     <t>完善图文管理</t>
   </si>
   <si>
+    <t>商城对接图文管理api</t>
+  </si>
+  <si>
     <t>商城后台各模块划分</t>
   </si>
   <si>
@@ -710,12 +713,18 @@
     <t>配置tinymce ,增加字体选择和大小插件</t>
   </si>
   <si>
+    <t>测试并完善修改路径</t>
+  </si>
+  <si>
     <t>调整图文管理, 图文分类管理</t>
   </si>
   <si>
     <t>测试并调整富文本编辑器pc和小程序端样式一致性</t>
   </si>
   <si>
+    <t>编写登录验证拦截函数</t>
+  </si>
+  <si>
     <t>整理首页管理所需数据</t>
   </si>
   <si>
@@ -726,6 +735,9 @@
   </si>
   <si>
     <t>解决富文本编辑器移动端图片尺寸过大问题</t>
+  </si>
+  <si>
+    <t>商城对接听老板娘说, 图文列表, 图文详情api, 数据预处理</t>
   </si>
   <si>
     <t xml:space="preserve">小程序商城导入router工具类, 编写路由文件并修改原有路由 </t>
@@ -761,10 +773,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -792,44 +850,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -853,15 +881,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -876,21 +896,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
@@ -899,7 +904,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -920,19 +932,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -944,19 +968,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -974,7 +992,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -986,7 +1040,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -998,25 +1082,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1034,73 +1106,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1279,6 +1291,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1295,11 +1331,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1307,23 +1341,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1357,34 +1387,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1393,133 +1405,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1692,13 +1704,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3398,6 +3410,48 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1309370</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>1990725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="图片 38"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId40"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5797550" y="75539600"/>
+          <a:ext cx="1309370" cy="1990725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3662,7 +3716,7 @@
   <dimension ref="A1:G201"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="E117" sqref="E117"/>
+      <selection activeCell="F117" sqref="F117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -5294,7 +5348,9 @@
       <c r="D108" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="E108" s="5"/>
+      <c r="E108" s="5" t="s">
+        <v>228</v>
+      </c>
       <c r="F108" s="48"/>
     </row>
     <row r="109" ht="42" customHeight="1" spans="1:6">
@@ -5302,15 +5358,17 @@
         <v>7</v>
       </c>
       <c r="B109" s="34" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C109" s="32" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D109" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="E109" s="55"/>
+        <v>231</v>
+      </c>
+      <c r="E109" s="55" t="s">
+        <v>232</v>
+      </c>
       <c r="F109" s="55"/>
     </row>
     <row r="110" ht="42" customHeight="1" spans="1:6">
@@ -5319,12 +5377,14 @@
       </c>
       <c r="B110" s="38"/>
       <c r="C110" s="34" t="s">
-        <v>231</v>
-      </c>
-      <c r="D110" s="56" t="s">
-        <v>232</v>
-      </c>
-      <c r="E110" s="55"/>
+        <v>233</v>
+      </c>
+      <c r="D110" s="34" t="s">
+        <v>234</v>
+      </c>
+      <c r="E110" s="56" t="s">
+        <v>235</v>
+      </c>
       <c r="F110" s="55"/>
     </row>
     <row r="111" ht="42" customHeight="1" spans="1:6">
@@ -5332,11 +5392,11 @@
         <v>19</v>
       </c>
       <c r="B111" s="57" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C111" s="38"/>
-      <c r="D111" s="58"/>
-      <c r="E111" s="55"/>
+      <c r="D111" s="38"/>
+      <c r="E111" s="58"/>
       <c r="F111" s="55"/>
     </row>
     <row r="112" ht="42" customHeight="1" spans="1:6">
@@ -5345,12 +5405,12 @@
       </c>
       <c r="B112" s="59"/>
       <c r="C112" s="22" t="s">
-        <v>234</v>
-      </c>
-      <c r="D112" s="56" t="s">
-        <v>235</v>
-      </c>
-      <c r="E112" s="55"/>
+        <v>237</v>
+      </c>
+      <c r="D112" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="E112" s="60"/>
       <c r="F112" s="55"/>
     </row>
     <row r="113" ht="42" customHeight="1" spans="1:6">
@@ -5361,10 +5421,12 @@
         <v>225</v>
       </c>
       <c r="C113" s="34" t="s">
-        <v>236</v>
-      </c>
-      <c r="D113" s="58"/>
-      <c r="E113" s="55"/>
+        <v>239</v>
+      </c>
+      <c r="D113" s="38"/>
+      <c r="E113" s="56" t="s">
+        <v>240</v>
+      </c>
       <c r="F113" s="55"/>
     </row>
     <row r="114" ht="42" customHeight="1" spans="1:6">
@@ -5373,10 +5435,10 @@
       </c>
       <c r="B114" s="38"/>
       <c r="C114" s="37"/>
-      <c r="D114" s="56" t="s">
-        <v>237</v>
-      </c>
-      <c r="E114" s="55"/>
+      <c r="D114" s="34" t="s">
+        <v>241</v>
+      </c>
+      <c r="E114" s="58"/>
       <c r="F114" s="55"/>
     </row>
     <row r="115" ht="42" customHeight="1" spans="1:6">
@@ -5384,11 +5446,11 @@
         <v>37</v>
       </c>
       <c r="B115" s="32" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C115" s="38"/>
-      <c r="D115" s="60"/>
-      <c r="E115" s="55"/>
+      <c r="D115" s="37"/>
+      <c r="E115" s="60"/>
       <c r="F115" s="55"/>
     </row>
     <row r="116" ht="42" customHeight="1" spans="1:6">
@@ -5401,8 +5463,10 @@
       <c r="C116" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="D116" s="58"/>
-      <c r="E116" s="55"/>
+      <c r="D116" s="38"/>
+      <c r="E116" s="43" t="s">
+        <v>158</v>
+      </c>
       <c r="F116" s="55"/>
     </row>
     <row r="117" ht="157" customHeight="1" spans="1:6">
@@ -5500,7 +5564,7 @@
     <row r="200" ht="42" customHeight="1"/>
     <row r="201" ht="42" customHeight="1"/>
   </sheetData>
-  <mergeCells count="110">
+  <mergeCells count="112">
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B14:B15"/>
@@ -5591,6 +5655,8 @@
     <mergeCell ref="E89:E91"/>
     <mergeCell ref="E97:E100"/>
     <mergeCell ref="E101:E103"/>
+    <mergeCell ref="E110:E112"/>
+    <mergeCell ref="E113:E115"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="F8:F9"/>

--- a/work_time.xlsx
+++ b/work_time.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="247">
   <si>
     <t>6月第二周</t>
   </si>
@@ -704,6 +704,9 @@
     <t>商城对接图文管理api</t>
   </si>
   <si>
+    <t>完善小程序商城</t>
+  </si>
+  <si>
     <t>商城后台各模块划分</t>
   </si>
   <si>
@@ -716,6 +719,9 @@
     <t>测试并完善修改路径</t>
   </si>
   <si>
+    <t>优化小程序商城import/export规范</t>
+  </si>
+  <si>
     <t>调整图文管理, 图文分类管理</t>
   </si>
   <si>
@@ -728,6 +734,9 @@
     <t>整理首页管理所需数据</t>
   </si>
   <si>
+    <t>重构小程序商城/需求采集js文件import/export方式与路径</t>
+  </si>
+  <si>
     <t>调整富文本编辑器pc端移动端样式不一致问题</t>
   </si>
   <si>
@@ -741,6 +750,9 @@
   </si>
   <si>
     <t xml:space="preserve">小程序商城导入router工具类, 编写路由文件并修改原有路由 </t>
+  </si>
+  <si>
+    <t>编写长列表展示功能</t>
   </si>
   <si>
     <t>增加输入提示功能</t>
@@ -773,41 +785,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -820,44 +801,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -879,9 +838,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -897,7 +855,53 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -911,9 +915,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -932,73 +944,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1010,61 +962,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1082,7 +986,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1094,13 +1076,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1112,7 +1100,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1305,11 +1317,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1333,16 +1375,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1358,32 +1391,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1393,10 +1405,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1405,133 +1417,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1701,16 +1713,16 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3413,15 +3425,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>90170</xdr:colOff>
       <xdr:row>116</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1309370</xdr:colOff>
+      <xdr:colOff>1399540</xdr:colOff>
       <xdr:row>116</xdr:row>
-      <xdr:rowOff>1990725</xdr:rowOff>
+      <xdr:rowOff>1921510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3438,8 +3450,50 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5797550" y="75539600"/>
-          <a:ext cx="1309370" cy="1990725"/>
+          <a:off x="5887720" y="75625325"/>
+          <a:ext cx="1309370" cy="1835785"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>99695</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1314450</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>1984375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="图片 39"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId41"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7463790" y="75615800"/>
+          <a:ext cx="1214755" cy="1908175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3715,8 +3769,8 @@
   <sheetPr/>
   <dimension ref="A1:G201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="F117" sqref="F117"/>
+    <sheetView tabSelected="1" topLeftCell="B106" workbookViewId="0">
+      <selection activeCell="G117" sqref="G117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -5351,25 +5405,29 @@
       <c r="E108" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="F108" s="48"/>
+      <c r="F108" s="5" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="109" ht="42" customHeight="1" spans="1:6">
       <c r="A109" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B109" s="34" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C109" s="32" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D109" s="32" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E109" s="55" t="s">
-        <v>232</v>
-      </c>
-      <c r="F109" s="55"/>
+        <v>233</v>
+      </c>
+      <c r="F109" s="56" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="110" ht="42" customHeight="1" spans="1:6">
       <c r="A110" s="6" t="s">
@@ -5377,27 +5435,29 @@
       </c>
       <c r="B110" s="38"/>
       <c r="C110" s="34" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D110" s="34" t="s">
-        <v>234</v>
-      </c>
-      <c r="E110" s="56" t="s">
-        <v>235</v>
-      </c>
-      <c r="F110" s="55"/>
+        <v>236</v>
+      </c>
+      <c r="E110" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="F110" s="57"/>
     </row>
     <row r="111" ht="42" customHeight="1" spans="1:6">
       <c r="A111" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B111" s="57" t="s">
-        <v>236</v>
+      <c r="B111" s="58" t="s">
+        <v>238</v>
       </c>
       <c r="C111" s="38"/>
       <c r="D111" s="38"/>
-      <c r="E111" s="58"/>
-      <c r="F111" s="55"/>
+      <c r="E111" s="37"/>
+      <c r="F111" s="56" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="112" ht="42" customHeight="1" spans="1:6">
       <c r="A112" s="6" t="s">
@@ -5405,13 +5465,13 @@
       </c>
       <c r="B112" s="59"/>
       <c r="C112" s="22" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D112" s="34" t="s">
-        <v>238</v>
-      </c>
-      <c r="E112" s="60"/>
-      <c r="F112" s="55"/>
+        <v>241</v>
+      </c>
+      <c r="E112" s="38"/>
+      <c r="F112" s="60"/>
     </row>
     <row r="113" ht="42" customHeight="1" spans="1:6">
       <c r="A113" s="6" t="s">
@@ -5421,13 +5481,13 @@
         <v>225</v>
       </c>
       <c r="C113" s="34" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D113" s="38"/>
-      <c r="E113" s="56" t="s">
-        <v>240</v>
-      </c>
-      <c r="F113" s="55"/>
+      <c r="E113" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="F113" s="57"/>
     </row>
     <row r="114" ht="42" customHeight="1" spans="1:6">
       <c r="A114" s="6" t="s">
@@ -5436,22 +5496,24 @@
       <c r="B114" s="38"/>
       <c r="C114" s="37"/>
       <c r="D114" s="34" t="s">
-        <v>241</v>
-      </c>
-      <c r="E114" s="58"/>
-      <c r="F114" s="55"/>
+        <v>244</v>
+      </c>
+      <c r="E114" s="37"/>
+      <c r="F114" s="56" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="115" ht="42" customHeight="1" spans="1:6">
       <c r="A115" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B115" s="32" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C115" s="38"/>
       <c r="D115" s="37"/>
-      <c r="E115" s="60"/>
-      <c r="F115" s="55"/>
+      <c r="E115" s="38"/>
+      <c r="F115" s="57"/>
     </row>
     <row r="116" ht="42" customHeight="1" spans="1:6">
       <c r="A116" s="6" t="s">
@@ -5467,7 +5529,9 @@
       <c r="E116" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="F116" s="55"/>
+      <c r="F116" s="32" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="117" ht="157" customHeight="1" spans="1:6">
       <c r="A117" s="10" t="s">
@@ -5564,7 +5628,7 @@
     <row r="200" ht="42" customHeight="1"/>
     <row r="201" ht="42" customHeight="1"/>
   </sheetData>
-  <mergeCells count="112">
+  <mergeCells count="115">
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B14:B15"/>
@@ -5673,6 +5737,9 @@
     <mergeCell ref="F91:F92"/>
     <mergeCell ref="F97:F98"/>
     <mergeCell ref="F99:F100"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="F111:F113"/>
+    <mergeCell ref="F114:F115"/>
     <mergeCell ref="G15:G17"/>
     <mergeCell ref="G37:G38"/>
     <mergeCell ref="G39:G41"/>

--- a/work_time.xlsx
+++ b/work_time.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="252">
   <si>
     <t>6月第二周</t>
   </si>
@@ -756,6 +756,21 @@
   </si>
   <si>
     <t>增加输入提示功能</t>
+  </si>
+  <si>
+    <t>8月第3周</t>
+  </si>
+  <si>
+    <t>完善长列表展示</t>
+  </si>
+  <si>
+    <t>完善长列表展示逻辑</t>
+  </si>
+  <si>
+    <t>对接长列表展示接口, 增加分页功能</t>
+  </si>
+  <si>
+    <t>pc端引入图表展示echarts</t>
   </si>
 </sst>
 </file>
@@ -763,10 +778,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -785,6 +800,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -793,7 +869,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -807,16 +897,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -839,7 +922,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -847,55 +930,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -904,28 +941,6 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -944,13 +959,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -962,91 +1067,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1064,13 +1091,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1082,49 +1133,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1302,56 +1317,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1375,7 +1345,61 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1390,25 +1414,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1417,137 +1432,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1710,17 +1725,23 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3506,6 +3527,48 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>64135</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1512570</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>2028825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="图片 47"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId42"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1071245" y="83477100"/>
+          <a:ext cx="1448435" cy="1952625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3769,8 +3832,8 @@
   <sheetPr/>
   <dimension ref="A1:G201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B106" workbookViewId="0">
-      <selection activeCell="G117" sqref="G117"/>
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="C129" sqref="C129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -5425,7 +5488,7 @@
       <c r="E109" s="55" t="s">
         <v>233</v>
       </c>
-      <c r="F109" s="56" t="s">
+      <c r="F109" s="34" t="s">
         <v>234</v>
       </c>
     </row>
@@ -5443,19 +5506,19 @@
       <c r="E110" s="34" t="s">
         <v>237</v>
       </c>
-      <c r="F110" s="57"/>
+      <c r="F110" s="38"/>
     </row>
     <row r="111" ht="42" customHeight="1" spans="1:6">
       <c r="A111" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B111" s="58" t="s">
+      <c r="B111" s="56" t="s">
         <v>238</v>
       </c>
       <c r="C111" s="38"/>
       <c r="D111" s="38"/>
       <c r="E111" s="37"/>
-      <c r="F111" s="56" t="s">
+      <c r="F111" s="34" t="s">
         <v>239</v>
       </c>
     </row>
@@ -5463,7 +5526,7 @@
       <c r="A112" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B112" s="59"/>
+      <c r="B112" s="57"/>
       <c r="C112" s="22" t="s">
         <v>240</v>
       </c>
@@ -5471,7 +5534,7 @@
         <v>241</v>
       </c>
       <c r="E112" s="38"/>
-      <c r="F112" s="60"/>
+      <c r="F112" s="37"/>
     </row>
     <row r="113" ht="42" customHeight="1" spans="1:6">
       <c r="A113" s="6" t="s">
@@ -5487,7 +5550,7 @@
       <c r="E113" s="34" t="s">
         <v>243</v>
       </c>
-      <c r="F113" s="57"/>
+      <c r="F113" s="38"/>
     </row>
     <row r="114" ht="42" customHeight="1" spans="1:6">
       <c r="A114" s="6" t="s">
@@ -5499,7 +5562,7 @@
         <v>244</v>
       </c>
       <c r="E114" s="37"/>
-      <c r="F114" s="56" t="s">
+      <c r="F114" s="34" t="s">
         <v>245</v>
       </c>
     </row>
@@ -5513,7 +5576,7 @@
       <c r="C115" s="38"/>
       <c r="D115" s="37"/>
       <c r="E115" s="38"/>
-      <c r="F115" s="57"/>
+      <c r="F115" s="38"/>
     </row>
     <row r="116" ht="42" customHeight="1" spans="1:6">
       <c r="A116" s="6" t="s">
@@ -5544,17 +5607,136 @@
       <c r="F117" s="55"/>
     </row>
     <row r="118" ht="42" customHeight="1"/>
-    <row r="119" ht="42" customHeight="1"/>
-    <row r="120" ht="42" customHeight="1"/>
-    <row r="121" ht="42" customHeight="1"/>
-    <row r="122" ht="42" customHeight="1"/>
-    <row r="123" ht="42" customHeight="1"/>
-    <row r="124" ht="42" customHeight="1"/>
-    <row r="125" ht="42" customHeight="1"/>
-    <row r="126" ht="42" customHeight="1"/>
-    <row r="127" ht="42" customHeight="1"/>
-    <row r="128" ht="42" customHeight="1"/>
-    <row r="129" ht="42" customHeight="1"/>
+    <row r="119" ht="42" customHeight="1" spans="1:6">
+      <c r="A119" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="B119" s="25">
+        <v>44060</v>
+      </c>
+      <c r="C119" s="25">
+        <v>44061</v>
+      </c>
+      <c r="D119" s="25">
+        <v>44062</v>
+      </c>
+      <c r="E119" s="25">
+        <v>44063</v>
+      </c>
+      <c r="F119" s="25">
+        <v>44064</v>
+      </c>
+    </row>
+    <row r="120" ht="42" customHeight="1" spans="1:6">
+      <c r="A120" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B120" s="58" t="s">
+        <v>248</v>
+      </c>
+      <c r="C120" s="58"/>
+      <c r="D120" s="58"/>
+      <c r="E120" s="58"/>
+      <c r="F120" s="58"/>
+    </row>
+    <row r="121" ht="42" customHeight="1" spans="1:6">
+      <c r="A121" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B121" s="59" t="s">
+        <v>249</v>
+      </c>
+      <c r="C121" s="60"/>
+      <c r="D121" s="60"/>
+      <c r="E121" s="60"/>
+      <c r="F121" s="60"/>
+    </row>
+    <row r="122" ht="42" customHeight="1" spans="1:6">
+      <c r="A122" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B122" s="61"/>
+      <c r="C122" s="60"/>
+      <c r="D122" s="60"/>
+      <c r="E122" s="60"/>
+      <c r="F122" s="60"/>
+    </row>
+    <row r="123" ht="42" customHeight="1" spans="1:6">
+      <c r="A123" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B123" s="59" t="s">
+        <v>250</v>
+      </c>
+      <c r="C123" s="60"/>
+      <c r="D123" s="60"/>
+      <c r="E123" s="60"/>
+      <c r="F123" s="60"/>
+    </row>
+    <row r="124" ht="42" customHeight="1" spans="1:6">
+      <c r="A124" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B124" s="62"/>
+      <c r="C124" s="60"/>
+      <c r="D124" s="60"/>
+      <c r="E124" s="60"/>
+      <c r="F124" s="60"/>
+    </row>
+    <row r="125" ht="42" customHeight="1" spans="1:6">
+      <c r="A125" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B125" s="61"/>
+      <c r="C125" s="60"/>
+      <c r="D125" s="60"/>
+      <c r="E125" s="60"/>
+      <c r="F125" s="60"/>
+    </row>
+    <row r="126" ht="42" customHeight="1" spans="1:6">
+      <c r="A126" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B126" s="59" t="s">
+        <v>251</v>
+      </c>
+      <c r="C126" s="60"/>
+      <c r="D126" s="60"/>
+      <c r="E126" s="60"/>
+      <c r="F126" s="60"/>
+    </row>
+    <row r="127" ht="42" customHeight="1" spans="1:6">
+      <c r="A127" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B127" s="61"/>
+      <c r="C127" s="60"/>
+      <c r="D127" s="60"/>
+      <c r="E127" s="60"/>
+      <c r="F127" s="60"/>
+    </row>
+    <row r="128" ht="42" customHeight="1" spans="1:6">
+      <c r="A128" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B128" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="C128" s="60"/>
+      <c r="D128" s="60"/>
+      <c r="E128" s="60"/>
+      <c r="F128" s="60"/>
+    </row>
+    <row r="129" ht="174" customHeight="1" spans="1:6">
+      <c r="A129" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B129" s="58"/>
+      <c r="C129" s="58"/>
+      <c r="D129" s="58"/>
+      <c r="E129" s="58"/>
+      <c r="F129" s="58"/>
+    </row>
     <row r="130" ht="42" customHeight="1"/>
     <row r="131" ht="42" customHeight="1"/>
     <row r="132" ht="42" customHeight="1"/>
@@ -5628,7 +5810,7 @@
     <row r="200" ht="42" customHeight="1"/>
     <row r="201" ht="42" customHeight="1"/>
   </sheetData>
-  <mergeCells count="115">
+  <mergeCells count="118">
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B14:B15"/>
@@ -5656,6 +5838,9 @@
     <mergeCell ref="B109:B110"/>
     <mergeCell ref="B111:B112"/>
     <mergeCell ref="B113:B114"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="B123:B125"/>
+    <mergeCell ref="B126:B127"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="C27:C28"/>

--- a/work_time.xlsx
+++ b/work_time.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="261">
   <si>
     <t>6月第二周</t>
   </si>
@@ -758,19 +758,46 @@
     <t>增加输入提示功能</t>
   </si>
   <si>
-    <t>8月第3周</t>
-  </si>
-  <si>
-    <t>完善长列表展示</t>
-  </si>
-  <si>
-    <t>完善长列表展示逻辑</t>
-  </si>
-  <si>
-    <t>对接长列表展示接口, 增加分页功能</t>
-  </si>
-  <si>
-    <t>pc端引入图表展示echarts</t>
+    <t>增加选项常量的封装</t>
+  </si>
+  <si>
+    <t>修改图片上传组件</t>
+  </si>
+  <si>
+    <t>配置tinymce, 增加工具栏样式</t>
+  </si>
+  <si>
+    <t>调整添加推文页面</t>
+  </si>
+  <si>
+    <t>修改对话框组件</t>
+  </si>
+  <si>
+    <t>调整推文列表页</t>
+  </si>
+  <si>
+    <t>增加编写推文页表单验证</t>
+  </si>
+  <si>
+    <t>增加编写推文页的新增标签功能</t>
+  </si>
+  <si>
+    <t>调整推文编写页细节</t>
+  </si>
+  <si>
+    <t>重构常量文件的格式,数组改成对象形式</t>
+  </si>
+  <si>
+    <t>对接添加推文api</t>
+  </si>
+  <si>
+    <t>调整推文列表页字段</t>
+  </si>
+  <si>
+    <t>增加推文列表页 推文状态显示</t>
+  </si>
+  <si>
+    <t>增加推文列表页发布/下架工能</t>
   </si>
 </sst>
 </file>
@@ -778,10 +805,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -795,6 +822,43 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -816,17 +880,23 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -854,36 +924,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -897,9 +940,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -916,21 +958,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -959,7 +986,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -977,7 +1070,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -989,37 +1082,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1031,25 +1154,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1061,85 +1166,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1317,6 +1344,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1341,24 +1383,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1374,17 +1398,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1420,10 +1447,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1432,137 +1459,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1731,19 +1758,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3530,19 +3551,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>64135</xdr:colOff>
-      <xdr:row>128</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>1609725</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>523875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1512570</xdr:colOff>
-      <xdr:row>128</xdr:row>
-      <xdr:rowOff>2028825</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1496695</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="48" name="图片 47"/>
+        <xdr:cNvPr id="41" name="图片 40"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3555,8 +3576,50 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1071245" y="83477100"/>
-          <a:ext cx="1448435" cy="1952625"/>
+          <a:off x="2616835" y="82857975"/>
+          <a:ext cx="1544320" cy="2305050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1628775</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>1537970</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="图片 44"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId43"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1016635" y="90497025"/>
+          <a:ext cx="1619250" cy="1452245"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3830,10 +3893,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G201"/>
+  <dimension ref="A1:G200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="C129" sqref="C129"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="D138" sqref="D138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -5608,146 +5671,266 @@
     </row>
     <row r="118" ht="42" customHeight="1"/>
     <row r="119" ht="42" customHeight="1" spans="1:6">
-      <c r="A119" s="24" t="s">
-        <v>247</v>
-      </c>
+      <c r="A119" s="24"/>
       <c r="B119" s="25">
-        <v>44060</v>
+        <v>44091</v>
       </c>
       <c r="C119" s="25">
-        <v>44061</v>
+        <v>44092</v>
       </c>
       <c r="D119" s="25">
-        <v>44062</v>
+        <v>44093</v>
       </c>
       <c r="E119" s="25">
-        <v>44063</v>
+        <v>44094</v>
       </c>
       <c r="F119" s="25">
-        <v>44064</v>
-      </c>
-    </row>
-    <row r="120" ht="42" customHeight="1" spans="1:6">
+        <v>44095</v>
+      </c>
+    </row>
+    <row r="120" ht="42" hidden="1" customHeight="1" spans="1:6">
       <c r="A120" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B120" s="58" t="s">
-        <v>248</v>
-      </c>
-      <c r="C120" s="58"/>
-      <c r="D120" s="58"/>
-      <c r="E120" s="58"/>
-      <c r="F120" s="58"/>
+      <c r="B120" s="5"/>
+      <c r="C120" s="5"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="5"/>
+      <c r="F120" s="5"/>
     </row>
     <row r="121" ht="42" customHeight="1" spans="1:6">
       <c r="A121" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B121" s="59" t="s">
-        <v>249</v>
-      </c>
-      <c r="C121" s="60"/>
-      <c r="D121" s="60"/>
-      <c r="E121" s="60"/>
-      <c r="F121" s="60"/>
+      <c r="B121" s="32" t="s">
+        <v>247</v>
+      </c>
+      <c r="C121" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="D121" s="32"/>
+      <c r="E121" s="32"/>
+      <c r="F121" s="32"/>
     </row>
     <row r="122" ht="42" customHeight="1" spans="1:6">
       <c r="A122" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B122" s="61"/>
-      <c r="C122" s="60"/>
-      <c r="D122" s="60"/>
-      <c r="E122" s="60"/>
-      <c r="F122" s="60"/>
+      <c r="B122" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="C122" s="38"/>
+      <c r="D122" s="32"/>
+      <c r="E122" s="32"/>
+      <c r="F122" s="32"/>
     </row>
     <row r="123" ht="42" customHeight="1" spans="1:6">
       <c r="A123" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B123" s="59" t="s">
+      <c r="B123" s="46" t="s">
         <v>250</v>
       </c>
-      <c r="C123" s="60"/>
-      <c r="D123" s="60"/>
-      <c r="E123" s="60"/>
-      <c r="F123" s="60"/>
+      <c r="C123" s="32" t="s">
+        <v>251</v>
+      </c>
+      <c r="D123" s="40"/>
+      <c r="E123" s="32"/>
+      <c r="F123" s="32"/>
     </row>
     <row r="124" ht="42" customHeight="1" spans="1:6">
       <c r="A124" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B124" s="62"/>
-      <c r="C124" s="60"/>
-      <c r="D124" s="60"/>
-      <c r="E124" s="60"/>
-      <c r="F124" s="60"/>
+      <c r="B124" s="47"/>
+      <c r="C124" s="32"/>
+      <c r="D124" s="40"/>
+      <c r="E124" s="32"/>
+      <c r="F124" s="32"/>
     </row>
     <row r="125" ht="42" customHeight="1" spans="1:6">
       <c r="A125" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B125" s="61"/>
-      <c r="C125" s="60"/>
-      <c r="D125" s="60"/>
-      <c r="E125" s="60"/>
-      <c r="F125" s="60"/>
+      <c r="B125" s="32" t="s">
+        <v>252</v>
+      </c>
+      <c r="C125" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="D125" s="32"/>
+      <c r="E125" s="32"/>
+      <c r="F125" s="32"/>
     </row>
     <row r="126" ht="42" customHeight="1" spans="1:6">
       <c r="A126" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B126" s="59" t="s">
-        <v>251</v>
-      </c>
-      <c r="C126" s="60"/>
-      <c r="D126" s="60"/>
-      <c r="E126" s="60"/>
-      <c r="F126" s="60"/>
+      <c r="B126" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="C126" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="D126" s="32"/>
+      <c r="E126" s="32"/>
+      <c r="F126" s="32"/>
     </row>
     <row r="127" ht="42" customHeight="1" spans="1:6">
       <c r="A127" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B127" s="61"/>
-      <c r="C127" s="60"/>
-      <c r="D127" s="60"/>
-      <c r="E127" s="60"/>
-      <c r="F127" s="60"/>
+      <c r="B127" s="34" t="s">
+        <v>252</v>
+      </c>
+      <c r="C127" s="34" t="s">
+        <v>255</v>
+      </c>
+      <c r="D127" s="32"/>
+      <c r="E127" s="32"/>
+      <c r="F127" s="32"/>
     </row>
     <row r="128" ht="42" customHeight="1" spans="1:6">
       <c r="A128" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B128" s="53" t="s">
-        <v>158</v>
-      </c>
-      <c r="C128" s="60"/>
-      <c r="D128" s="60"/>
-      <c r="E128" s="60"/>
-      <c r="F128" s="60"/>
+      <c r="B128" s="38"/>
+      <c r="C128" s="38"/>
+      <c r="D128" s="32"/>
+      <c r="E128" s="32"/>
+      <c r="F128" s="32"/>
     </row>
     <row r="129" ht="174" customHeight="1" spans="1:6">
       <c r="A129" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B129" s="58"/>
-      <c r="C129" s="58"/>
-      <c r="D129" s="58"/>
-      <c r="E129" s="58"/>
-      <c r="F129" s="58"/>
+      <c r="B129" s="5"/>
+      <c r="C129" s="5"/>
+      <c r="D129" s="5"/>
+      <c r="E129" s="5"/>
+      <c r="F129" s="5"/>
     </row>
     <row r="130" ht="42" customHeight="1"/>
-    <row r="131" ht="42" customHeight="1"/>
-    <row r="132" ht="42" customHeight="1"/>
-    <row r="133" ht="42" customHeight="1"/>
-    <row r="134" ht="42" customHeight="1"/>
-    <row r="135" ht="42" customHeight="1"/>
-    <row r="136" ht="42" customHeight="1"/>
-    <row r="137" ht="42" customHeight="1"/>
-    <row r="138" ht="42" customHeight="1"/>
-    <row r="139" ht="42" customHeight="1"/>
-    <row r="140" ht="42" customHeight="1"/>
+    <row r="131" ht="42" customHeight="1" spans="1:6">
+      <c r="A131" s="24"/>
+      <c r="B131" s="25">
+        <v>44095</v>
+      </c>
+      <c r="C131" s="25">
+        <v>44096</v>
+      </c>
+      <c r="D131" s="25">
+        <v>44097</v>
+      </c>
+      <c r="E131" s="25">
+        <v>44098</v>
+      </c>
+      <c r="F131" s="25">
+        <v>44099</v>
+      </c>
+    </row>
+    <row r="132" ht="42" customHeight="1" spans="1:6">
+      <c r="A132" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B132" s="58" t="s">
+        <v>180</v>
+      </c>
+      <c r="C132" s="55"/>
+      <c r="D132" s="32"/>
+      <c r="E132" s="32"/>
+      <c r="F132" s="32"/>
+    </row>
+    <row r="133" ht="42" customHeight="1" spans="1:6">
+      <c r="A133" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B133" s="59" t="s">
+        <v>256</v>
+      </c>
+      <c r="C133" s="55"/>
+      <c r="D133" s="32"/>
+      <c r="E133" s="32"/>
+      <c r="F133" s="32"/>
+    </row>
+    <row r="134" ht="42" customHeight="1" spans="1:6">
+      <c r="A134" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B134" s="60"/>
+      <c r="C134" s="55"/>
+      <c r="D134" s="40"/>
+      <c r="E134" s="32"/>
+      <c r="F134" s="32"/>
+    </row>
+    <row r="135" ht="42" customHeight="1" spans="1:6">
+      <c r="A135" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B135" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="C135" s="55"/>
+      <c r="D135" s="40"/>
+      <c r="E135" s="32"/>
+      <c r="F135" s="32"/>
+    </row>
+    <row r="136" ht="42" customHeight="1" spans="1:6">
+      <c r="A136" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B136" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="C136" s="55"/>
+      <c r="D136" s="32"/>
+      <c r="E136" s="32"/>
+      <c r="F136" s="32"/>
+    </row>
+    <row r="137" ht="42" customHeight="1" spans="1:6">
+      <c r="A137" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B137" s="59" t="s">
+        <v>259</v>
+      </c>
+      <c r="C137" s="55"/>
+      <c r="D137" s="32"/>
+      <c r="E137" s="32"/>
+      <c r="F137" s="32"/>
+    </row>
+    <row r="138" ht="42" customHeight="1" spans="1:6">
+      <c r="A138" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B138" s="60"/>
+      <c r="C138" s="55"/>
+      <c r="D138" s="32"/>
+      <c r="E138" s="32"/>
+      <c r="F138" s="32"/>
+    </row>
+    <row r="139" ht="42" customHeight="1" spans="1:6">
+      <c r="A139" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B139" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="C139" s="55"/>
+      <c r="D139" s="32"/>
+      <c r="E139" s="32"/>
+      <c r="F139" s="32"/>
+    </row>
+    <row r="140" ht="126" customHeight="1" spans="1:6">
+      <c r="A140" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B140" s="5"/>
+      <c r="C140" s="5"/>
+      <c r="D140" s="5"/>
+      <c r="E140" s="5"/>
+      <c r="F140" s="5"/>
+    </row>
     <row r="141" ht="42" customHeight="1"/>
     <row r="142" ht="42" customHeight="1"/>
     <row r="143" ht="42" customHeight="1"/>
@@ -5808,9 +5991,8 @@
     <row r="198" ht="42" customHeight="1"/>
     <row r="199" ht="42" customHeight="1"/>
     <row r="200" ht="42" customHeight="1"/>
-    <row r="201" ht="42" customHeight="1"/>
   </sheetData>
-  <mergeCells count="118">
+  <mergeCells count="122">
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B14:B15"/>
@@ -5838,9 +6020,10 @@
     <mergeCell ref="B109:B110"/>
     <mergeCell ref="B111:B112"/>
     <mergeCell ref="B113:B114"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="B123:B125"/>
-    <mergeCell ref="B126:B127"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="B137:B138"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="C27:C28"/>
@@ -5861,6 +6044,9 @@
     <mergeCell ref="C101:C103"/>
     <mergeCell ref="C110:C111"/>
     <mergeCell ref="C113:C115"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="C127:C128"/>
     <mergeCell ref="D26:D28"/>
     <mergeCell ref="D29:D30"/>
     <mergeCell ref="D39:D40"/>

--- a/work_time.xlsx
+++ b/work_time.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16425" windowHeight="12390" firstSheet="1"/>
+    <workbookView windowWidth="23295" windowHeight="13140" firstSheet="1"/>
   </bookViews>
   <sheets>
     <sheet name="6月" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="271">
   <si>
     <t>6月第二周</t>
   </si>
@@ -798,6 +798,36 @@
   </si>
   <si>
     <t>增加推文列表页发布/下架工能</t>
+  </si>
+  <si>
+    <t>调整图片不能多选的bug</t>
+  </si>
+  <si>
+    <t>编写品牌管理</t>
+  </si>
+  <si>
+    <t>调整添加商品页的布局</t>
+  </si>
+  <si>
+    <t>调整添加商品页上传图片部分的细节</t>
+  </si>
+  <si>
+    <t>编写添加商品页-选择品牌部分弹窗</t>
+  </si>
+  <si>
+    <t>增加小贴士及开关控制</t>
+  </si>
+  <si>
+    <t>编写添加商品页-选择性别模块</t>
+  </si>
+  <si>
+    <t>编写添加商品页-选择品牌模块</t>
+  </si>
+  <si>
+    <t>编写添加商品页-选择品类的布局</t>
+  </si>
+  <si>
+    <t>编写输入品牌代码搜索品牌的逻辑</t>
   </si>
 </sst>
 </file>
@@ -805,10 +835,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -834,16 +864,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -857,15 +887,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -873,14 +895,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -888,6 +903,22 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -902,6 +933,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -924,9 +963,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -947,27 +993,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -986,7 +1016,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -998,7 +1028,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1010,13 +1064,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1028,55 +1112,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1094,37 +1136,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1136,37 +1172,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1344,6 +1374,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1400,9 +1454,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1415,42 +1471,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1459,133 +1489,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1759,7 +1789,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3632,6 +3662,132 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>1047750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="图片 43"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId44"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2664460" y="90411300"/>
+          <a:ext cx="1524000" cy="1047750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>50165</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1574165</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>1095375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="图片 46"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId44"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1057275" y="97393125"/>
+          <a:ext cx="1524000" cy="1047750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>2317750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="图片 45"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId45"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2721610" y="97374075"/>
+          <a:ext cx="1466850" cy="2289175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3895,8 +4051,8 @@
   <sheetPr/>
   <dimension ref="A1:G200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="D138" sqref="D138"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="F152" sqref="F152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -5833,7 +5989,7 @@
       <c r="A132" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B132" s="58" t="s">
+      <c r="B132" s="10" t="s">
         <v>180</v>
       </c>
       <c r="C132" s="55"/>
@@ -5845,7 +6001,7 @@
       <c r="A133" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B133" s="59" t="s">
+      <c r="B133" s="34" t="s">
         <v>256</v>
       </c>
       <c r="C133" s="55"/>
@@ -5857,7 +6013,7 @@
       <c r="A134" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B134" s="60"/>
+      <c r="B134" s="38"/>
       <c r="C134" s="55"/>
       <c r="D134" s="40"/>
       <c r="E134" s="32"/>
@@ -5891,7 +6047,7 @@
       <c r="A137" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B137" s="59" t="s">
+      <c r="B137" s="34" t="s">
         <v>259</v>
       </c>
       <c r="C137" s="55"/>
@@ -5903,7 +6059,7 @@
       <c r="A138" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B138" s="60"/>
+      <c r="B138" s="38"/>
       <c r="C138" s="55"/>
       <c r="D138" s="32"/>
       <c r="E138" s="32"/>
@@ -5932,16 +6088,134 @@
       <c r="F140" s="5"/>
     </row>
     <row r="141" ht="42" customHeight="1"/>
-    <row r="142" ht="42" customHeight="1"/>
-    <row r="143" ht="42" customHeight="1"/>
-    <row r="144" ht="42" customHeight="1"/>
-    <row r="145" ht="42" customHeight="1"/>
-    <row r="146" ht="42" customHeight="1"/>
-    <row r="147" ht="42" customHeight="1"/>
-    <row r="148" ht="42" customHeight="1"/>
-    <row r="149" ht="42" customHeight="1"/>
-    <row r="150" ht="42" customHeight="1"/>
-    <row r="151" ht="42" customHeight="1"/>
+    <row r="142" ht="42" customHeight="1" spans="1:6">
+      <c r="A142" s="24"/>
+      <c r="B142" s="25">
+        <v>44102</v>
+      </c>
+      <c r="C142" s="25">
+        <v>44103</v>
+      </c>
+      <c r="D142" s="25">
+        <v>44104</v>
+      </c>
+      <c r="E142" s="25">
+        <v>44105</v>
+      </c>
+      <c r="F142" s="25">
+        <v>44106</v>
+      </c>
+    </row>
+    <row r="143" ht="42" customHeight="1" spans="1:6">
+      <c r="A143" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B143" s="58" t="s">
+        <v>261</v>
+      </c>
+      <c r="C143" s="59" t="s">
+        <v>262</v>
+      </c>
+      <c r="D143" s="32"/>
+      <c r="E143" s="32"/>
+      <c r="F143" s="32"/>
+    </row>
+    <row r="144" ht="42" customHeight="1" spans="1:6">
+      <c r="A144" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B144" s="55" t="s">
+        <v>263</v>
+      </c>
+      <c r="C144" s="60"/>
+      <c r="D144" s="32"/>
+      <c r="E144" s="32"/>
+      <c r="F144" s="32"/>
+    </row>
+    <row r="145" ht="42" customHeight="1" spans="1:6">
+      <c r="A145" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B145" s="55" t="s">
+        <v>264</v>
+      </c>
+      <c r="C145" s="59" t="s">
+        <v>265</v>
+      </c>
+      <c r="D145" s="40"/>
+      <c r="E145" s="32"/>
+      <c r="F145" s="32"/>
+    </row>
+    <row r="146" ht="42" customHeight="1" spans="1:6">
+      <c r="A146" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B146" s="34" t="s">
+        <v>266</v>
+      </c>
+      <c r="C146" s="60"/>
+      <c r="D146" s="40"/>
+      <c r="E146" s="32"/>
+      <c r="F146" s="32"/>
+    </row>
+    <row r="147" ht="42" customHeight="1" spans="1:6">
+      <c r="A147" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B147" s="38"/>
+      <c r="C147" s="59" t="s">
+        <v>267</v>
+      </c>
+      <c r="D147" s="32"/>
+      <c r="E147" s="32"/>
+      <c r="F147" s="32"/>
+    </row>
+    <row r="148" ht="42" customHeight="1" spans="1:6">
+      <c r="A148" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B148" s="34" t="s">
+        <v>268</v>
+      </c>
+      <c r="C148" s="60"/>
+      <c r="D148" s="32"/>
+      <c r="E148" s="32"/>
+      <c r="F148" s="32"/>
+    </row>
+    <row r="149" ht="42" customHeight="1" spans="1:6">
+      <c r="A149" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B149" s="38"/>
+      <c r="C149" s="59" t="s">
+        <v>269</v>
+      </c>
+      <c r="D149" s="32"/>
+      <c r="E149" s="32"/>
+      <c r="F149" s="32"/>
+    </row>
+    <row r="150" ht="42" customHeight="1" spans="1:6">
+      <c r="A150" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B150" s="55" t="s">
+        <v>270</v>
+      </c>
+      <c r="C150" s="60"/>
+      <c r="D150" s="32"/>
+      <c r="E150" s="32"/>
+      <c r="F150" s="32"/>
+    </row>
+    <row r="151" ht="185" customHeight="1" spans="1:6">
+      <c r="A151" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B151" s="5"/>
+      <c r="C151" s="5"/>
+      <c r="D151" s="5"/>
+      <c r="E151" s="5"/>
+      <c r="F151" s="5"/>
+    </row>
     <row r="152" ht="42" customHeight="1"/>
     <row r="153" ht="42" customHeight="1"/>
     <row r="154" ht="42" customHeight="1"/>
@@ -5992,7 +6266,7 @@
     <row r="199" ht="42" customHeight="1"/>
     <row r="200" ht="42" customHeight="1"/>
   </sheetData>
-  <mergeCells count="122">
+  <mergeCells count="128">
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B14:B15"/>
@@ -6024,6 +6298,8 @@
     <mergeCell ref="B127:B128"/>
     <mergeCell ref="B133:B134"/>
     <mergeCell ref="B137:B138"/>
+    <mergeCell ref="B146:B147"/>
+    <mergeCell ref="B148:B149"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="C27:C28"/>
@@ -6047,6 +6323,10 @@
     <mergeCell ref="C121:C122"/>
     <mergeCell ref="C123:C124"/>
     <mergeCell ref="C127:C128"/>
+    <mergeCell ref="C143:C144"/>
+    <mergeCell ref="C145:C146"/>
+    <mergeCell ref="C147:C148"/>
+    <mergeCell ref="C149:C150"/>
     <mergeCell ref="D26:D28"/>
     <mergeCell ref="D29:D30"/>
     <mergeCell ref="D39:D40"/>

--- a/work_time.xlsx
+++ b/work_time.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23295" windowHeight="13140" firstSheet="1"/>
+    <workbookView windowWidth="16425" windowHeight="12390" firstSheet="1"/>
   </bookViews>
   <sheets>
     <sheet name="6月" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="321">
   <si>
     <t>6月第二周</t>
   </si>
@@ -806,28 +806,178 @@
     <t>编写品牌管理</t>
   </si>
   <si>
+    <t>调整添加商品页折叠面板细节</t>
+  </si>
+  <si>
+    <t>生成品类管理模块</t>
+  </si>
+  <si>
+    <t>调整商品分类模块</t>
+  </si>
+  <si>
+    <t>生成商品面料模块</t>
+  </si>
+  <si>
+    <t>完善材质名称模块接口对接及数据处理</t>
+  </si>
+  <si>
     <t>调整添加商品页的布局</t>
   </si>
   <si>
+    <t>编写商品图案模块</t>
+  </si>
+  <si>
     <t>调整添加商品页上传图片部分的细节</t>
   </si>
   <si>
     <t>编写添加商品页-选择品牌部分弹窗</t>
   </si>
   <si>
+    <t>编写添加商品页面三级分类弹窗</t>
+  </si>
+  <si>
+    <t>梳理商品分类页代码逻辑</t>
+  </si>
+  <si>
+    <t>调整生成器模板</t>
+  </si>
+  <si>
     <t>增加小贴士及开关控制</t>
   </si>
   <si>
+    <t>调整生成器代码</t>
+  </si>
+  <si>
+    <t>调整材质模块</t>
+  </si>
+  <si>
+    <t>指导Jacky学习JavaScript</t>
+  </si>
+  <si>
     <t>编写添加商品页-选择性别模块</t>
   </si>
   <si>
+    <t>编写添加商品页选择颜色部分</t>
+  </si>
+  <si>
+    <t>编写商品分类首页基本框架</t>
+  </si>
+  <si>
+    <t>编写商品面料模块</t>
+  </si>
+  <si>
     <t>编写添加商品页-选择品牌模块</t>
   </si>
   <si>
+    <t>调整下拉选择组件</t>
+  </si>
+  <si>
+    <t>商品分类模块增加自动折叠上一级功能</t>
+  </si>
+  <si>
     <t>编写添加商品页-选择品类的布局</t>
   </si>
   <si>
+    <t>编写添加商品页商品图案部分</t>
+  </si>
+  <si>
+    <t>编写添加商品资料- 商品图案部分弹窗</t>
+  </si>
+  <si>
     <t>编写输入品牌代码搜索品牌的逻辑</t>
+  </si>
+  <si>
+    <t>测试并完善代码</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>调整登录后的token, websocket处理逻辑</t>
+  </si>
+  <si>
+    <t>参与实现表格可拖拽的功能</t>
+  </si>
+  <si>
+    <t>编写通过拖拽方式切换表格的列位置</t>
+  </si>
+  <si>
+    <t>指导完成后面料工艺模块</t>
+  </si>
+  <si>
+    <t>编写并生成供应商资料模块</t>
+  </si>
+  <si>
+    <t>编写自定义权限指令</t>
+  </si>
+  <si>
+    <t>编写后台管理系统文档</t>
+  </si>
+  <si>
+    <t>增加可拖拽表格的列宽处理,  可设置列宽, 可按比例缩放</t>
+  </si>
+  <si>
+    <t>编写通过拖拽的方式增删表格的列</t>
+  </si>
+  <si>
+    <t>封装可拖拽表格成组件的形式</t>
+  </si>
+  <si>
+    <t>核对供应商资料模块需求</t>
+  </si>
+  <si>
+    <t>编写代码生成使用文档</t>
+  </si>
+  <si>
+    <t>编写小程序商城文档</t>
+  </si>
+  <si>
+    <t>增加通过勾选框的方式增删表格的列功能</t>
+  </si>
+  <si>
+    <t>调整供应商资料模块</t>
+  </si>
+  <si>
+    <t>指导代码生成器的使用</t>
+  </si>
+  <si>
+    <t>编写生成器使用文档</t>
+  </si>
+  <si>
+    <t>调整request加载中动画</t>
+  </si>
+  <si>
+    <t>编写并生成供应商通讯录</t>
+  </si>
+  <si>
+    <t>调整面料后整理字段</t>
+  </si>
+  <si>
+    <t>调整y-checkbox组件</t>
+  </si>
+  <si>
+    <t>指导完成订货管理模块的选项部分</t>
+  </si>
+  <si>
+    <t>完善并封装可输入可搜索可勾选的级联选择组件</t>
+  </si>
+  <si>
+    <t>调整生成器模板细节</t>
+  </si>
+  <si>
+    <t>编写并生成供应商订货管理模块</t>
+  </si>
+  <si>
+    <t>编写可输入可搜索可勾选的级联选择组件</t>
+  </si>
+  <si>
+    <t>调整代码生成器</t>
+  </si>
+  <si>
+    <t>指导完成组件的封装</t>
+  </si>
+  <si>
+    <t>指导学习组件间传参</t>
   </si>
 </sst>
 </file>
@@ -835,10 +985,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -864,21 +1014,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -895,6 +1030,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -902,7 +1044,69 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -933,7 +1137,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -941,60 +1145,6 @@
     <font>
       <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1016,13 +1166,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1034,85 +1250,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1124,61 +1262,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1196,7 +1280,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1374,26 +1524,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1422,32 +1563,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1466,8 +1601,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1477,10 +1627,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1489,137 +1639,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1791,10 +1941,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3788,6 +3935,212 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>71120</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1385570</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>2114550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="图片 47"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId46"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4302125" y="97536000"/>
+          <a:ext cx="1314450" cy="1924050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>23495</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1485900</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>1562100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="图片 48"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId47"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5821045" y="97678875"/>
+          <a:ext cx="1462405" cy="1228725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>80645</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1438275</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>2249805</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="图片 49"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId48"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7444740" y="97450275"/>
+          <a:ext cx="1357630" cy="2145030"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>5080</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1306195</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="图片 50" descr="1602600678(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId49"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8935720" y="97355025"/>
+          <a:ext cx="1301115" cy="2416175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1543050</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>2324100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="图片 51"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId50"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10540365" y="97374075"/>
+          <a:ext cx="1447800" cy="2295525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4049,19 +4402,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G200"/>
+  <dimension ref="A1:H200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="F152" sqref="F152"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="E172" sqref="E172"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="13.2166666666667" style="13" customWidth="1"/>
     <col min="2" max="2" width="21.75" style="13" customWidth="1"/>
     <col min="3" max="6" width="20.5583333333333" style="13" customWidth="1"/>
     <col min="7" max="7" width="19.875" style="13" customWidth="1"/>
-    <col min="8" max="16384" width="8.88333333333333" style="13"/>
+    <col min="8" max="8" width="22.25" style="13" customWidth="1"/>
+    <col min="9" max="16384" width="8.88333333333333" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -6088,7 +6442,7 @@
       <c r="F140" s="5"/>
     </row>
     <row r="141" ht="42" customHeight="1"/>
-    <row r="142" ht="42" customHeight="1" spans="1:6">
+    <row r="142" ht="42" customHeight="1" spans="1:8">
       <c r="A142" s="24"/>
       <c r="B142" s="25">
         <v>44102</v>
@@ -6100,113 +6454,175 @@
         <v>44104</v>
       </c>
       <c r="E142" s="25">
-        <v>44105</v>
+        <v>44114</v>
       </c>
       <c r="F142" s="25">
-        <v>44106</v>
-      </c>
-    </row>
-    <row r="143" ht="42" customHeight="1" spans="1:6">
+        <v>44116</v>
+      </c>
+      <c r="G142" s="25">
+        <v>44117</v>
+      </c>
+      <c r="H142" s="25">
+        <v>44118</v>
+      </c>
+    </row>
+    <row r="143" ht="42" customHeight="1" spans="1:8">
       <c r="A143" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B143" s="58" t="s">
         <v>261</v>
       </c>
-      <c r="C143" s="59" t="s">
+      <c r="C143" s="46" t="s">
         <v>262</v>
       </c>
-      <c r="D143" s="32"/>
-      <c r="E143" s="32"/>
-      <c r="F143" s="32"/>
-    </row>
-    <row r="144" ht="42" customHeight="1" spans="1:6">
+      <c r="D143" s="32" t="s">
+        <v>263</v>
+      </c>
+      <c r="E143" s="34" t="s">
+        <v>264</v>
+      </c>
+      <c r="F143" s="32" t="s">
+        <v>265</v>
+      </c>
+      <c r="G143" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="H143" s="18" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="144" ht="42" customHeight="1" spans="1:8">
       <c r="A144" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B144" s="55" t="s">
-        <v>263</v>
-      </c>
-      <c r="C144" s="60"/>
+        <v>268</v>
+      </c>
+      <c r="C144" s="47"/>
       <c r="D144" s="32"/>
-      <c r="E144" s="32"/>
-      <c r="F144" s="32"/>
-    </row>
-    <row r="145" ht="42" customHeight="1" spans="1:6">
+      <c r="E144" s="38"/>
+      <c r="F144" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="G144" s="10"/>
+      <c r="H144" s="18"/>
+    </row>
+    <row r="145" ht="42" customHeight="1" spans="1:8">
       <c r="A145" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B145" s="55" t="s">
-        <v>264</v>
-      </c>
-      <c r="C145" s="59" t="s">
-        <v>265</v>
-      </c>
-      <c r="D145" s="40"/>
-      <c r="E145" s="32"/>
-      <c r="F145" s="32"/>
-    </row>
-    <row r="146" ht="42" customHeight="1" spans="1:6">
+        <v>270</v>
+      </c>
+      <c r="C145" s="46" t="s">
+        <v>271</v>
+      </c>
+      <c r="D145" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="E145" s="34" t="s">
+        <v>273</v>
+      </c>
+      <c r="F145" s="38"/>
+      <c r="G145" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="H145" s="18"/>
+    </row>
+    <row r="146" ht="42" customHeight="1" spans="1:8">
       <c r="A146" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B146" s="34" t="s">
-        <v>266</v>
-      </c>
-      <c r="C146" s="60"/>
-      <c r="D146" s="40"/>
-      <c r="E146" s="32"/>
-      <c r="F146" s="32"/>
-    </row>
-    <row r="147" ht="42" customHeight="1" spans="1:6">
+        <v>275</v>
+      </c>
+      <c r="C146" s="47"/>
+      <c r="D146" s="32"/>
+      <c r="E146" s="38"/>
+      <c r="F146" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="G146" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="H146" s="18" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="147" ht="42" customHeight="1" spans="1:8">
       <c r="A147" s="6" t="s">
         <v>28</v>
       </c>
       <c r="B147" s="38"/>
-      <c r="C147" s="59" t="s">
-        <v>267</v>
-      </c>
-      <c r="D147" s="32"/>
-      <c r="E147" s="32"/>
-      <c r="F147" s="32"/>
-    </row>
-    <row r="148" ht="42" customHeight="1" spans="1:6">
+      <c r="C147" s="46" t="s">
+        <v>279</v>
+      </c>
+      <c r="D147" s="32" t="s">
+        <v>280</v>
+      </c>
+      <c r="E147" s="34" t="s">
+        <v>281</v>
+      </c>
+      <c r="F147" s="34" t="s">
+        <v>282</v>
+      </c>
+      <c r="G147" s="10"/>
+      <c r="H147" s="18"/>
+    </row>
+    <row r="148" ht="42" customHeight="1" spans="1:8">
       <c r="A148" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B148" s="34" t="s">
-        <v>268</v>
-      </c>
-      <c r="C148" s="60"/>
+        <v>283</v>
+      </c>
+      <c r="C148" s="47"/>
       <c r="D148" s="32"/>
-      <c r="E148" s="32"/>
-      <c r="F148" s="32"/>
-    </row>
-    <row r="149" ht="42" customHeight="1" spans="1:6">
+      <c r="E148" s="37"/>
+      <c r="F148" s="38"/>
+      <c r="G148" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="H148" s="18" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="149" ht="42" customHeight="1" spans="1:8">
       <c r="A149" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B149" s="38"/>
-      <c r="C149" s="59" t="s">
-        <v>269</v>
-      </c>
-      <c r="D149" s="32"/>
-      <c r="E149" s="32"/>
-      <c r="F149" s="32"/>
-    </row>
-    <row r="150" ht="42" customHeight="1" spans="1:6">
+      <c r="C149" s="46" t="s">
+        <v>286</v>
+      </c>
+      <c r="D149" s="32" t="s">
+        <v>287</v>
+      </c>
+      <c r="E149" s="38"/>
+      <c r="F149" s="34" t="s">
+        <v>288</v>
+      </c>
+      <c r="G149" s="10"/>
+      <c r="H149" s="18"/>
+    </row>
+    <row r="150" ht="42" customHeight="1" spans="1:8">
       <c r="A150" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B150" s="55" t="s">
-        <v>270</v>
-      </c>
-      <c r="C150" s="60"/>
+        <v>289</v>
+      </c>
+      <c r="C150" s="47"/>
       <c r="D150" s="32"/>
-      <c r="E150" s="32"/>
-      <c r="F150" s="32"/>
-    </row>
-    <row r="151" ht="185" customHeight="1" spans="1:6">
+      <c r="E150" s="32" t="s">
+        <v>290</v>
+      </c>
+      <c r="F150" s="38"/>
+      <c r="G150" s="10"/>
+      <c r="H150" s="18"/>
+    </row>
+    <row r="151" ht="185" customHeight="1" spans="1:7">
       <c r="A151" s="10" t="s">
         <v>88</v>
       </c>
@@ -6214,29 +6630,228 @@
       <c r="C151" s="5"/>
       <c r="D151" s="5"/>
       <c r="E151" s="5"/>
-      <c r="F151" s="5"/>
+      <c r="F151" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="G151" s="10"/>
     </row>
     <row r="152" ht="42" customHeight="1"/>
-    <row r="153" ht="42" customHeight="1"/>
-    <row r="154" ht="42" customHeight="1"/>
-    <row r="155" ht="42" customHeight="1"/>
-    <row r="156" ht="42" customHeight="1"/>
-    <row r="157" ht="42" customHeight="1"/>
-    <row r="158" ht="42" customHeight="1"/>
-    <row r="159" ht="42" customHeight="1"/>
-    <row r="160" ht="42" customHeight="1"/>
-    <row r="161" ht="42" customHeight="1"/>
-    <row r="162" ht="42" customHeight="1"/>
+    <row r="153" ht="42" customHeight="1" spans="1:6">
+      <c r="A153" s="24"/>
+      <c r="B153" s="25">
+        <v>44124</v>
+      </c>
+      <c r="C153" s="25">
+        <v>44125</v>
+      </c>
+      <c r="D153" s="25">
+        <v>44126</v>
+      </c>
+      <c r="E153" s="25">
+        <v>44127</v>
+      </c>
+      <c r="F153" s="25"/>
+    </row>
+    <row r="154" ht="42" customHeight="1" spans="1:6">
+      <c r="A154" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B154" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="C154" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="D154" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="E154" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="F154" s="18" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="155" ht="42" customHeight="1" spans="1:6">
+      <c r="A155" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B155" s="21"/>
+      <c r="C155" s="18"/>
+      <c r="D155" s="18"/>
+      <c r="E155" s="18"/>
+      <c r="F155" s="18"/>
+    </row>
+    <row r="156" ht="42" customHeight="1" spans="1:6">
+      <c r="A156" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B156" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="C156" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="D156" s="18"/>
+      <c r="E156" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="F156" s="18"/>
+    </row>
+    <row r="157" ht="42" customHeight="1" spans="1:6">
+      <c r="A157" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B157" s="38"/>
+      <c r="C157" s="10"/>
+      <c r="D157" s="18"/>
+      <c r="E157" s="18"/>
+      <c r="F157" s="18"/>
+    </row>
+    <row r="158" ht="42" customHeight="1" spans="1:6">
+      <c r="A158" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B158" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C158" s="10"/>
+      <c r="D158" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="E158" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="F158" s="18" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="159" ht="42" customHeight="1" spans="1:6">
+      <c r="A159" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B159" s="34" t="s">
+        <v>303</v>
+      </c>
+      <c r="C159" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="D159" s="18"/>
+      <c r="E159" s="18"/>
+      <c r="F159" s="18"/>
+    </row>
+    <row r="160" ht="42" customHeight="1" spans="1:6">
+      <c r="A160" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B160" s="45"/>
+      <c r="C160" s="10"/>
+      <c r="D160" s="18"/>
+      <c r="E160" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="F160" s="10" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="161" ht="42" customHeight="1" spans="1:6">
+      <c r="A161" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B161" s="55" t="s">
+        <v>307</v>
+      </c>
+      <c r="C161" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="D161" s="18"/>
+      <c r="E161" s="18"/>
+      <c r="F161" s="10"/>
+    </row>
+    <row r="162" ht="120" customHeight="1" spans="1:2">
+      <c r="A162" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B162" s="5"/>
+    </row>
     <row r="163" ht="42" customHeight="1"/>
-    <row r="164" ht="42" customHeight="1"/>
-    <row r="165" ht="42" customHeight="1"/>
-    <row r="166" ht="42" customHeight="1"/>
-    <row r="167" ht="42" customHeight="1"/>
-    <row r="168" ht="42" customHeight="1"/>
-    <row r="169" ht="42" customHeight="1"/>
-    <row r="170" ht="42" customHeight="1"/>
-    <row r="171" ht="42" customHeight="1"/>
-    <row r="172" ht="42" customHeight="1"/>
+    <row r="164" ht="42" customHeight="1" spans="2:4">
+      <c r="B164" s="25">
+        <v>44131</v>
+      </c>
+      <c r="C164" s="25">
+        <v>44132</v>
+      </c>
+      <c r="D164" s="25">
+        <v>44133</v>
+      </c>
+    </row>
+    <row r="165" ht="42" customHeight="1" spans="2:4">
+      <c r="B165" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="C165" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="D165" s="59" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="166" ht="42" customHeight="1" spans="2:4">
+      <c r="B166" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="C166" s="18"/>
+      <c r="D166" s="59"/>
+    </row>
+    <row r="167" ht="42" customHeight="1" spans="2:4">
+      <c r="B167" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="C167" s="18"/>
+      <c r="D167" s="59" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="168" ht="42" customHeight="1" spans="2:4">
+      <c r="B168" s="18"/>
+      <c r="C168" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="D168" s="59"/>
+    </row>
+    <row r="169" ht="42" customHeight="1" spans="2:4">
+      <c r="B169" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="C169" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="D169" s="59"/>
+    </row>
+    <row r="170" ht="42" customHeight="1" spans="2:4">
+      <c r="B170" s="18"/>
+      <c r="C170" s="18"/>
+      <c r="D170" s="59"/>
+    </row>
+    <row r="171" ht="42" customHeight="1" spans="2:4">
+      <c r="B171" s="18"/>
+      <c r="C171" s="18"/>
+      <c r="D171" s="59" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="172" ht="42" customHeight="1" spans="2:4">
+      <c r="B172" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="C172" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="D172" s="59" t="s">
+        <v>320</v>
+      </c>
+    </row>
     <row r="173" ht="42" customHeight="1"/>
     <row r="174" ht="42" customHeight="1"/>
     <row r="175" ht="42" customHeight="1"/>
@@ -6266,7 +6881,7 @@
     <row r="199" ht="42" customHeight="1"/>
     <row r="200" ht="42" customHeight="1"/>
   </sheetData>
-  <mergeCells count="128">
+  <mergeCells count="165">
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B14:B15"/>
@@ -6300,6 +6915,11 @@
     <mergeCell ref="B137:B138"/>
     <mergeCell ref="B146:B147"/>
     <mergeCell ref="B148:B149"/>
+    <mergeCell ref="B154:B155"/>
+    <mergeCell ref="B156:B157"/>
+    <mergeCell ref="B159:B160"/>
+    <mergeCell ref="B167:B168"/>
+    <mergeCell ref="B169:B171"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="C27:C28"/>
@@ -6327,6 +6947,11 @@
     <mergeCell ref="C145:C146"/>
     <mergeCell ref="C147:C148"/>
     <mergeCell ref="C149:C150"/>
+    <mergeCell ref="C154:C155"/>
+    <mergeCell ref="C156:C158"/>
+    <mergeCell ref="C159:C160"/>
+    <mergeCell ref="C165:C167"/>
+    <mergeCell ref="C169:C171"/>
     <mergeCell ref="D26:D28"/>
     <mergeCell ref="D29:D30"/>
     <mergeCell ref="D39:D40"/>
@@ -6350,6 +6975,14 @@
     <mergeCell ref="D110:D111"/>
     <mergeCell ref="D112:D113"/>
     <mergeCell ref="D114:D116"/>
+    <mergeCell ref="D143:D144"/>
+    <mergeCell ref="D145:D146"/>
+    <mergeCell ref="D147:D148"/>
+    <mergeCell ref="D149:D150"/>
+    <mergeCell ref="D154:D157"/>
+    <mergeCell ref="D158:D161"/>
+    <mergeCell ref="D165:D166"/>
+    <mergeCell ref="D167:D170"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="E14:E16"/>
@@ -6372,6 +7005,13 @@
     <mergeCell ref="E101:E103"/>
     <mergeCell ref="E110:E112"/>
     <mergeCell ref="E113:E115"/>
+    <mergeCell ref="E143:E144"/>
+    <mergeCell ref="E145:E146"/>
+    <mergeCell ref="E147:E149"/>
+    <mergeCell ref="E154:E155"/>
+    <mergeCell ref="E156:E157"/>
+    <mergeCell ref="E158:E159"/>
+    <mergeCell ref="E160:E161"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="F8:F9"/>
@@ -6391,10 +7031,22 @@
     <mergeCell ref="F109:F110"/>
     <mergeCell ref="F111:F113"/>
     <mergeCell ref="F114:F115"/>
+    <mergeCell ref="F144:F145"/>
+    <mergeCell ref="F147:F148"/>
+    <mergeCell ref="F149:F150"/>
+    <mergeCell ref="F154:F157"/>
+    <mergeCell ref="F158:F159"/>
+    <mergeCell ref="F160:F161"/>
     <mergeCell ref="G15:G17"/>
     <mergeCell ref="G37:G38"/>
     <mergeCell ref="G39:G41"/>
     <mergeCell ref="G43:G44"/>
+    <mergeCell ref="G143:G144"/>
+    <mergeCell ref="G146:G147"/>
+    <mergeCell ref="G148:G150"/>
+    <mergeCell ref="H143:H145"/>
+    <mergeCell ref="H146:H147"/>
+    <mergeCell ref="H148:H150"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
